--- a/bess_analyzer/BESS_Analyzer.xlsx
+++ b/bess_analyzer/BESS_Analyzer.xlsx
@@ -155,7 +155,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
@@ -169,6 +169,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf numFmtId="166" fontId="3" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="4"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
@@ -582,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:E36"/>
+  <dimension ref="B2:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1055,24 +1057,200 @@
         </is>
       </c>
       <c r="C36" s="10" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D36" s="7" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>CPUC Avoided Cost Calculator</t>
-        </is>
+          <t>CPUC Avoided Cost Calculator 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>COST PROJECTIONS (Learning Curve)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>Annual Cost Decline Rate</t>
+        </is>
+      </c>
+      <c r="C39" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E39" s="5" t="inlineStr">
+        <is>
+          <t>Technology learning rate (10-15% typical for batteries)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cost Base Year</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E40" s="5" t="inlineStr">
+        <is>
+          <t>Reference year for base costs</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>FUTURE COST PROJECTIONS</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="9" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="C43" s="9" t="inlineStr">
+        <is>
+          <t>Projected CapEx ($/kWh)</t>
+        </is>
+      </c>
+      <c r="D43" s="9" t="inlineStr">
+        <is>
+          <t>Augmentation Cost ($/kWh)</t>
+        </is>
+      </c>
+      <c r="E43" s="9" t="inlineStr">
+        <is>
+          <t>% of Today's Cost</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44">
+        <f>C40+0</f>
+        <v/>
+      </c>
+      <c r="C44" s="11">
+        <f>C24*(1-$C$39)^0</f>
+        <v/>
+      </c>
+      <c r="D44" s="11">
+        <f>C27*(1-$C$39)^0</f>
+        <v/>
+      </c>
+      <c r="E44" s="12">
+        <f>(1-$C$39)^0</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45">
+        <f>C40+5</f>
+        <v/>
+      </c>
+      <c r="C45" s="11">
+        <f>C24*(1-$C$39)^5</f>
+        <v/>
+      </c>
+      <c r="D45" s="11">
+        <f>C27*(1-$C$39)^5</f>
+        <v/>
+      </c>
+      <c r="E45" s="12">
+        <f>(1-$C$39)^5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46">
+        <f>C40+10</f>
+        <v/>
+      </c>
+      <c r="C46" s="11">
+        <f>C24*(1-$C$39)^10</f>
+        <v/>
+      </c>
+      <c r="D46" s="11">
+        <f>C27*(1-$C$39)^10</f>
+        <v/>
+      </c>
+      <c r="E46" s="12">
+        <f>(1-$C$39)^10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47">
+        <f>C40+12</f>
+        <v/>
+      </c>
+      <c r="C47" s="11">
+        <f>C24*(1-$C$39)^12</f>
+        <v/>
+      </c>
+      <c r="D47" s="11">
+        <f>C27*(1-$C$39)^12</f>
+        <v/>
+      </c>
+      <c r="E47" s="12">
+        <f>(1-$C$39)^12</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48">
+        <f>C40+15</f>
+        <v/>
+      </c>
+      <c r="C48" s="11">
+        <f>C24*(1-$C$39)^15</f>
+        <v/>
+      </c>
+      <c r="D48" s="11">
+        <f>C27*(1-$C$39)^15</f>
+        <v/>
+      </c>
+      <c r="E48" s="12">
+        <f>(1-$C$39)^15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49">
+        <f>C40+20</f>
+        <v/>
+      </c>
+      <c r="C49" s="11">
+        <f>C24*(1-$C$39)^20</f>
+        <v/>
+      </c>
+      <c r="D49" s="11">
+        <f>C27*(1-$C$39)^20</f>
+        <v/>
+      </c>
+      <c r="E49" s="12">
+        <f>(1-$C$39)^20</f>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B38:E38"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B42:E42"/>
     <mergeCell ref="B14:E14"/>
   </mergeCells>
   <dataValidations count="1">
@@ -1106,7 +1284,7 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="11" t="inlineStr">
+      <c r="B2" s="13" t="inlineStr">
         <is>
           <t>BESS Economic Analysis Results</t>
         </is>
@@ -1158,7 +1336,7 @@
           <t>Total Investment</t>
         </is>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="14">
         <f>Calculations!C7</f>
         <v/>
       </c>
@@ -1176,7 +1354,7 @@
           <t>Benefit-Cost Ratio (BCR)</t>
         </is>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="15">
         <f>Cash_Flows!Q27/Cash_Flows!P27</f>
         <v/>
       </c>
@@ -1192,7 +1370,7 @@
           <t>Net Present Value (NPV)</t>
         </is>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="15">
         <f>Cash_Flows!Q27-Cash_Flows!P27</f>
         <v/>
       </c>
@@ -1208,7 +1386,7 @@
           <t>Internal Rate of Return (IRR)</t>
         </is>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="15">
         <f>IRR(Cash_Flows!N5:N25)</f>
         <v/>
       </c>
@@ -1224,7 +1402,7 @@
           <t>Simple Payback (years)</t>
         </is>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="15">
         <f>MATCH(TRUE,Cash_Flows!R5:R25&gt;0,0)-1</f>
         <v/>
       </c>
@@ -1240,7 +1418,7 @@
           <t>PV of Total Costs</t>
         </is>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="15">
         <f>Cash_Flows!P27</f>
         <v/>
       </c>
@@ -1256,7 +1434,7 @@
           <t>PV of Total Benefits</t>
         </is>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="15">
         <f>Cash_Flows!Q27</f>
         <v/>
       </c>
@@ -1274,7 +1452,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="14">
+      <c r="B20" s="16">
         <f>IF(C11&gt;=1.5,"APPROVE - Strong economic case",IF(C11&gt;=1,"FURTHER STUDY - Marginal economics","REJECT - Costs exceed benefits"))</f>
         <v/>
       </c>
@@ -1292,7 +1470,7 @@
           <t>LCOS ($/MWh)</t>
         </is>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="15">
         <f>Cash_Flows!P27/(Calculations!C13*NPV(Inputs!C12,INDIRECT("Cash_Flows!O5:O25")))</f>
         <v/>
       </c>
@@ -1315,7 +1493,7 @@
           <t>Breakeven CapEx ($/kWh)</t>
         </is>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="15">
         <f>(Cash_Flows!Q27-(Cash_Flows!P27-Calculations!C7))/(Inputs!C10*1000)</f>
         <v/>
       </c>
@@ -1385,7 +1563,7 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="15" t="inlineStr">
+      <c r="B2" s="17" t="inlineStr">
         <is>
           <t>Annual Cash Flow Projections</t>
         </is>
@@ -1482,36 +1660,36 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="14">
         <f>Calculations!C7</f>
         <v/>
       </c>
-      <c r="D5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12" t="n">
+      <c r="D5" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="6">
         <f>SUM(C5:G5)</f>
         <v/>
       </c>
-      <c r="I5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="12" t="n">
+      <c r="I5" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="14" t="n">
         <v>0</v>
       </c>
       <c r="M5" s="6">
@@ -1522,19 +1700,19 @@
         <f>M5-H5</f>
         <v/>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="18">
         <f>1/(1+Inputs!$C$12)^B5</f>
         <v/>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="14">
         <f>H5*O5</f>
         <v/>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="14">
         <f>M5*O5</f>
         <v/>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="14">
         <f>N5</f>
         <v/>
       </c>
@@ -1543,39 +1721,39 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="12">
+      <c r="C6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E6" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12" t="n">
+      <c r="E6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6">
         <f>SUM(C6:G6)</f>
         <v/>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="14">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^0*(1-Inputs!$C$19)^0</f>
         <v/>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="14">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^0*(1-Inputs!$C$19)^0</f>
         <v/>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="14">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^0*(1-Inputs!$C$19)^0</f>
         <v/>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="14">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^0</f>
         <v/>
       </c>
@@ -1587,19 +1765,19 @@
         <f>M6-H6</f>
         <v/>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="18">
         <f>1/(1+Inputs!$C$12)^B6</f>
         <v/>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="14">
         <f>H6*O6</f>
         <v/>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="14">
         <f>M6*O6</f>
         <v/>
       </c>
-      <c r="R6" s="12">
+      <c r="R6" s="14">
         <f>R5+N6</f>
         <v/>
       </c>
@@ -1608,39 +1786,39 @@
       <c r="B7" t="n">
         <v>2</v>
       </c>
-      <c r="C7" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="C7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="14">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E7" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12" t="n">
+      <c r="E7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14" t="n">
         <v>0</v>
       </c>
       <c r="H7" s="6">
         <f>SUM(C7:G7)</f>
         <v/>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="14">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^1*(1-Inputs!$C$19)^1</f>
         <v/>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="14">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^1*(1-Inputs!$C$19)^1</f>
         <v/>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="14">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^1*(1-Inputs!$C$19)^1</f>
         <v/>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="14">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^1</f>
         <v/>
       </c>
@@ -1652,19 +1830,19 @@
         <f>M7-H7</f>
         <v/>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="18">
         <f>1/(1+Inputs!$C$12)^B7</f>
         <v/>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="14">
         <f>H7*O7</f>
         <v/>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="14">
         <f>M7*O7</f>
         <v/>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="14">
         <f>R6+N7</f>
         <v/>
       </c>
@@ -1673,39 +1851,39 @@
       <c r="B8" t="n">
         <v>3</v>
       </c>
-      <c r="C8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="C8" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="14">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="12" t="n">
+      <c r="E8" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="6">
         <f>SUM(C8:G8)</f>
         <v/>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="14">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^2*(1-Inputs!$C$19)^2</f>
         <v/>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="14">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^2*(1-Inputs!$C$19)^2</f>
         <v/>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="14">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^2*(1-Inputs!$C$19)^2</f>
         <v/>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="14">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^2</f>
         <v/>
       </c>
@@ -1717,19 +1895,19 @@
         <f>M8-H8</f>
         <v/>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="18">
         <f>1/(1+Inputs!$C$12)^B8</f>
         <v/>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="14">
         <f>H8*O8</f>
         <v/>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="14">
         <f>M8*O8</f>
         <v/>
       </c>
-      <c r="R8" s="12">
+      <c r="R8" s="14">
         <f>R7+N8</f>
         <v/>
       </c>
@@ -1738,39 +1916,39 @@
       <c r="B9" t="n">
         <v>4</v>
       </c>
-      <c r="C9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="C9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="14">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12" t="n">
+      <c r="E9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14" t="n">
         <v>0</v>
       </c>
       <c r="H9" s="6">
         <f>SUM(C9:G9)</f>
         <v/>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="14">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^3*(1-Inputs!$C$19)^3</f>
         <v/>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="14">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^3*(1-Inputs!$C$19)^3</f>
         <v/>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="14">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^3*(1-Inputs!$C$19)^3</f>
         <v/>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="14">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^3</f>
         <v/>
       </c>
@@ -1782,19 +1960,19 @@
         <f>M9-H9</f>
         <v/>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="18">
         <f>1/(1+Inputs!$C$12)^B9</f>
         <v/>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="14">
         <f>H9*O9</f>
         <v/>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="14">
         <f>M9*O9</f>
         <v/>
       </c>
-      <c r="R9" s="12">
+      <c r="R9" s="14">
         <f>R8+N9</f>
         <v/>
       </c>
@@ -1803,39 +1981,39 @@
       <c r="B10" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="12">
+      <c r="C10" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="14">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E10" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="12" t="n">
+      <c r="E10" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6">
         <f>SUM(C10:G10)</f>
         <v/>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="14">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^4*(1-Inputs!$C$19)^4</f>
         <v/>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="14">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^4*(1-Inputs!$C$19)^4</f>
         <v/>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="14">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^4*(1-Inputs!$C$19)^4</f>
         <v/>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="14">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^4</f>
         <v/>
       </c>
@@ -1847,19 +2025,19 @@
         <f>M10-H10</f>
         <v/>
       </c>
-      <c r="O10" s="16">
+      <c r="O10" s="18">
         <f>1/(1+Inputs!$C$12)^B10</f>
         <v/>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="14">
         <f>H10*O10</f>
         <v/>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="14">
         <f>M10*O10</f>
         <v/>
       </c>
-      <c r="R10" s="12">
+      <c r="R10" s="14">
         <f>R9+N10</f>
         <v/>
       </c>
@@ -1868,39 +2046,39 @@
       <c r="B11" t="n">
         <v>6</v>
       </c>
-      <c r="C11" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="12">
+      <c r="C11" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="14">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E11" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="12" t="n">
+      <c r="E11" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="6">
         <f>SUM(C11:G11)</f>
         <v/>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="14">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^5*(1-Inputs!$C$19)^5</f>
         <v/>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="14">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^5*(1-Inputs!$C$19)^5</f>
         <v/>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="14">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^5*(1-Inputs!$C$19)^5</f>
         <v/>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="14">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^5</f>
         <v/>
       </c>
@@ -1912,19 +2090,19 @@
         <f>M11-H11</f>
         <v/>
       </c>
-      <c r="O11" s="16">
+      <c r="O11" s="18">
         <f>1/(1+Inputs!$C$12)^B11</f>
         <v/>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="14">
         <f>H11*O11</f>
         <v/>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="14">
         <f>M11*O11</f>
         <v/>
       </c>
-      <c r="R11" s="12">
+      <c r="R11" s="14">
         <f>R10+N11</f>
         <v/>
       </c>
@@ -1933,39 +2111,39 @@
       <c r="B12" t="n">
         <v>7</v>
       </c>
-      <c r="C12" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="12">
+      <c r="C12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="14">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E12" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="12" t="n">
+      <c r="E12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14" t="n">
         <v>0</v>
       </c>
       <c r="H12" s="6">
         <f>SUM(C12:G12)</f>
         <v/>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="14">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^6*(1-Inputs!$C$19)^6</f>
         <v/>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="14">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^6*(1-Inputs!$C$19)^6</f>
         <v/>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="14">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^6*(1-Inputs!$C$19)^6</f>
         <v/>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="14">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^6</f>
         <v/>
       </c>
@@ -1977,19 +2155,19 @@
         <f>M12-H12</f>
         <v/>
       </c>
-      <c r="O12" s="16">
+      <c r="O12" s="18">
         <f>1/(1+Inputs!$C$12)^B12</f>
         <v/>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="14">
         <f>H12*O12</f>
         <v/>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q12" s="14">
         <f>M12*O12</f>
         <v/>
       </c>
-      <c r="R12" s="12">
+      <c r="R12" s="14">
         <f>R11+N12</f>
         <v/>
       </c>
@@ -1998,39 +2176,39 @@
       <c r="B13" t="n">
         <v>8</v>
       </c>
-      <c r="C13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="12">
+      <c r="C13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="12" t="n">
+      <c r="E13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14" t="n">
         <v>0</v>
       </c>
       <c r="H13" s="6">
         <f>SUM(C13:G13)</f>
         <v/>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="14">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^7*(1-Inputs!$C$19)^7</f>
         <v/>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="14">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^7*(1-Inputs!$C$19)^7</f>
         <v/>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="14">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^7*(1-Inputs!$C$19)^7</f>
         <v/>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="14">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^7</f>
         <v/>
       </c>
@@ -2042,19 +2220,19 @@
         <f>M13-H13</f>
         <v/>
       </c>
-      <c r="O13" s="16">
+      <c r="O13" s="18">
         <f>1/(1+Inputs!$C$12)^B13</f>
         <v/>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="14">
         <f>H13*O13</f>
         <v/>
       </c>
-      <c r="Q13" s="12">
+      <c r="Q13" s="14">
         <f>M13*O13</f>
         <v/>
       </c>
-      <c r="R13" s="12">
+      <c r="R13" s="14">
         <f>R12+N13</f>
         <v/>
       </c>
@@ -2063,39 +2241,39 @@
       <c r="B14" t="n">
         <v>9</v>
       </c>
-      <c r="C14" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="12">
+      <c r="C14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="14">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E14" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="12" t="n">
+      <c r="E14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6">
         <f>SUM(C14:G14)</f>
         <v/>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="14">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^8*(1-Inputs!$C$19)^8</f>
         <v/>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="14">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^8*(1-Inputs!$C$19)^8</f>
         <v/>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="14">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^8*(1-Inputs!$C$19)^8</f>
         <v/>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="14">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^8</f>
         <v/>
       </c>
@@ -2107,19 +2285,19 @@
         <f>M14-H14</f>
         <v/>
       </c>
-      <c r="O14" s="16">
+      <c r="O14" s="18">
         <f>1/(1+Inputs!$C$12)^B14</f>
         <v/>
       </c>
-      <c r="P14" s="12">
+      <c r="P14" s="14">
         <f>H14*O14</f>
         <v/>
       </c>
-      <c r="Q14" s="12">
+      <c r="Q14" s="14">
         <f>M14*O14</f>
         <v/>
       </c>
-      <c r="R14" s="12">
+      <c r="R14" s="14">
         <f>R13+N14</f>
         <v/>
       </c>
@@ -2128,39 +2306,39 @@
       <c r="B15" t="n">
         <v>10</v>
       </c>
-      <c r="C15" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="12">
+      <c r="C15" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="14">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E15" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="12" t="n">
+      <c r="E15" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14" t="n">
         <v>0</v>
       </c>
       <c r="H15" s="6">
         <f>SUM(C15:G15)</f>
         <v/>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="14">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^9*(1-Inputs!$C$19)^9</f>
         <v/>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="14">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^9*(1-Inputs!$C$19)^9</f>
         <v/>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="14">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^9*(1-Inputs!$C$19)^9</f>
         <v/>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="14">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^9</f>
         <v/>
       </c>
@@ -2172,19 +2350,19 @@
         <f>M15-H15</f>
         <v/>
       </c>
-      <c r="O15" s="16">
+      <c r="O15" s="18">
         <f>1/(1+Inputs!$C$12)^B15</f>
         <v/>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="14">
         <f>H15*O15</f>
         <v/>
       </c>
-      <c r="Q15" s="12">
+      <c r="Q15" s="14">
         <f>M15*O15</f>
         <v/>
       </c>
-      <c r="R15" s="12">
+      <c r="R15" s="14">
         <f>R14+N15</f>
         <v/>
       </c>
@@ -2193,39 +2371,39 @@
       <c r="B16" t="n">
         <v>11</v>
       </c>
-      <c r="C16" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="12">
+      <c r="C16" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="14">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E16" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="12" t="n">
+      <c r="E16" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14" t="n">
         <v>0</v>
       </c>
       <c r="H16" s="6">
         <f>SUM(C16:G16)</f>
         <v/>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="14">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^10*(1-Inputs!$C$19)^10</f>
         <v/>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="14">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^10*(1-Inputs!$C$19)^10</f>
         <v/>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="14">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^10*(1-Inputs!$C$19)^10</f>
         <v/>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="14">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^10</f>
         <v/>
       </c>
@@ -2237,19 +2415,19 @@
         <f>M16-H16</f>
         <v/>
       </c>
-      <c r="O16" s="16">
+      <c r="O16" s="18">
         <f>1/(1+Inputs!$C$12)^B16</f>
         <v/>
       </c>
-      <c r="P16" s="12">
+      <c r="P16" s="14">
         <f>H16*O16</f>
         <v/>
       </c>
-      <c r="Q16" s="12">
+      <c r="Q16" s="14">
         <f>M16*O16</f>
         <v/>
       </c>
-      <c r="R16" s="12">
+      <c r="R16" s="14">
         <f>R15+N16</f>
         <v/>
       </c>
@@ -2258,40 +2436,40 @@
       <c r="B17" t="n">
         <v>12</v>
       </c>
-      <c r="C17" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="12">
+      <c r="C17" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="14">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E17" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="12">
-        <f>Calculations!C9</f>
-        <v/>
-      </c>
-      <c r="G17" s="12" t="n">
+      <c r="E17" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="14">
+        <f>Calculations!C9*(1-Inputs!$C$39)^12</f>
+        <v/>
+      </c>
+      <c r="G17" s="14" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="6">
         <f>SUM(C17:G17)</f>
         <v/>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="14">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^11*(1-Inputs!$C$19)^11</f>
         <v/>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="14">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^11*(1-Inputs!$C$19)^11</f>
         <v/>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="14">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^11*(1-Inputs!$C$19)^11</f>
         <v/>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="14">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^11</f>
         <v/>
       </c>
@@ -2303,19 +2481,19 @@
         <f>M17-H17</f>
         <v/>
       </c>
-      <c r="O17" s="16">
+      <c r="O17" s="18">
         <f>1/(1+Inputs!$C$12)^B17</f>
         <v/>
       </c>
-      <c r="P17" s="12">
+      <c r="P17" s="14">
         <f>H17*O17</f>
         <v/>
       </c>
-      <c r="Q17" s="12">
+      <c r="Q17" s="14">
         <f>M17*O17</f>
         <v/>
       </c>
-      <c r="R17" s="12">
+      <c r="R17" s="14">
         <f>R16+N17</f>
         <v/>
       </c>
@@ -2324,39 +2502,39 @@
       <c r="B18" t="n">
         <v>13</v>
       </c>
-      <c r="C18" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="12">
+      <c r="C18" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="14">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E18" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="12" t="n">
+      <c r="E18" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="14" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6">
         <f>SUM(C18:G18)</f>
         <v/>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="14">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^12*(1-Inputs!$C$19)^12</f>
         <v/>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="14">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^12*(1-Inputs!$C$19)^12</f>
         <v/>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="14">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^12*(1-Inputs!$C$19)^12</f>
         <v/>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="14">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^12</f>
         <v/>
       </c>
@@ -2368,19 +2546,19 @@
         <f>M18-H18</f>
         <v/>
       </c>
-      <c r="O18" s="16">
+      <c r="O18" s="18">
         <f>1/(1+Inputs!$C$12)^B18</f>
         <v/>
       </c>
-      <c r="P18" s="12">
+      <c r="P18" s="14">
         <f>H18*O18</f>
         <v/>
       </c>
-      <c r="Q18" s="12">
+      <c r="Q18" s="14">
         <f>M18*O18</f>
         <v/>
       </c>
-      <c r="R18" s="12">
+      <c r="R18" s="14">
         <f>R17+N18</f>
         <v/>
       </c>
@@ -2389,39 +2567,39 @@
       <c r="B19" t="n">
         <v>14</v>
       </c>
-      <c r="C19" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="12">
+      <c r="C19" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="14">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E19" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="12" t="n">
+      <c r="E19" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="14" t="n">
         <v>0</v>
       </c>
       <c r="H19" s="6">
         <f>SUM(C19:G19)</f>
         <v/>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="14">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^13*(1-Inputs!$C$19)^13</f>
         <v/>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="14">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^13*(1-Inputs!$C$19)^13</f>
         <v/>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="14">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^13*(1-Inputs!$C$19)^13</f>
         <v/>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="14">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^13</f>
         <v/>
       </c>
@@ -2433,19 +2611,19 @@
         <f>M19-H19</f>
         <v/>
       </c>
-      <c r="O19" s="16">
+      <c r="O19" s="18">
         <f>1/(1+Inputs!$C$12)^B19</f>
         <v/>
       </c>
-      <c r="P19" s="12">
+      <c r="P19" s="14">
         <f>H19*O19</f>
         <v/>
       </c>
-      <c r="Q19" s="12">
+      <c r="Q19" s="14">
         <f>M19*O19</f>
         <v/>
       </c>
-      <c r="R19" s="12">
+      <c r="R19" s="14">
         <f>R18+N19</f>
         <v/>
       </c>
@@ -2454,39 +2632,39 @@
       <c r="B20" t="n">
         <v>15</v>
       </c>
-      <c r="C20" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="12">
+      <c r="C20" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="14">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E20" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="12" t="n">
+      <c r="E20" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="14" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="6">
         <f>SUM(C20:G20)</f>
         <v/>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="14">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^14*(1-Inputs!$C$19)^14</f>
         <v/>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="14">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^14*(1-Inputs!$C$19)^14</f>
         <v/>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="14">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^14*(1-Inputs!$C$19)^14</f>
         <v/>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="14">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^14</f>
         <v/>
       </c>
@@ -2498,19 +2676,19 @@
         <f>M20-H20</f>
         <v/>
       </c>
-      <c r="O20" s="16">
+      <c r="O20" s="18">
         <f>1/(1+Inputs!$C$12)^B20</f>
         <v/>
       </c>
-      <c r="P20" s="12">
+      <c r="P20" s="14">
         <f>H20*O20</f>
         <v/>
       </c>
-      <c r="Q20" s="12">
+      <c r="Q20" s="14">
         <f>M20*O20</f>
         <v/>
       </c>
-      <c r="R20" s="12">
+      <c r="R20" s="14">
         <f>R19+N20</f>
         <v/>
       </c>
@@ -2519,39 +2697,39 @@
       <c r="B21" t="n">
         <v>16</v>
       </c>
-      <c r="C21" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="12">
+      <c r="C21" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="14">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E21" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="12" t="n">
+      <c r="E21" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="14" t="n">
         <v>0</v>
       </c>
       <c r="H21" s="6">
         <f>SUM(C21:G21)</f>
         <v/>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="14">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^15*(1-Inputs!$C$19)^15</f>
         <v/>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="14">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^15*(1-Inputs!$C$19)^15</f>
         <v/>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="14">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^15*(1-Inputs!$C$19)^15</f>
         <v/>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="14">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^15</f>
         <v/>
       </c>
@@ -2563,19 +2741,19 @@
         <f>M21-H21</f>
         <v/>
       </c>
-      <c r="O21" s="16">
+      <c r="O21" s="18">
         <f>1/(1+Inputs!$C$12)^B21</f>
         <v/>
       </c>
-      <c r="P21" s="12">
+      <c r="P21" s="14">
         <f>H21*O21</f>
         <v/>
       </c>
-      <c r="Q21" s="12">
+      <c r="Q21" s="14">
         <f>M21*O21</f>
         <v/>
       </c>
-      <c r="R21" s="12">
+      <c r="R21" s="14">
         <f>R20+N21</f>
         <v/>
       </c>
@@ -2584,39 +2762,39 @@
       <c r="B22" t="n">
         <v>17</v>
       </c>
-      <c r="C22" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="12">
+      <c r="C22" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="14">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E22" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="12" t="n">
+      <c r="E22" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="14" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="6">
         <f>SUM(C22:G22)</f>
         <v/>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="14">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^16*(1-Inputs!$C$19)^16</f>
         <v/>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="14">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^16*(1-Inputs!$C$19)^16</f>
         <v/>
       </c>
-      <c r="K22" s="12">
+      <c r="K22" s="14">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^16*(1-Inputs!$C$19)^16</f>
         <v/>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="14">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^16</f>
         <v/>
       </c>
@@ -2628,19 +2806,19 @@
         <f>M22-H22</f>
         <v/>
       </c>
-      <c r="O22" s="16">
+      <c r="O22" s="18">
         <f>1/(1+Inputs!$C$12)^B22</f>
         <v/>
       </c>
-      <c r="P22" s="12">
+      <c r="P22" s="14">
         <f>H22*O22</f>
         <v/>
       </c>
-      <c r="Q22" s="12">
+      <c r="Q22" s="14">
         <f>M22*O22</f>
         <v/>
       </c>
-      <c r="R22" s="12">
+      <c r="R22" s="14">
         <f>R21+N22</f>
         <v/>
       </c>
@@ -2649,39 +2827,39 @@
       <c r="B23" t="n">
         <v>18</v>
       </c>
-      <c r="C23" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="12">
+      <c r="C23" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="14">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E23" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="12" t="n">
+      <c r="E23" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="14" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="6">
         <f>SUM(C23:G23)</f>
         <v/>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="14">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^17*(1-Inputs!$C$19)^17</f>
         <v/>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="14">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^17*(1-Inputs!$C$19)^17</f>
         <v/>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="14">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^17*(1-Inputs!$C$19)^17</f>
         <v/>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="14">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^17</f>
         <v/>
       </c>
@@ -2693,19 +2871,19 @@
         <f>M23-H23</f>
         <v/>
       </c>
-      <c r="O23" s="16">
+      <c r="O23" s="18">
         <f>1/(1+Inputs!$C$12)^B23</f>
         <v/>
       </c>
-      <c r="P23" s="12">
+      <c r="P23" s="14">
         <f>H23*O23</f>
         <v/>
       </c>
-      <c r="Q23" s="12">
+      <c r="Q23" s="14">
         <f>M23*O23</f>
         <v/>
       </c>
-      <c r="R23" s="12">
+      <c r="R23" s="14">
         <f>R22+N23</f>
         <v/>
       </c>
@@ -2714,39 +2892,39 @@
       <c r="B24" t="n">
         <v>19</v>
       </c>
-      <c r="C24" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="12">
+      <c r="C24" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="14">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E24" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="12" t="n">
+      <c r="E24" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="14" t="n">
         <v>0</v>
       </c>
       <c r="H24" s="6">
         <f>SUM(C24:G24)</f>
         <v/>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="14">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^18*(1-Inputs!$C$19)^18</f>
         <v/>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="14">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^18*(1-Inputs!$C$19)^18</f>
         <v/>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="14">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^18*(1-Inputs!$C$19)^18</f>
         <v/>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="14">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^18</f>
         <v/>
       </c>
@@ -2758,19 +2936,19 @@
         <f>M24-H24</f>
         <v/>
       </c>
-      <c r="O24" s="16">
+      <c r="O24" s="18">
         <f>1/(1+Inputs!$C$12)^B24</f>
         <v/>
       </c>
-      <c r="P24" s="12">
+      <c r="P24" s="14">
         <f>H24*O24</f>
         <v/>
       </c>
-      <c r="Q24" s="12">
+      <c r="Q24" s="14">
         <f>M24*O24</f>
         <v/>
       </c>
-      <c r="R24" s="12">
+      <c r="R24" s="14">
         <f>R23+N24</f>
         <v/>
       </c>
@@ -2779,20 +2957,20 @@
       <c r="B25" t="n">
         <v>20</v>
       </c>
-      <c r="C25" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="12">
+      <c r="C25" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="14">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E25" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="12">
+      <c r="E25" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="14">
         <f>Calculations!C10</f>
         <v/>
       </c>
@@ -2800,19 +2978,19 @@
         <f>SUM(C25:G25)</f>
         <v/>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="14">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^19*(1-Inputs!$C$19)^19</f>
         <v/>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="14">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^19*(1-Inputs!$C$19)^19</f>
         <v/>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="14">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^19*(1-Inputs!$C$19)^19</f>
         <v/>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="14">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^19</f>
         <v/>
       </c>
@@ -2824,19 +3002,19 @@
         <f>M25-H25</f>
         <v/>
       </c>
-      <c r="O25" s="16">
+      <c r="O25" s="18">
         <f>1/(1+Inputs!$C$12)^B25</f>
         <v/>
       </c>
-      <c r="P25" s="12">
+      <c r="P25" s="14">
         <f>H25*O25</f>
         <v/>
       </c>
-      <c r="Q25" s="12">
+      <c r="Q25" s="14">
         <f>M25*O25</f>
         <v/>
       </c>
-      <c r="R25" s="12">
+      <c r="R25" s="14">
         <f>R24+N25</f>
         <v/>
       </c>
@@ -2847,19 +3025,19 @@
           <t>TOTALS</t>
         </is>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="19">
         <f>SUM(H5:H25)</f>
         <v/>
       </c>
-      <c r="M27" s="17">
+      <c r="M27" s="19">
         <f>SUM(M5:M25)</f>
         <v/>
       </c>
-      <c r="P27" s="17">
+      <c r="P27" s="19">
         <f>SUM(P5:P25)</f>
         <v/>
       </c>
-      <c r="Q27" s="17">
+      <c r="Q27" s="19">
         <f>SUM(Q5:Q25)</f>
         <v/>
       </c>
@@ -2890,7 +3068,7 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="15" t="inlineStr">
+      <c r="B2" s="17" t="inlineStr">
         <is>
           <t>Calculation Engine</t>
         </is>
@@ -2909,7 +3087,7 @@
           <t>Capacity (kW)</t>
         </is>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="20">
         <f>Inputs!C8*1000</f>
         <v/>
       </c>
@@ -2925,7 +3103,7 @@
           <t>Capacity (kWh)</t>
         </is>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="20">
         <f>Inputs!C10*1000</f>
         <v/>
       </c>
@@ -2941,7 +3119,7 @@
           <t>Total CapEx ($)</t>
         </is>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="20">
         <f>Inputs!C24*C6</f>
         <v/>
       </c>
@@ -2957,7 +3135,7 @@
           <t>Annual Fixed O&amp;M ($)</t>
         </is>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="20">
         <f>Inputs!C25*C5</f>
         <v/>
       </c>
@@ -2973,7 +3151,7 @@
           <t>Augmentation Cost ($)</t>
         </is>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="20">
         <f>Inputs!C27*C6</f>
         <v/>
       </c>
@@ -2989,7 +3167,7 @@
           <t>Decommissioning Cost ($)</t>
         </is>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="20">
         <f>Inputs!C28*C5</f>
         <v/>
       </c>
@@ -3027,7 +3205,7 @@
           <t>Annual discharge (MWh)</t>
         </is>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="21">
         <f>Inputs!C10*C13*Inputs!C18</f>
         <v/>
       </c>
@@ -3055,7 +3233,7 @@
           <t>Σ(CFₜ / (1+r)ᵗ) for t=0 to N</t>
         </is>
       </c>
-      <c r="D17" s="20" t="inlineStr">
+      <c r="D17" s="22" t="inlineStr">
         <is>
           <t>Brealey &amp; Myers (2020)</t>
         </is>
@@ -3072,7 +3250,7 @@
           <t>PV(Benefits) / PV(Costs)</t>
         </is>
       </c>
-      <c r="D18" s="20" t="inlineStr">
+      <c r="D18" s="22" t="inlineStr">
         <is>
           <t>CPUC Standard Practice Manual</t>
         </is>
@@ -3089,7 +3267,7 @@
           <t>Rate where NPV = 0</t>
         </is>
       </c>
-      <c r="D19" s="20" t="inlineStr">
+      <c r="D19" s="22" t="inlineStr">
         <is>
           <t>Brealey &amp; Myers (2020)</t>
         </is>
@@ -3106,7 +3284,7 @@
           <t>PV(Costs) / PV(Energy)</t>
         </is>
       </c>
-      <c r="D20" s="20" t="inlineStr">
+      <c r="D20" s="22" t="inlineStr">
         <is>
           <t>Lazard Methodology</t>
         </is>
@@ -3123,7 +3301,7 @@
           <t>Year where cumulative CF &gt; 0</t>
         </is>
       </c>
-      <c r="D21" s="20" t="inlineStr">
+      <c r="D21" s="22" t="inlineStr">
         <is>
           <t>Standard finance</t>
         </is>
@@ -3145,7 +3323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:B63"/>
+  <dimension ref="B2:B73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3172,7 +3350,7 @@
       </c>
     </row>
     <row r="5" ht="45" customHeight="1">
-      <c r="B5" s="21" t="inlineStr">
+      <c r="B5" s="23" t="inlineStr">
         <is>
           <t>This workbook performs economic analysis of battery energy storage system (BESS) projects using standard discounted cash flow (DCF) methodology. All calculations follow industry-standard approaches from NREL, Lazard, and the California Public Utilities Commission (CPUC).</t>
         </is>
@@ -3193,7 +3371,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="20" t="inlineStr">
+      <c r="B9" s="22" t="inlineStr">
         <is>
           <t>Formula: NPV = Σ(CFₜ / (1+r)ᵗ) for t=0 to N</t>
         </is>
@@ -3214,7 +3392,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="20" t="inlineStr">
+      <c r="B13" s="22" t="inlineStr">
         <is>
           <t>Formula: BCR = PV(Benefits) / PV(Costs)</t>
         </is>
@@ -3235,7 +3413,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="20" t="inlineStr">
+      <c r="B17" s="22" t="inlineStr">
         <is>
           <t>Formula: IRR: Find r where NPV = 0</t>
         </is>
@@ -3256,7 +3434,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="20" t="inlineStr">
+      <c r="B21" s="22" t="inlineStr">
         <is>
           <t>Formula: LCOS = PV(Lifetime Costs) / PV(Lifetime Energy Discharged)</t>
         </is>
@@ -3277,7 +3455,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="20" t="inlineStr">
+      <c r="B25" s="22" t="inlineStr">
         <is>
           <t>Formula: Year t where Σ(CF₀ to CFₜ) ≥ 0</t>
         </is>
@@ -3298,7 +3476,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="20" t="inlineStr">
+      <c r="B29" s="22" t="inlineStr">
         <is>
           <t>Formula: Capacity(t) = Capacity(0) × (1 - degradation_rate)^t</t>
         </is>
@@ -3319,7 +3497,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="20" t="inlineStr">
+      <c r="B33" s="22" t="inlineStr">
         <is>
           <t>Formula: Value(t) = Value(1) × (1 + escalation_rate)^(t-1)</t>
         </is>
@@ -3333,168 +3511,224 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>ASSUMPTION LIBRARIES</t>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Technology Learning Curve (Cost Decline)</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="B37" s="3" t="inlineStr">
-        <is>
-          <t>NREL ATB 2024 - Moderate</t>
+      <c r="B37" s="22" t="inlineStr">
+        <is>
+          <t>Formula: Cost(year) = Cost(base) × (1 - learning_rate)^(year - base_year)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
+          <t>Battery costs decline ~10-15% annually; reduces augmentation &amp; replacement costs</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>T&amp;D Deferral Benefit</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="22" t="inlineStr">
+        <is>
+          <t>Formula: Annual Value = Avoided_Cost_per_kW × Capacity_kW × BESS_Contribution_Factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Value of deferring transmission/distribution infrastructure investments</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>ASSUMPTION LIBRARIES</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>NREL ATB 2024 - Moderate</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
           <t>Source: National Renewable Energy Laboratory Annual Technology Baseline 2024</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="B39" s="22" t="inlineStr">
+    <row r="47">
+      <c r="B47" s="24" t="inlineStr">
         <is>
           <t>URL: https://atb.nrel.gov/electricity/2024/utility-scale_battery_storage</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Notes: Moderate cost scenario from median of 16 industry sources. 4-hour LFP system.</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" s="3" t="inlineStr">
-        <is>
-          <t>Lazard LCOS 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Source: Lazard's Levelized Cost of Storage Analysis, Version 10.0 (March 2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" s="22" t="inlineStr">
-        <is>
-          <t>URL: https://www.lazard.com/research-insights/levelized-cost-of-storage/</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Notes: Utility-scale 100 MW / 400 MWh LFP system. Merchant project structure.</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>CPUC California 2024</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
+          <t>Notes: Moderate cost scenario from median of 16 industry sources. 4-hour LFP system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>Lazard LCOS 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Source: Lazard's Levelized Cost of Storage Analysis, Version 10.0 (March 2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="24" t="inlineStr">
+        <is>
+          <t>URL: https://www.lazard.com/research-insights/levelized-cost-of-storage/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Notes: Utility-scale 100 MW / 400 MWh LFP system. Merchant project structure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>CPUC California 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="inlineStr">
+        <is>
           <t>Source: California Public Utilities Commission Standard Practice Manual</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="B49" s="22" t="inlineStr">
+    <row r="57">
+      <c r="B57" s="24" t="inlineStr">
         <is>
           <t>URL: https://www.cpuc.ca.gov/industries-and-topics/electrical-energy/demand-side-management</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="B50" t="inlineStr">
+    <row r="58">
+      <c r="B58" t="inlineStr">
         <is>
           <t>Notes: California-specific assumptions including RA premiums and T&amp;D deferral values.</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="B52" s="2" t="inlineStr">
+    <row r="60">
+      <c r="B60" s="2" t="inlineStr">
         <is>
           <t>REFERENCES &amp; CITATIONS</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="30" customHeight="1">
-      <c r="B53" s="21" t="inlineStr">
+    <row r="61" ht="30" customHeight="1">
+      <c r="B61" s="23" t="inlineStr">
         <is>
           <t>[1] NREL. Annual Technology Baseline 2024. National Renewable Energy Laboratory. April 2024. https://atb.nrel.gov/</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="30" customHeight="1">
-      <c r="B54" s="21" t="inlineStr">
+    <row r="62" ht="30" customHeight="1">
+      <c r="B62" s="23" t="inlineStr">
         <is>
           <t>[2] Lazard. Lazard's Levelized Cost of Storage Analysis, Version 10.0. March 2025.</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="30" customHeight="1">
-      <c r="B55" s="21" t="inlineStr">
+    <row r="63" ht="30" customHeight="1">
+      <c r="B63" s="23" t="inlineStr">
         <is>
           <t>[3] California Public Utilities Commission. California Standard Practice Manual: Economic Analysis of Demand-Side Programs and Projects. October 2001.</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="30" customHeight="1">
-      <c r="B56" s="21" t="inlineStr">
+    <row r="64" ht="30" customHeight="1">
+      <c r="B64" s="23" t="inlineStr">
         <is>
           <t>[4] California Public Utilities Commission. 2024 Resource Adequacy Report. D.24-06-050. November 2024.</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="30" customHeight="1">
-      <c r="B57" s="21" t="inlineStr">
+    <row r="65" ht="30" customHeight="1">
+      <c r="B65" s="23" t="inlineStr">
         <is>
           <t>[5] E3 (Energy+Environmental Economics). 2024 Avoided Cost Calculator. Prepared for CPUC. October 2024.</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="30" customHeight="1">
-      <c r="B58" s="21" t="inlineStr">
+    <row r="66" ht="30" customHeight="1">
+      <c r="B66" s="23" t="inlineStr">
         <is>
           <t>[6] California ISO. Market Performance Reports 2024. https://www.caiso.com/market/</t>
         </is>
       </c>
     </row>
-    <row r="59" ht="30" customHeight="1">
-      <c r="B59" s="21" t="inlineStr">
+    <row r="67" ht="30" customHeight="1">
+      <c r="B67" s="23" t="inlineStr">
         <is>
           <t>[7] Brealey, R., Myers, S., &amp; Allen, F. Principles of Corporate Finance (13th ed.). McGraw-Hill, 2020.</t>
         </is>
       </c>
     </row>
-    <row r="60" ht="30" customHeight="1">
-      <c r="B60" s="21" t="inlineStr">
+    <row r="68" ht="30" customHeight="1">
+      <c r="B68" s="23" t="inlineStr">
         <is>
           <t>[8] NREL. Storage Futures Study: Economic Potential of Diurnal Storage. NREL/TP-6A20-77449. 2021.</t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="B62" s="2" t="inlineStr">
+    <row r="69" ht="30" customHeight="1">
+      <c r="B69" s="23" t="inlineStr">
+        <is>
+          <t>[9] BloombergNEF. Lithium-Ion Battery Price Survey 2025. Battery technology learning curves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="30" customHeight="1">
+      <c r="B70" s="23" t="inlineStr">
+        <is>
+          <t>[10] E3. California Energy Storage Cost Analysis 2024. T&amp;D Deferral methodology and avoided cost calculations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="2" t="inlineStr">
         <is>
           <t>DISCLAIMER</t>
         </is>
       </c>
     </row>
-    <row r="63" ht="60" customHeight="1">
-      <c r="B63" s="21" t="inlineStr">
+    <row r="73" ht="60" customHeight="1">
+      <c r="B73" s="23" t="inlineStr">
         <is>
           <t>This model is provided for analytical purposes only. Results should be validated against independent sources before use in investment decisions. Actual project economics will vary based on site-specific conditions, market dynamics, and evolving technology costs. Users are responsible for verifying all assumptions and calculations.</t>
         </is>
@@ -3511,7 +3745,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3530,7 +3764,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="23" t="inlineStr">
+      <c r="A1" s="25" t="inlineStr">
         <is>
           <t>Assumption Library Data (for reference)</t>
         </is>
@@ -3714,74 +3948,112 @@
         <v>12</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Learning Rate (Cost Decline)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11%</t>
+        </is>
+      </c>
+    </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Cost Base Year</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>Benefit Streams ($/kW-yr)</t>
         </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Resource Adequacy</t>
-        </is>
-      </c>
-      <c r="B15" s="12" t="n">
-        <v>150</v>
-      </c>
-      <c r="C15" s="12" t="n">
-        <v>140</v>
-      </c>
-      <c r="D15" s="12" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Energy Arbitrage</t>
-        </is>
-      </c>
-      <c r="B16" s="12" t="n">
-        <v>40</v>
-      </c>
-      <c r="C16" s="12" t="n">
-        <v>45</v>
-      </c>
-      <c r="D16" s="12" t="n">
-        <v>35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ancillary Services</t>
-        </is>
-      </c>
-      <c r="B17" s="12" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="D17" s="12" t="n">
-        <v>10</v>
+          <t>Resource Adequacy</t>
+        </is>
+      </c>
+      <c r="B17" s="14" t="n">
+        <v>150</v>
+      </c>
+      <c r="C17" s="14" t="n">
+        <v>140</v>
+      </c>
+      <c r="D17" s="14" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>Energy Arbitrage</t>
+        </is>
+      </c>
+      <c r="B18" s="14" t="n">
+        <v>40</v>
+      </c>
+      <c r="C18" s="14" t="n">
+        <v>45</v>
+      </c>
+      <c r="D18" s="14" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ancillary Services</t>
+        </is>
+      </c>
+      <c r="B19" s="14" t="n">
+        <v>15</v>
+      </c>
+      <c r="C19" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D19" s="14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>T&amp;D Deferral</t>
         </is>
       </c>
-      <c r="B18" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="12" t="n">
+      <c r="B20" s="14" t="n">
+        <v>25</v>
+      </c>
+      <c r="C20" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="D20" s="14" t="n">
         <v>25</v>
       </c>
     </row>
@@ -3796,7 +4068,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:B288"/>
+  <dimension ref="B2:B303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3872,1766 +4144,1871 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="24" t="inlineStr">
+      <c r="B13" s="26" t="inlineStr">
         <is>
           <t>'=============================================================</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="24" t="inlineStr">
+      <c r="B14" s="26" t="inlineStr">
         <is>
           <t>' BESS Analyzer VBA Macros</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="24" t="inlineStr">
+      <c r="B15" s="26" t="inlineStr">
         <is>
           <t>' Copy this entire code block into a VBA Module</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="24" t="inlineStr">
+      <c r="B16" s="26" t="inlineStr">
         <is>
           <t>'=============================================================</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="24" t="inlineStr"/>
+      <c r="B17" s="26" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="B18" s="24" t="inlineStr">
+      <c r="B18" s="26" t="inlineStr">
         <is>
           <t>Sub GenerateReport()</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="24" t="inlineStr">
+      <c r="B19" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    ' Generate a formatted report on a new sheet</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="24" t="inlineStr">
+      <c r="B20" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    Dim wsReport As Worksheet</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="24" t="inlineStr">
+      <c r="B21" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    Dim wsResults As Worksheet</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="24" t="inlineStr">
+      <c r="B22" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    Dim wsInputs As Worksheet</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="24" t="inlineStr">
+      <c r="B23" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    Dim wsCF As Worksheet</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="24" t="inlineStr"/>
+      <c r="B24" s="26" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="B25" s="24" t="inlineStr">
+      <c r="B25" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    Set wsResults = ThisWorkbook.Sheets("Results")</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="24" t="inlineStr">
+      <c r="B26" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    Set wsInputs = ThisWorkbook.Sheets("Inputs")</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="24" t="inlineStr">
+      <c r="B27" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    Set wsCF = ThisWorkbook.Sheets("Cash_Flows")</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="24" t="inlineStr"/>
+      <c r="B28" s="26" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="B29" s="24" t="inlineStr">
+      <c r="B29" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    ' Delete old report if exists</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="24" t="inlineStr">
+      <c r="B30" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    On Error Resume Next</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="24" t="inlineStr">
+      <c r="B31" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    Application.DisplayAlerts = False</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="24" t="inlineStr">
+      <c r="B32" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    ThisWorkbook.Sheets("Report").Delete</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="24" t="inlineStr">
+      <c r="B33" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    Application.DisplayAlerts = True</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="24" t="inlineStr">
+      <c r="B34" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    On Error GoTo 0</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="24" t="inlineStr"/>
+      <c r="B35" s="26" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="B36" s="24" t="inlineStr">
+      <c r="B36" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    ' Create new report sheet</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="B37" s="24" t="inlineStr">
+      <c r="B37" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    Set wsReport = ThisWorkbook.Sheets.Add(After:=ThisWorkbook.Sheets(ThisWorkbook.Sheets.Count))</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="B38" s="24" t="inlineStr">
+      <c r="B38" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Name = "Report"</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="24" t="inlineStr"/>
+      <c r="B39" s="26" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="B40" s="24" t="inlineStr">
+      <c r="B40" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    ' Set up report formatting</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="B41" s="24" t="inlineStr">
+      <c r="B41" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.PageSetup.Orientation = xlPortrait</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="B42" s="24" t="inlineStr">
+      <c r="B42" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.PageSetup.FitToPagesWide = 1</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="B43" s="24" t="inlineStr">
+      <c r="B43" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.PageSetup.FitToPagesTall = False</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="B44" s="24" t="inlineStr"/>
+      <c r="B44" s="26" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="B45" s="24" t="inlineStr">
+      <c r="B45" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    Dim row As Long</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="B46" s="24" t="inlineStr">
+      <c r="B46" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = 2</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="B47" s="24" t="inlineStr"/>
+      <c r="B47" s="26" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="B48" s="24" t="inlineStr">
+      <c r="B48" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    ' Title</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="B49" s="24" t="inlineStr">
+      <c r="B49" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "BESS ECONOMIC ANALYSIS REPORT"</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="B50" s="24" t="inlineStr">
+      <c r="B50" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Font.Bold = True</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="B51" s="24" t="inlineStr">
+      <c r="B51" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Font.Size = 18</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="B52" s="24" t="inlineStr">
+      <c r="B52" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Range("B" &amp; row &amp; ":F" &amp; row).Merge</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="B53" s="24" t="inlineStr">
+      <c r="B53" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 2</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="B54" s="24" t="inlineStr"/>
+      <c r="B54" s="26" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="B55" s="24" t="inlineStr">
+      <c r="B55" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    ' Project Summary</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="B56" s="24" t="inlineStr">
+      <c r="B56" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "PROJECT SUMMARY"</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="B57" s="24" t="inlineStr">
+      <c r="B57" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Font.Bold = True</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="B58" s="24" t="inlineStr">
+      <c r="B58" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Font.Size = 14</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="B59" s="24" t="inlineStr">
+      <c r="B59" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Interior.Color = RGB(227, 242, 253)</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="B60" s="24" t="inlineStr">
+      <c r="B60" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Range("B" &amp; row &amp; ":F" &amp; row).Merge</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="B61" s="24" t="inlineStr">
+      <c r="B61" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 1</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="B62" s="24" t="inlineStr"/>
+      <c r="B62" s="26" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="B63" s="24" t="inlineStr">
+      <c r="B63" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "Project Name:"</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="B64" s="24" t="inlineStr">
+      <c r="B64" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 3).Value = wsInputs.Range("C5").Value</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="B65" s="24" t="inlineStr">
+      <c r="B65" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 1</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="B66" s="24" t="inlineStr"/>
+      <c r="B66" s="26" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="B67" s="24" t="inlineStr">
+      <c r="B67" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "Location:"</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="B68" s="24" t="inlineStr">
+      <c r="B68" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 3).Value = wsInputs.Range("C7").Value</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="B69" s="24" t="inlineStr">
+      <c r="B69" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 1</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="B70" s="24" t="inlineStr"/>
+      <c r="B70" s="26" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="B71" s="24" t="inlineStr">
+      <c r="B71" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "Capacity:"</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="B72" s="24" t="inlineStr">
+      <c r="B72" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 3).Value = wsInputs.Range("C8").Value &amp; " MW / " &amp; wsInputs.Range("C10").Value &amp; " MWh"</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="B73" s="24" t="inlineStr">
+      <c r="B73" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 1</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="B74" s="24" t="inlineStr"/>
+      <c r="B74" s="26" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="B75" s="24" t="inlineStr">
+      <c r="B75" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "Total Investment:"</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="B76" s="24" t="inlineStr">
+      <c r="B76" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 3).Value = wsResults.Range("C8").Value</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="B77" s="24" t="inlineStr">
+      <c r="B77" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 3).NumberFormat = "$#,##0"</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="B78" s="24" t="inlineStr">
+      <c r="B78" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 2</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="B79" s="24" t="inlineStr"/>
+      <c r="B79" s="26" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="B80" s="24" t="inlineStr">
+      <c r="B80" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    ' Key Metrics</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="B81" s="24" t="inlineStr">
+      <c r="B81" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "KEY FINANCIAL METRICS"</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="B82" s="24" t="inlineStr">
+      <c r="B82" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Font.Bold = True</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="B83" s="24" t="inlineStr">
+      <c r="B83" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Font.Size = 14</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="B84" s="24" t="inlineStr">
+      <c r="B84" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Interior.Color = RGB(227, 242, 253)</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="B85" s="24" t="inlineStr">
+      <c r="B85" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Range("B" &amp; row &amp; ":F" &amp; row).Merge</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="B86" s="24" t="inlineStr">
+      <c r="B86" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 1</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="B87" s="24" t="inlineStr"/>
+      <c r="B87" s="26" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="B88" s="24" t="inlineStr">
+      <c r="B88" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "Benefit-Cost Ratio (BCR):"</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="B89" s="24" t="inlineStr">
+      <c r="B89" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 3).Value = wsResults.Range("C11").Value</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="B90" s="24" t="inlineStr">
+      <c r="B90" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 3).NumberFormat = "0.00"</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="B91" s="24" t="inlineStr">
+      <c r="B91" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 1</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="B92" s="24" t="inlineStr"/>
+      <c r="B92" s="26" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="B93" s="24" t="inlineStr">
+      <c r="B93" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "Net Present Value (NPV):"</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="B94" s="24" t="inlineStr">
+      <c r="B94" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 3).Value = wsResults.Range("C12").Value</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="B95" s="24" t="inlineStr">
+      <c r="B95" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 3).NumberFormat = "$#,##0"</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="B96" s="24" t="inlineStr">
+      <c r="B96" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 1</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="B97" s="24" t="inlineStr"/>
+      <c r="B97" s="26" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="B98" s="24" t="inlineStr">
+      <c r="B98" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "Internal Rate of Return (IRR):"</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="B99" s="24" t="inlineStr">
+      <c r="B99" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 3).Value = wsResults.Range("C13").Value</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="B100" s="24" t="inlineStr">
+      <c r="B100" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 3).NumberFormat = "0.0%"</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="B101" s="24" t="inlineStr">
+      <c r="B101" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 1</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="B102" s="24" t="inlineStr"/>
+      <c r="B102" s="26" t="inlineStr"/>
     </row>
     <row r="103">
-      <c r="B103" s="24" t="inlineStr">
+      <c r="B103" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "Simple Payback Period:"</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="B104" s="24" t="inlineStr">
+      <c r="B104" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 3).Value = wsResults.Range("C14").Value &amp; " years"</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="B105" s="24" t="inlineStr">
+      <c r="B105" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 1</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="B106" s="24" t="inlineStr"/>
+      <c r="B106" s="26" t="inlineStr"/>
     </row>
     <row r="107">
-      <c r="B107" s="24" t="inlineStr">
+      <c r="B107" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "LCOS:"</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="B108" s="24" t="inlineStr">
+      <c r="B108" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 3).Value = wsResults.Range("C21").Value</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="B109" s="24" t="inlineStr">
+      <c r="B109" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 3).NumberFormat = "$#,##0.00/MWh"</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="B110" s="24" t="inlineStr">
+      <c r="B110" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 2</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="B111" s="24" t="inlineStr"/>
+      <c r="B111" s="26" t="inlineStr"/>
     </row>
     <row r="112">
-      <c r="B112" s="24" t="inlineStr">
+      <c r="B112" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    ' Recommendation</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="B113" s="24" t="inlineStr">
+      <c r="B113" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "RECOMMENDATION"</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="B114" s="24" t="inlineStr">
+      <c r="B114" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Font.Bold = True</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="B115" s="24" t="inlineStr">
+      <c r="B115" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Font.Size = 14</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="B116" s="24" t="inlineStr">
+      <c r="B116" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Interior.Color = RGB(227, 242, 253)</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="B117" s="24" t="inlineStr">
+      <c r="B117" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Range("B" &amp; row &amp; ":F" &amp; row).Merge</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="B118" s="24" t="inlineStr">
+      <c r="B118" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 1</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="B119" s="24" t="inlineStr"/>
+      <c r="B119" s="26" t="inlineStr"/>
     </row>
     <row r="120">
-      <c r="B120" s="24" t="inlineStr">
+      <c r="B120" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = wsResults.Range("B19").Value</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="B121" s="24" t="inlineStr">
+      <c r="B121" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Font.Bold = True</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="B122" s="24" t="inlineStr">
+      <c r="B122" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Font.Size = 12</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="B123" s="24" t="inlineStr">
+      <c r="B123" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Range("B" &amp; row &amp; ":F" &amp; row).Merge</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="B124" s="24" t="inlineStr">
+      <c r="B124" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 2</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="B125" s="24" t="inlineStr"/>
+      <c r="B125" s="26" t="inlineStr"/>
     </row>
     <row r="126">
-      <c r="B126" s="24" t="inlineStr">
+      <c r="B126" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    ' Methodology Note</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="B127" s="24" t="inlineStr">
+      <c r="B127" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "METHODOLOGY"</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="B128" s="24" t="inlineStr">
+      <c r="B128" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Font.Bold = True</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="B129" s="24" t="inlineStr">
+      <c r="B129" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Font.Size = 14</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="B130" s="24" t="inlineStr">
+      <c r="B130" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Interior.Color = RGB(227, 242, 253)</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="B131" s="24" t="inlineStr">
+      <c r="B131" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Range("B" &amp; row &amp; ":F" &amp; row).Merge</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="B132" s="24" t="inlineStr">
+      <c r="B132" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 1</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="B133" s="24" t="inlineStr"/>
+      <c r="B133" s="26" t="inlineStr"/>
     </row>
     <row r="134">
-      <c r="B134" s="24" t="inlineStr">
+      <c r="B134" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "Analysis uses standard DCF methodology per CPUC Standard Practice Manual."</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="B135" s="24" t="inlineStr">
+      <c r="B135" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 1</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="B136" s="24" t="inlineStr">
+      <c r="B136" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "BCR = PV(Benefits) / PV(Costs); IRR = rate where NPV = 0"</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="B137" s="24" t="inlineStr">
+      <c r="B137" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 1</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="B138" s="24" t="inlineStr">
+      <c r="B138" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "LCOS calculated per Lazard methodology: PV(Costs) / PV(Energy)"</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="B139" s="24" t="inlineStr">
+      <c r="B139" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 2</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="B140" s="24" t="inlineStr"/>
+      <c r="B140" s="26" t="inlineStr"/>
     </row>
     <row r="141">
-      <c r="B141" s="24" t="inlineStr">
+      <c r="B141" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    ' References</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="B142" s="24" t="inlineStr">
+      <c r="B142" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "REFERENCES"</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="B143" s="24" t="inlineStr">
+      <c r="B143" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Font.Bold = True</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="B144" s="24" t="inlineStr">
+      <c r="B144" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Font.Size = 14</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="B145" s="24" t="inlineStr">
+      <c r="B145" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Interior.Color = RGB(227, 242, 253)</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="B146" s="24" t="inlineStr">
+      <c r="B146" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Range("B" &amp; row &amp; ":F" &amp; row).Merge</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="B147" s="24" t="inlineStr">
+      <c r="B147" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 1</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="B148" s="24" t="inlineStr"/>
+      <c r="B148" s="26" t="inlineStr"/>
     </row>
     <row r="149">
-      <c r="B149" s="24" t="inlineStr">
+      <c r="B149" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "1. NREL Annual Technology Baseline 2024"</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="B150" s="24" t="inlineStr">
+      <c r="B150" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 1</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="B151" s="24" t="inlineStr">
+      <c r="B151" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "2. Lazard LCOS v10.0 (2025)"</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="B152" s="24" t="inlineStr">
+      <c r="B152" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 1</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="B153" s="24" t="inlineStr">
+      <c r="B153" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "3. CPUC Standard Practice Manual (2001)"</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="B154" s="24" t="inlineStr">
+      <c r="B154" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 1</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="B155" s="24" t="inlineStr">
+      <c r="B155" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "4. Brealey &amp; Myers, Principles of Corporate Finance"</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="B156" s="24" t="inlineStr">
+      <c r="B156" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 2</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="B157" s="24" t="inlineStr"/>
+      <c r="B157" s="26" t="inlineStr"/>
     </row>
     <row r="158">
-      <c r="B158" s="24" t="inlineStr">
+      <c r="B158" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    ' Adjust column widths</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="B159" s="24" t="inlineStr">
+      <c r="B159" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Columns("B").ColumnWidth = 30</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="B160" s="24" t="inlineStr">
+      <c r="B160" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Columns("C").ColumnWidth = 25</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="B161" s="24" t="inlineStr">
+      <c r="B161" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Columns("D:F").ColumnWidth = 15</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="B162" s="24" t="inlineStr"/>
+      <c r="B162" s="26" t="inlineStr"/>
     </row>
     <row r="163">
-      <c r="B163" s="24" t="inlineStr">
+      <c r="B163" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    MsgBox "Report generated on 'Report' sheet. You can print or export to PDF.", vbInformation</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="B164" s="24" t="inlineStr"/>
+      <c r="B164" s="26" t="inlineStr"/>
     </row>
     <row r="165">
-      <c r="B165" s="24" t="inlineStr">
+      <c r="B165" s="26" t="inlineStr">
         <is>
           <t>End Sub</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="B166" s="24" t="inlineStr"/>
+      <c r="B166" s="26" t="inlineStr"/>
     </row>
     <row r="167">
-      <c r="B167" s="24" t="inlineStr">
+      <c r="B167" s="26" t="inlineStr">
         <is>
           <t>Sub ExportToPDF()</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="B168" s="24" t="inlineStr">
+      <c r="B168" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    ' Export the Report sheet to PDF</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="B169" s="24" t="inlineStr">
+      <c r="B169" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    Dim wsReport As Worksheet</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="B170" s="24" t="inlineStr">
+      <c r="B170" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    Dim filePath As String</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="B171" s="24" t="inlineStr"/>
+      <c r="B171" s="26" t="inlineStr"/>
     </row>
     <row r="172">
-      <c r="B172" s="24" t="inlineStr">
+      <c r="B172" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    On Error Resume Next</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="B173" s="24" t="inlineStr">
+      <c r="B173" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    Set wsReport = ThisWorkbook.Sheets("Report")</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="B174" s="24" t="inlineStr">
+      <c r="B174" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    On Error GoTo 0</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="B175" s="24" t="inlineStr"/>
+      <c r="B175" s="26" t="inlineStr"/>
     </row>
     <row r="176">
-      <c r="B176" s="24" t="inlineStr">
+      <c r="B176" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    If wsReport Is Nothing Then</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="B177" s="24" t="inlineStr">
+      <c r="B177" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">        MsgBox "Please run 'Generate Report' first.", vbExclamation</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="B178" s="24" t="inlineStr">
+      <c r="B178" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">        Exit Sub</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="B179" s="24" t="inlineStr">
+      <c r="B179" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    End If</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="B180" s="24" t="inlineStr"/>
+      <c r="B180" s="26" t="inlineStr"/>
     </row>
     <row r="181">
-      <c r="B181" s="24" t="inlineStr">
+      <c r="B181" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    filePath = Application.GetSaveAsFilename( _</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="B182" s="24" t="inlineStr">
+      <c r="B182" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">        InitialFileName:="BESS_Analysis_Report.pdf", _</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="B183" s="24" t="inlineStr">
+      <c r="B183" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">        FileFilter:="PDF Files (*.pdf), *.pdf")</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="B184" s="24" t="inlineStr"/>
+      <c r="B184" s="26" t="inlineStr"/>
     </row>
     <row r="185">
-      <c r="B185" s="24" t="inlineStr">
+      <c r="B185" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    If filePath &lt;&gt; "False" Then</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="B186" s="24" t="inlineStr">
+      <c r="B186" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">        wsReport.ExportAsFixedFormat Type:=xlTypePDF, Filename:=filePath</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="B187" s="24" t="inlineStr">
+      <c r="B187" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">        MsgBox "PDF exported to: " &amp; filePath, vbInformation</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="B188" s="24" t="inlineStr">
+      <c r="B188" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    End If</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="B189" s="24" t="inlineStr"/>
+      <c r="B189" s="26" t="inlineStr"/>
     </row>
     <row r="190">
-      <c r="B190" s="24" t="inlineStr">
+      <c r="B190" s="26" t="inlineStr">
         <is>
           <t>End Sub</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="B191" s="24" t="inlineStr"/>
+      <c r="B191" s="26" t="inlineStr"/>
     </row>
     <row r="192">
-      <c r="B192" s="24" t="inlineStr">
+      <c r="B192" s="26" t="inlineStr">
         <is>
           <t>Sub RefreshCalculations()</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="B193" s="24" t="inlineStr">
+      <c r="B193" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    ' Force recalculation of all formulas</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="B194" s="24" t="inlineStr">
+      <c r="B194" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    Application.CalculateFull</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="B195" s="24" t="inlineStr">
+      <c r="B195" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    MsgBox "All calculations refreshed.", vbInformation</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="B196" s="24" t="inlineStr">
+      <c r="B196" s="26" t="inlineStr">
         <is>
           <t>End Sub</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="B197" s="24" t="inlineStr"/>
+      <c r="B197" s="26" t="inlineStr"/>
     </row>
     <row r="198">
-      <c r="B198" s="24" t="inlineStr">
+      <c r="B198" s="26" t="inlineStr">
         <is>
           <t>Sub LoadNRELLibrary()</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="B199" s="24" t="inlineStr">
+      <c r="B199" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    ' Load NREL ATB 2024 assumptions</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="B200" s="24" t="inlineStr">
+      <c r="B200" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    With ThisWorkbook.Sheets("Inputs")</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="B201" s="24" t="inlineStr">
+      <c r="B201" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C14").Value = "NREL ATB 2024 - Moderate"</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="B202" s="24" t="inlineStr">
+      <c r="B202" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C17").Value = "LFP"</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="B203" s="24" t="inlineStr">
+      <c r="B203" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C18").Value = 0.85</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="B204" s="24" t="inlineStr">
+      <c r="B204" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C19").Value = 0.025</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="B205" s="24" t="inlineStr">
+      <c r="B205" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C20").Value = 6000</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="B206" s="24" t="inlineStr">
+      <c r="B206" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C21").Value = 12</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="B207" s="24" t="inlineStr">
+      <c r="B207" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C24").Value = 160</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="B208" s="24" t="inlineStr">
+      <c r="B208" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C25").Value = 25</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="B209" s="24" t="inlineStr">
+      <c r="B209" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C26").Value = 0</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="B210" s="24" t="inlineStr">
+      <c r="B210" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C27").Value = 55</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="B211" s="24" t="inlineStr">
+      <c r="B211" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C28").Value = 10</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="B212" s="24" t="inlineStr">
+      <c r="B212" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        ' Benefit streams</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="B213" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C32").Value = 150</t>
         </is>
       </c>
     </row>
-    <row r="213">
-      <c r="B213" s="24" t="inlineStr">
+    <row r="214">
+      <c r="B214" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("D32").Value = 0.02</t>
         </is>
       </c>
     </row>
-    <row r="214">
-      <c r="B214" s="24" t="inlineStr">
+    <row r="215">
+      <c r="B215" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C33").Value = 40</t>
         </is>
       </c>
     </row>
-    <row r="215">
-      <c r="B215" s="24" t="inlineStr">
+    <row r="216">
+      <c r="B216" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("D33").Value = 0.015</t>
         </is>
       </c>
     </row>
-    <row r="216">
-      <c r="B216" s="24" t="inlineStr">
+    <row r="217">
+      <c r="B217" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C34").Value = 15</t>
         </is>
       </c>
     </row>
-    <row r="217">
-      <c r="B217" s="24" t="inlineStr">
+    <row r="218">
+      <c r="B218" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("D34").Value = 0.01</t>
         </is>
       </c>
     </row>
-    <row r="218">
-      <c r="B218" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        .Range("C35").Value = 0</t>
-        </is>
-      </c>
-    </row>
     <row r="219">
-      <c r="B219" s="24" t="inlineStr">
+      <c r="B219" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("C35").Value = 25   ' T&amp;D Deferral</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="B220" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("D35").Value = 0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="B221" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        ' Cost projections (learning curve)</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="B222" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("C38").Value = 0.12  ' 12% annual cost decline</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="B223" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("C39").Value = 2024  ' Base year</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="B224" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    End With</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="B225" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    MsgBox "NREL ATB 2024 assumptions loaded." &amp; vbCrLf &amp; _</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="B226" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">           "Includes 12% annual cost decline for future augmentation.", vbInformation</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="B227" s="26" t="inlineStr">
+        <is>
+          <t>End Sub</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="B228" s="26" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="B229" s="26" t="inlineStr">
+        <is>
+          <t>Sub LoadLazardLibrary()</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="B230" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    ' Load Lazard LCOS 2025 assumptions</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="B231" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    With ThisWorkbook.Sheets("Inputs")</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="B232" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("C14").Value = "Lazard LCOS 2025"</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="B233" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("C17").Value = "LFP"</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="B234" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("C18").Value = 0.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="B235" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("C19").Value = 0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="B236" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("C20").Value = 6500</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="B237" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("C21").Value = 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="B238" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("C24").Value = 145</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="B239" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("C25").Value = 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="B240" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("C26").Value = 0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="B241" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("C27").Value = 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="B242" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("C28").Value = 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="B243" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        ' Benefit streams</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="B244" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("C32").Value = 140</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="B245" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("D32").Value = 0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="B246" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("C33").Value = 45</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="B247" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("D33").Value = 0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="B248" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("C34").Value = 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="B249" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("D34").Value = 0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="B250" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("C35").Value = 20   ' T&amp;D Deferral</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="B251" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("D35").Value = 0.015</t>
         </is>
       </c>
     </row>
-    <row r="220">
-      <c r="B220" s="24" t="inlineStr">
+    <row r="252">
+      <c r="B252" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        ' Cost projections (learning curve)</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="B253" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("C38").Value = 0.10  ' 10% annual cost decline</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="B254" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("C39").Value = 2025  ' Base year</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="B255" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    End With</t>
         </is>
       </c>
     </row>
-    <row r="221">
-      <c r="B221" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    MsgBox "NREL ATB 2024 assumptions loaded.", vbInformation</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="B222" s="24" t="inlineStr">
+    <row r="256">
+      <c r="B256" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    MsgBox "Lazard LCOS 2025 assumptions loaded." &amp; vbCrLf &amp; _</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="B257" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">           "Includes 10% annual cost decline for future augmentation.", vbInformation</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="B258" s="26" t="inlineStr">
         <is>
           <t>End Sub</t>
         </is>
       </c>
     </row>
-    <row r="223">
-      <c r="B223" s="24" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="B224" s="24" t="inlineStr">
-        <is>
-          <t>Sub LoadLazardLibrary()</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="B225" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    ' Load Lazard LCOS 2025 assumptions</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="B226" s="24" t="inlineStr">
+    <row r="259">
+      <c r="B259" s="26" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="B260" s="26" t="inlineStr">
+        <is>
+          <t>Sub LoadCPUCLibrary()</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="B261" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    ' Load CPUC California 2024 assumptions</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="B262" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    With ThisWorkbook.Sheets("Inputs")</t>
         </is>
       </c>
     </row>
-    <row r="227">
-      <c r="B227" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        .Range("C14").Value = "Lazard LCOS 2025"</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="B228" s="24" t="inlineStr">
+    <row r="263">
+      <c r="B263" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("C14").Value = "CPUC California 2024"</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="B264" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C17").Value = "LFP"</t>
         </is>
       </c>
     </row>
-    <row r="229">
-      <c r="B229" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        .Range("C18").Value = 0.86</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="B230" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        .Range("C19").Value = 0.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="B231" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        .Range("C20").Value = 6500</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="B232" s="24" t="inlineStr">
+    <row r="265">
+      <c r="B265" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("C18").Value = 0.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="B266" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("C19").Value = 0.025</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="B267" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("C20").Value = 6000</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="B268" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C21").Value = 12</t>
         </is>
       </c>
     </row>
-    <row r="233">
-      <c r="B233" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        .Range("C24").Value = 145</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="B234" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        .Range("C25").Value = 22</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="B235" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        .Range("C26").Value = 0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="B236" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        .Range("C27").Value = 50</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="B237" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        .Range("C28").Value = 8</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="B238" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        .Range("C32").Value = 140</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="B239" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        .Range("D32").Value = 0.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="B240" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        .Range("C33").Value = 45</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="B241" s="24" t="inlineStr">
+    <row r="269">
+      <c r="B269" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("C24").Value = 155</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="B270" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("C25").Value = 26</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="B271" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("C26").Value = 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="B272" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("C27").Value = 52</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="B273" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("C28").Value = 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="B274" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        ' Benefit streams</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="B275" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("C32").Value = 180</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="B276" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("D32").Value = 0.025</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="B277" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("C33").Value = 35</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="B278" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("D33").Value = 0.02</t>
         </is>
       </c>
     </row>
-    <row r="242">
-      <c r="B242" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        .Range("C34").Value = 12</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="B243" s="24" t="inlineStr">
+    <row r="279">
+      <c r="B279" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("C34").Value = 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="B280" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("D34").Value = 0.01</t>
         </is>
       </c>
     </row>
-    <row r="244">
-      <c r="B244" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        .Range("C35").Value = 0</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="B245" s="24" t="inlineStr">
+    <row r="281">
+      <c r="B281" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("C35").Value = 25   ' T&amp;D Deferral</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="B282" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("D35").Value = 0.015</t>
         </is>
       </c>
     </row>
-    <row r="246">
-      <c r="B246" s="24" t="inlineStr">
+    <row r="283">
+      <c r="B283" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        ' Cost projections (learning curve)</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="B284" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("C38").Value = 0.11  ' 11% annual cost decline</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="B285" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .Range("C39").Value = 2024  ' Base year</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="B286" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">    End With</t>
         </is>
       </c>
     </row>
-    <row r="247">
-      <c r="B247" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    MsgBox "Lazard LCOS 2025 assumptions loaded.", vbInformation</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="B248" s="24" t="inlineStr">
+    <row r="287">
+      <c r="B287" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    MsgBox "CPUC California 2024 assumptions loaded." &amp; vbCrLf &amp; _</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="B288" s="26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">           "Includes 11% annual cost decline for future augmentation.", vbInformation</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="B289" s="26" t="inlineStr">
         <is>
           <t>End Sub</t>
         </is>
       </c>
     </row>
-    <row r="249">
-      <c r="B249" s="24" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="B250" s="24" t="inlineStr">
-        <is>
-          <t>Sub LoadCPUCLibrary()</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="B251" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    ' Load CPUC California 2024 assumptions</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="B252" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    With ThisWorkbook.Sheets("Inputs")</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="B253" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        .Range("C14").Value = "CPUC California 2024"</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="B254" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        .Range("C17").Value = "LFP"</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="B255" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        .Range("C18").Value = 0.85</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="B256" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        .Range("C19").Value = 0.025</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="B257" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        .Range("C20").Value = 6000</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="B258" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        .Range("C21").Value = 12</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="B259" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        .Range("C24").Value = 155</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="B260" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        .Range("C25").Value = 26</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="B261" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        .Range("C26").Value = 0</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="B262" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        .Range("C27").Value = 52</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="B263" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        .Range("C28").Value = 12</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="B264" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        .Range("C32").Value = 180</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="B265" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        .Range("D32").Value = 0.025</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="B266" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        .Range("C33").Value = 35</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="B267" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        .Range("D33").Value = 0.02</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="B268" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        .Range("C34").Value = 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="B269" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        .Range("D34").Value = 0.01</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="B270" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        .Range("C35").Value = 25</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="B271" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        .Range("D35").Value = 0.015</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="B272" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    End With</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="B273" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    MsgBox "CPUC California 2024 assumptions loaded.", vbInformation</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="B274" s="24" t="inlineStr">
-        <is>
-          <t>End Sub</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="B277" s="2" t="inlineStr">
+    <row r="292">
+      <c r="B292" s="2" t="inlineStr">
         <is>
           <t>ASSIGNING MACROS TO BUTTONS:</t>
         </is>
       </c>
     </row>
-    <row r="278">
-      <c r="B278" t="inlineStr">
+    <row r="293">
+      <c r="B293" t="inlineStr">
         <is>
           <t>1. Go to Developer tab &gt; Insert &gt; Button (Form Control)</t>
         </is>
       </c>
     </row>
-    <row r="279">
-      <c r="B279" t="inlineStr">
+    <row r="294">
+      <c r="B294" t="inlineStr">
         <is>
           <t>2. Draw the button on the Inputs sheet</t>
         </is>
       </c>
     </row>
-    <row r="280">
-      <c r="B280" t="inlineStr">
+    <row r="295">
+      <c r="B295" t="inlineStr">
         <is>
           <t>3. When prompted, select the macro to assign (e.g., 'LoadNRELLibrary')</t>
         </is>
       </c>
     </row>
-    <row r="281">
-      <c r="B281" t="inlineStr">
+    <row r="296">
+      <c r="B296" t="inlineStr">
         <is>
           <t>4. Right-click button to edit text (e.g., 'Load NREL Library')</t>
         </is>
       </c>
     </row>
-    <row r="282">
-      <c r="B282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="B283" t="inlineStr">
+    <row r="297">
+      <c r="B297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="B298" t="inlineStr">
         <is>
           <t>Recommended buttons to create:</t>
         </is>
       </c>
     </row>
-    <row r="284">
-      <c r="B284" t="inlineStr">
+    <row r="299">
+      <c r="B299" t="inlineStr">
         <is>
           <t xml:space="preserve">  - 'Load NREL Library' -&gt; LoadNRELLibrary</t>
         </is>
       </c>
     </row>
-    <row r="285">
-      <c r="B285" t="inlineStr">
+    <row r="300">
+      <c r="B300" t="inlineStr">
         <is>
           <t xml:space="preserve">  - 'Load Lazard Library' -&gt; LoadLazardLibrary</t>
         </is>
       </c>
     </row>
-    <row r="286">
-      <c r="B286" t="inlineStr">
+    <row r="301">
+      <c r="B301" t="inlineStr">
         <is>
           <t xml:space="preserve">  - 'Load CPUC Library' -&gt; LoadCPUCLibrary</t>
         </is>
       </c>
     </row>
-    <row r="287">
-      <c r="B287" t="inlineStr">
+    <row r="302">
+      <c r="B302" t="inlineStr">
         <is>
           <t xml:space="preserve">  - 'Generate Report' -&gt; GenerateReport</t>
         </is>
       </c>
     </row>
-    <row r="288">
-      <c r="B288" t="inlineStr">
+    <row r="303">
+      <c r="B303" t="inlineStr">
         <is>
           <t xml:space="preserve">  - 'Export to PDF' -&gt; ExportToPDF</t>
         </is>

--- a/bess_analyzer/BESS_Analyzer.xlsx
+++ b/bess_analyzer/BESS_Analyzer.xlsx
@@ -155,7 +155,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
@@ -165,6 +165,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="4"/>
     <xf numFmtId="165" fontId="3" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="3"/>
     <xf numFmtId="166" fontId="3" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -584,7 +585,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:E49"/>
+  <dimension ref="B2:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -752,509 +753,720 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="2" t="inlineStr">
+    <row r="13">
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Ownership Type</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Utility</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>Utility (lower WACC ~6-7%) or Merchant (~8-10%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>ASSUMPTION LIBRARY</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="3" t="inlineStr">
+    <row r="16">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>Select Library</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>NREL ATB 2024 - Moderate</t>
         </is>
       </c>
-      <c r="E15" s="5" t="inlineStr">
+      <c r="E16" s="5" t="inlineStr">
         <is>
           <t>Select library to auto-populate costs and benefits</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" s="2" t="inlineStr">
+    <row r="18">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>TECHNOLOGY SPECIFICATIONS</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>Chemistry</t>
-        </is>
-      </c>
-      <c r="C18" s="4" t="inlineStr">
-        <is>
-          <t>LFP</t>
-        </is>
-      </c>
-      <c r="E18" s="5" t="inlineStr">
-        <is>
-          <t>LFP, NMC, or Other</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Round-Trip Efficiency (%)</t>
-        </is>
-      </c>
-      <c r="C19" s="7" t="n">
-        <v>0.85</v>
+          <t>Chemistry</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>LFP</t>
+        </is>
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
-          <t>AC-AC efficiency</t>
+          <t>LFP, NMC, or Other</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Annual Degradation (%)</t>
+          <t>Round-Trip Efficiency (%)</t>
         </is>
       </c>
       <c r="C20" s="7" t="n">
-        <v>0.025</v>
+        <v>0.85</v>
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>Capacity loss per year</t>
+          <t>AC-AC efficiency</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Cycle Life</t>
-        </is>
-      </c>
-      <c r="C21" s="4" t="n">
-        <v>6000</v>
+          <t>Annual Degradation (%)</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>0.025</v>
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
-          <t>Full-depth cycles before EOL</t>
+          <t>Capacity loss per year</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="3" t="inlineStr">
         <is>
+          <t>Cycle Life</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E22" s="5" t="inlineStr">
+        <is>
+          <t>Full-depth cycles before EOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="3" t="inlineStr">
+        <is>
           <t>Augmentation Year</t>
         </is>
       </c>
-      <c r="C22" s="4" t="n">
+      <c r="C23" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="E22" s="5" t="inlineStr">
+      <c r="E23" s="5" t="inlineStr">
         <is>
           <t>Year of battery replacement</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="B24" s="2" t="inlineStr">
+    <row r="25">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>COST INPUTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>CapEx ($/kWh)</t>
-        </is>
-      </c>
-      <c r="C25" s="8" t="n">
-        <v>160</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>$/kWh</t>
-        </is>
-      </c>
-      <c r="E25" s="5" t="inlineStr">
-        <is>
-          <t>Installed capital cost per kWh</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Fixed O&amp;M ($/kW-year)</t>
+          <t>CapEx ($/kWh)</t>
         </is>
       </c>
       <c r="C26" s="8" t="n">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>$/kW-yr</t>
+          <t>$/kWh</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
         <is>
-          <t>Annual fixed O&amp;M</t>
+          <t>Installed capital cost per kWh</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Variable O&amp;M ($/MWh)</t>
+          <t>Fixed O&amp;M ($/kW-year)</t>
         </is>
       </c>
       <c r="C27" s="8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>$/MWh</t>
+          <t>$/kW-yr</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr">
         <is>
-          <t>Per-MWh discharge cost</t>
+          <t>Annual fixed O&amp;M</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Augmentation Cost ($/kWh)</t>
+          <t>Variable O&amp;M ($/MWh)</t>
         </is>
       </c>
       <c r="C28" s="8" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>$/kWh</t>
+          <t>$/MWh</t>
         </is>
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>Battery replacement cost</t>
+          <t>Per-MWh discharge cost</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="3" t="inlineStr">
         <is>
+          <t>Augmentation Cost ($/kWh)</t>
+        </is>
+      </c>
+      <c r="C29" s="8" t="n">
+        <v>55</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>$/kWh</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>Battery replacement cost</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="3" t="inlineStr">
+        <is>
           <t>Decommissioning ($/kW)</t>
         </is>
       </c>
-      <c r="C29" s="8" t="n">
+      <c r="C30" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>$/kW</t>
         </is>
       </c>
-      <c r="E29" s="5" t="inlineStr">
+      <c r="E30" s="5" t="inlineStr">
         <is>
           <t>End-of-life cost</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>BENEFIT STREAMS (Year 1 Values)</t>
-        </is>
-      </c>
-    </row>
     <row r="32">
-      <c r="B32" s="9" t="inlineStr">
-        <is>
-          <t>Benefit Category</t>
-        </is>
-      </c>
-      <c r="C32" s="9" t="inlineStr">
-        <is>
-          <t>$/kW-year</t>
-        </is>
-      </c>
-      <c r="D32" s="9" t="inlineStr">
-        <is>
-          <t>Escalation %</t>
-        </is>
-      </c>
-      <c r="E32" s="9" t="inlineStr">
-        <is>
-          <t>Citation</t>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>TAX CREDITS (BESS-Specific under IRA)</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Resource Adequacy</t>
-        </is>
-      </c>
-      <c r="C33" s="10" t="n">
-        <v>150</v>
-      </c>
-      <c r="D33" s="7" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>CPUC RA Report 2024</t>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>ITC Base Rate (%)</t>
+        </is>
+      </c>
+      <c r="C33" s="7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E33" s="5" t="inlineStr">
+        <is>
+          <t>30% Investment Tax Credit under IRA</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Energy Arbitrage</t>
-        </is>
-      </c>
-      <c r="C34" s="10" t="n">
-        <v>40</v>
-      </c>
-      <c r="D34" s="7" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>CAISO Market Data 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Ancillary Services</t>
-        </is>
-      </c>
-      <c r="C35" s="10" t="n">
-        <v>15</v>
-      </c>
-      <c r="D35" s="7" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>CAISO AS Reports 2024</t>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>ITC Adders (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="5" t="inlineStr">
+        <is>
+          <t>Energy community +10%, Domestic content +10%</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>T&amp;D Deferral</t>
-        </is>
-      </c>
-      <c r="C36" s="10" t="n">
-        <v>25</v>
-      </c>
-      <c r="D36" s="7" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>CPUC Avoided Cost Calculator 2024</t>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>INFRASTRUCTURE COSTS (Common to all projects)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Interconnection ($/kW)</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="E37" s="5" t="inlineStr">
+        <is>
+          <t>Network upgrades, studies</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>COST PROJECTIONS (Learning Curve)</t>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Land ($/kW)</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E38" s="5" t="inlineStr">
+        <is>
+          <t>Site acquisition/lease</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>Annual Cost Decline Rate</t>
-        </is>
-      </c>
-      <c r="C39" s="7" t="n">
-        <v>0.1</v>
+          <t>Permitting ($/kW)</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="E39" s="5" t="inlineStr">
         <is>
-          <t>Technology learning rate (10-15% typical for batteries)</t>
+          <t>Permits, environmental review</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="3" t="inlineStr">
         <is>
+          <t>Insurance (% of CapEx)</t>
+        </is>
+      </c>
+      <c r="C40" s="9" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E40" s="5" t="inlineStr">
+        <is>
+          <t>Annual insurance cost</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>Property Tax (%)</t>
+        </is>
+      </c>
+      <c r="C41" s="9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E41" s="5" t="inlineStr">
+        <is>
+          <t>Annual property tax rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>BENEFIT STREAMS (Year 1 Values)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="10" t="inlineStr">
+        <is>
+          <t>Benefit Category</t>
+        </is>
+      </c>
+      <c r="C44" s="10" t="inlineStr">
+        <is>
+          <t>$/kW-year</t>
+        </is>
+      </c>
+      <c r="D44" s="10" t="inlineStr">
+        <is>
+          <t>Escalation %</t>
+        </is>
+      </c>
+      <c r="E44" s="10" t="inlineStr">
+        <is>
+          <t>Citation</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Resource Adequacy</t>
+        </is>
+      </c>
+      <c r="C45" s="11" t="n">
+        <v>150</v>
+      </c>
+      <c r="D45" s="7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>[common] CPUC RA Report 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Energy Arbitrage</t>
+        </is>
+      </c>
+      <c r="C46" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="D46" s="7" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>[common] CAISO Market Data 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Ancillary Services</t>
+        </is>
+      </c>
+      <c r="C47" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="D47" s="7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>[common] CAISO AS Reports 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>T&amp;D Deferral</t>
+        </is>
+      </c>
+      <c r="C48" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="D48" s="7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>[common] CPUC Avoided Cost Calculator 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Resilience Value</t>
+        </is>
+      </c>
+      <c r="C49" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="D49" s="7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>[common] LBNL ICE Calculator 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Renewable Integration</t>
+        </is>
+      </c>
+      <c r="C50" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="D50" s="7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>[bess_specific] NREL Grid Integration Studies</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>GHG Emissions Value</t>
+        </is>
+      </c>
+      <c r="C51" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="D51" s="7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>[bess_specific] EPA Social Cost of Carbon 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Voltage Support</t>
+        </is>
+      </c>
+      <c r="C52" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D52" s="7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>[common] EPRI Distribution Studies</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>COST PROJECTIONS (Learning Curve)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>Annual Cost Decline Rate</t>
+        </is>
+      </c>
+      <c r="C55" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E55" s="5" t="inlineStr">
+        <is>
+          <t>Technology learning rate (10-15% typical for batteries)</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="3" t="inlineStr">
+        <is>
           <t>Cost Base Year</t>
         </is>
       </c>
-      <c r="C40" s="4" t="n">
+      <c r="C56" s="4" t="n">
         <v>2024</v>
       </c>
-      <c r="E40" s="5" t="inlineStr">
+      <c r="E56" s="5" t="inlineStr">
         <is>
           <t>Reference year for base costs</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="B42" s="2" t="inlineStr">
+    <row r="58">
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>FUTURE COST PROJECTIONS</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="B43" s="9" t="inlineStr">
+    <row r="59">
+      <c r="B59" s="10" t="inlineStr">
         <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="C43" s="9" t="inlineStr">
+      <c r="C59" s="10" t="inlineStr">
         <is>
           <t>Projected CapEx ($/kWh)</t>
         </is>
       </c>
-      <c r="D43" s="9" t="inlineStr">
+      <c r="D59" s="10" t="inlineStr">
         <is>
           <t>Augmentation Cost ($/kWh)</t>
         </is>
       </c>
-      <c r="E43" s="9" t="inlineStr">
+      <c r="E59" s="10" t="inlineStr">
         <is>
           <t>% of Today's Cost</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="B44">
-        <f>C40+0</f>
-        <v/>
-      </c>
-      <c r="C44" s="11">
-        <f>C24*(1-$C$39)^0</f>
-        <v/>
-      </c>
-      <c r="D44" s="11">
-        <f>C27*(1-$C$39)^0</f>
-        <v/>
-      </c>
-      <c r="E44" s="12">
-        <f>(1-$C$39)^0</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45">
-        <f>C40+5</f>
-        <v/>
-      </c>
-      <c r="C45" s="11">
-        <f>C24*(1-$C$39)^5</f>
-        <v/>
-      </c>
-      <c r="D45" s="11">
-        <f>C27*(1-$C$39)^5</f>
-        <v/>
-      </c>
-      <c r="E45" s="12">
-        <f>(1-$C$39)^5</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46">
-        <f>C40+10</f>
-        <v/>
-      </c>
-      <c r="C46" s="11">
-        <f>C24*(1-$C$39)^10</f>
-        <v/>
-      </c>
-      <c r="D46" s="11">
-        <f>C27*(1-$C$39)^10</f>
-        <v/>
-      </c>
-      <c r="E46" s="12">
-        <f>(1-$C$39)^10</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47">
-        <f>C40+12</f>
-        <v/>
-      </c>
-      <c r="C47" s="11">
-        <f>C24*(1-$C$39)^12</f>
-        <v/>
-      </c>
-      <c r="D47" s="11">
-        <f>C27*(1-$C$39)^12</f>
-        <v/>
-      </c>
-      <c r="E47" s="12">
-        <f>(1-$C$39)^12</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48">
-        <f>C40+15</f>
-        <v/>
-      </c>
-      <c r="C48" s="11">
-        <f>C24*(1-$C$39)^15</f>
-        <v/>
-      </c>
-      <c r="D48" s="11">
-        <f>C27*(1-$C$39)^15</f>
-        <v/>
-      </c>
-      <c r="E48" s="12">
-        <f>(1-$C$39)^15</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49">
-        <f>C40+20</f>
-        <v/>
-      </c>
-      <c r="C49" s="11">
-        <f>C24*(1-$C$39)^20</f>
-        <v/>
-      </c>
-      <c r="D49" s="11">
-        <f>C27*(1-$C$39)^20</f>
-        <v/>
-      </c>
-      <c r="E49" s="12">
-        <f>(1-$C$39)^20</f>
+    <row r="60">
+      <c r="B60">
+        <f>C56+0</f>
+        <v/>
+      </c>
+      <c r="C60" s="12">
+        <f>C24*(1-$C$55)^0</f>
+        <v/>
+      </c>
+      <c r="D60" s="12">
+        <f>C27*(1-$C$55)^0</f>
+        <v/>
+      </c>
+      <c r="E60" s="13">
+        <f>(1-$C$55)^0</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61">
+        <f>C56+5</f>
+        <v/>
+      </c>
+      <c r="C61" s="12">
+        <f>C24*(1-$C$55)^5</f>
+        <v/>
+      </c>
+      <c r="D61" s="12">
+        <f>C27*(1-$C$55)^5</f>
+        <v/>
+      </c>
+      <c r="E61" s="13">
+        <f>(1-$C$55)^5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62">
+        <f>C56+10</f>
+        <v/>
+      </c>
+      <c r="C62" s="12">
+        <f>C24*(1-$C$55)^10</f>
+        <v/>
+      </c>
+      <c r="D62" s="12">
+        <f>C27*(1-$C$55)^10</f>
+        <v/>
+      </c>
+      <c r="E62" s="13">
+        <f>(1-$C$55)^10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63">
+        <f>C56+12</f>
+        <v/>
+      </c>
+      <c r="C63" s="12">
+        <f>C24*(1-$C$55)^12</f>
+        <v/>
+      </c>
+      <c r="D63" s="12">
+        <f>C27*(1-$C$55)^12</f>
+        <v/>
+      </c>
+      <c r="E63" s="13">
+        <f>(1-$C$55)^12</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64">
+        <f>C56+15</f>
+        <v/>
+      </c>
+      <c r="C64" s="12">
+        <f>C24*(1-$C$55)^15</f>
+        <v/>
+      </c>
+      <c r="D64" s="12">
+        <f>C27*(1-$C$55)^15</f>
+        <v/>
+      </c>
+      <c r="E64" s="13">
+        <f>(1-$C$55)^15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65">
+        <f>C56+20</f>
+        <v/>
+      </c>
+      <c r="C65" s="12">
+        <f>C24*(1-$C$55)^20</f>
+        <v/>
+      </c>
+      <c r="D65" s="12">
+        <f>C27*(1-$C$55)^20</f>
+        <v/>
+      </c>
+      <c r="E65" s="13">
+        <f>(1-$C$55)^20</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B17:E17"/>
+  <mergeCells count="10">
+    <mergeCell ref="B18:E18"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B25:E25"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B32:E32"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation sqref="C15" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" error="Please select a valid library" prompt="Choose an assumption library" type="list">
+    <dataValidation sqref="C16" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" error="Please select a valid library" prompt="Choose an assumption library" type="list">
       <formula1>"NREL ATB 2024 - Moderate,Lazard LCOS 2025,CPUC California 2024,Custom"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1284,7 +1496,7 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="13" t="inlineStr">
+      <c r="B2" s="14" t="inlineStr">
         <is>
           <t>BESS Economic Analysis Results</t>
         </is>
@@ -1336,7 +1548,7 @@
           <t>Total Investment</t>
         </is>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="15">
         <f>Calculations!C7</f>
         <v/>
       </c>
@@ -1354,7 +1566,7 @@
           <t>Benefit-Cost Ratio (BCR)</t>
         </is>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="16">
         <f>Cash_Flows!Q27/Cash_Flows!P27</f>
         <v/>
       </c>
@@ -1370,7 +1582,7 @@
           <t>Net Present Value (NPV)</t>
         </is>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="16">
         <f>Cash_Flows!Q27-Cash_Flows!P27</f>
         <v/>
       </c>
@@ -1386,7 +1598,7 @@
           <t>Internal Rate of Return (IRR)</t>
         </is>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="16">
         <f>IRR(Cash_Flows!N5:N25)</f>
         <v/>
       </c>
@@ -1402,7 +1614,7 @@
           <t>Simple Payback (years)</t>
         </is>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="16">
         <f>MATCH(TRUE,Cash_Flows!R5:R25&gt;0,0)-1</f>
         <v/>
       </c>
@@ -1418,7 +1630,7 @@
           <t>PV of Total Costs</t>
         </is>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="16">
         <f>Cash_Flows!P27</f>
         <v/>
       </c>
@@ -1434,7 +1646,7 @@
           <t>PV of Total Benefits</t>
         </is>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="16">
         <f>Cash_Flows!Q27</f>
         <v/>
       </c>
@@ -1452,7 +1664,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="16">
+      <c r="B20" s="17">
         <f>IF(C11&gt;=1.5,"APPROVE - Strong economic case",IF(C11&gt;=1,"FURTHER STUDY - Marginal economics","REJECT - Costs exceed benefits"))</f>
         <v/>
       </c>
@@ -1470,7 +1682,7 @@
           <t>LCOS ($/MWh)</t>
         </is>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="16">
         <f>Cash_Flows!P27/(Calculations!C13*NPV(Inputs!C12,INDIRECT("Cash_Flows!O5:O25")))</f>
         <v/>
       </c>
@@ -1493,7 +1705,7 @@
           <t>Breakeven CapEx ($/kWh)</t>
         </is>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="16">
         <f>(Cash_Flows!Q27-(Cash_Flows!P27-Calculations!C7))/(Inputs!C10*1000)</f>
         <v/>
       </c>
@@ -1563,94 +1775,94 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="17" t="inlineStr">
+      <c r="B2" s="18" t="inlineStr">
         <is>
           <t>Annual Cash Flow Projections</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="9" t="inlineStr">
+      <c r="B4" s="10" t="inlineStr">
         <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="C4" s="9" t="inlineStr">
+      <c r="C4" s="10" t="inlineStr">
         <is>
           <t>CapEx</t>
         </is>
       </c>
-      <c r="D4" s="9" t="inlineStr">
+      <c r="D4" s="10" t="inlineStr">
         <is>
           <t>Fixed O&amp;M</t>
         </is>
       </c>
-      <c r="E4" s="9" t="inlineStr">
+      <c r="E4" s="10" t="inlineStr">
         <is>
           <t>Var O&amp;M</t>
         </is>
       </c>
-      <c r="F4" s="9" t="inlineStr">
+      <c r="F4" s="10" t="inlineStr">
         <is>
           <t>Augmentation</t>
         </is>
       </c>
-      <c r="G4" s="9" t="inlineStr">
+      <c r="G4" s="10" t="inlineStr">
         <is>
           <t>Decommission</t>
         </is>
       </c>
-      <c r="H4" s="9" t="inlineStr">
+      <c r="H4" s="10" t="inlineStr">
         <is>
           <t>Total Costs</t>
         </is>
       </c>
-      <c r="I4" s="9" t="inlineStr">
+      <c r="I4" s="10" t="inlineStr">
         <is>
           <t>RA Benefit</t>
         </is>
       </c>
-      <c r="J4" s="9" t="inlineStr">
+      <c r="J4" s="10" t="inlineStr">
         <is>
           <t>Arbitrage</t>
         </is>
       </c>
-      <c r="K4" s="9" t="inlineStr">
+      <c r="K4" s="10" t="inlineStr">
         <is>
           <t>Ancillary</t>
         </is>
       </c>
-      <c r="L4" s="9" t="inlineStr">
+      <c r="L4" s="10" t="inlineStr">
         <is>
           <t>T&amp;D Defer</t>
         </is>
       </c>
-      <c r="M4" s="9" t="inlineStr">
+      <c r="M4" s="10" t="inlineStr">
         <is>
           <t>Total Benefits</t>
         </is>
       </c>
-      <c r="N4" s="9" t="inlineStr">
+      <c r="N4" s="10" t="inlineStr">
         <is>
           <t>Net Cash Flow</t>
         </is>
       </c>
-      <c r="O4" s="9" t="inlineStr">
+      <c r="O4" s="10" t="inlineStr">
         <is>
           <t>Discount Factor</t>
         </is>
       </c>
-      <c r="P4" s="9" t="inlineStr">
+      <c r="P4" s="10" t="inlineStr">
         <is>
           <t>PV Costs</t>
         </is>
       </c>
-      <c r="Q4" s="9" t="inlineStr">
+      <c r="Q4" s="10" t="inlineStr">
         <is>
           <t>PV Benefits</t>
         </is>
       </c>
-      <c r="R4" s="9" t="inlineStr">
+      <c r="R4" s="10" t="inlineStr">
         <is>
           <t>Cumulative CF</t>
         </is>
@@ -1660,36 +1872,36 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="15">
         <f>Calculations!C7</f>
         <v/>
       </c>
-      <c r="D5" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14" t="n">
+      <c r="D5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="6">
         <f>SUM(C5:G5)</f>
         <v/>
       </c>
-      <c r="I5" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="14" t="n">
+      <c r="I5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="15" t="n">
         <v>0</v>
       </c>
       <c r="M5" s="6">
@@ -1700,19 +1912,19 @@
         <f>M5-H5</f>
         <v/>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="19">
         <f>1/(1+Inputs!$C$12)^B5</f>
         <v/>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="15">
         <f>H5*O5</f>
         <v/>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q5" s="15">
         <f>M5*O5</f>
         <v/>
       </c>
-      <c r="R5" s="14">
+      <c r="R5" s="15">
         <f>N5</f>
         <v/>
       </c>
@@ -1721,39 +1933,39 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="14">
+      <c r="C6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E6" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="14" t="n">
+      <c r="E6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6">
         <f>SUM(C6:G6)</f>
         <v/>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="15">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^0*(1-Inputs!$C$19)^0</f>
         <v/>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="15">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^0*(1-Inputs!$C$19)^0</f>
         <v/>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="15">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^0*(1-Inputs!$C$19)^0</f>
         <v/>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="15">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^0</f>
         <v/>
       </c>
@@ -1765,19 +1977,19 @@
         <f>M6-H6</f>
         <v/>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="19">
         <f>1/(1+Inputs!$C$12)^B6</f>
         <v/>
       </c>
-      <c r="P6" s="14">
+      <c r="P6" s="15">
         <f>H6*O6</f>
         <v/>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q6" s="15">
         <f>M6*O6</f>
         <v/>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="15">
         <f>R5+N6</f>
         <v/>
       </c>
@@ -1786,39 +1998,39 @@
       <c r="B7" t="n">
         <v>2</v>
       </c>
-      <c r="C7" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="14">
+      <c r="C7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E7" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="14" t="n">
+      <c r="E7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15" t="n">
         <v>0</v>
       </c>
       <c r="H7" s="6">
         <f>SUM(C7:G7)</f>
         <v/>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="15">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^1*(1-Inputs!$C$19)^1</f>
         <v/>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="15">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^1*(1-Inputs!$C$19)^1</f>
         <v/>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="15">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^1*(1-Inputs!$C$19)^1</f>
         <v/>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="15">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^1</f>
         <v/>
       </c>
@@ -1830,19 +2042,19 @@
         <f>M7-H7</f>
         <v/>
       </c>
-      <c r="O7" s="18">
+      <c r="O7" s="19">
         <f>1/(1+Inputs!$C$12)^B7</f>
         <v/>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="15">
         <f>H7*O7</f>
         <v/>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="15">
         <f>M7*O7</f>
         <v/>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="15">
         <f>R6+N7</f>
         <v/>
       </c>
@@ -1851,39 +2063,39 @@
       <c r="B8" t="n">
         <v>3</v>
       </c>
-      <c r="C8" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="14">
+      <c r="C8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E8" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="14" t="n">
+      <c r="E8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="6">
         <f>SUM(C8:G8)</f>
         <v/>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="15">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^2*(1-Inputs!$C$19)^2</f>
         <v/>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="15">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^2*(1-Inputs!$C$19)^2</f>
         <v/>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="15">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^2*(1-Inputs!$C$19)^2</f>
         <v/>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="15">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^2</f>
         <v/>
       </c>
@@ -1895,19 +2107,19 @@
         <f>M8-H8</f>
         <v/>
       </c>
-      <c r="O8" s="18">
+      <c r="O8" s="19">
         <f>1/(1+Inputs!$C$12)^B8</f>
         <v/>
       </c>
-      <c r="P8" s="14">
+      <c r="P8" s="15">
         <f>H8*O8</f>
         <v/>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q8" s="15">
         <f>M8*O8</f>
         <v/>
       </c>
-      <c r="R8" s="14">
+      <c r="R8" s="15">
         <f>R7+N8</f>
         <v/>
       </c>
@@ -1916,39 +2128,39 @@
       <c r="B9" t="n">
         <v>4</v>
       </c>
-      <c r="C9" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="14">
+      <c r="C9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E9" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="14" t="n">
+      <c r="E9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15" t="n">
         <v>0</v>
       </c>
       <c r="H9" s="6">
         <f>SUM(C9:G9)</f>
         <v/>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="15">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^3*(1-Inputs!$C$19)^3</f>
         <v/>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="15">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^3*(1-Inputs!$C$19)^3</f>
         <v/>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="15">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^3*(1-Inputs!$C$19)^3</f>
         <v/>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="15">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^3</f>
         <v/>
       </c>
@@ -1960,19 +2172,19 @@
         <f>M9-H9</f>
         <v/>
       </c>
-      <c r="O9" s="18">
+      <c r="O9" s="19">
         <f>1/(1+Inputs!$C$12)^B9</f>
         <v/>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="15">
         <f>H9*O9</f>
         <v/>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="15">
         <f>M9*O9</f>
         <v/>
       </c>
-      <c r="R9" s="14">
+      <c r="R9" s="15">
         <f>R8+N9</f>
         <v/>
       </c>
@@ -1981,39 +2193,39 @@
       <c r="B10" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="14">
+      <c r="C10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E10" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="14" t="n">
+      <c r="E10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6">
         <f>SUM(C10:G10)</f>
         <v/>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="15">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^4*(1-Inputs!$C$19)^4</f>
         <v/>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="15">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^4*(1-Inputs!$C$19)^4</f>
         <v/>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="15">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^4*(1-Inputs!$C$19)^4</f>
         <v/>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="15">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^4</f>
         <v/>
       </c>
@@ -2025,19 +2237,19 @@
         <f>M10-H10</f>
         <v/>
       </c>
-      <c r="O10" s="18">
+      <c r="O10" s="19">
         <f>1/(1+Inputs!$C$12)^B10</f>
         <v/>
       </c>
-      <c r="P10" s="14">
+      <c r="P10" s="15">
         <f>H10*O10</f>
         <v/>
       </c>
-      <c r="Q10" s="14">
+      <c r="Q10" s="15">
         <f>M10*O10</f>
         <v/>
       </c>
-      <c r="R10" s="14">
+      <c r="R10" s="15">
         <f>R9+N10</f>
         <v/>
       </c>
@@ -2046,39 +2258,39 @@
       <c r="B11" t="n">
         <v>6</v>
       </c>
-      <c r="C11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="14">
+      <c r="C11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="15">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="14" t="n">
+      <c r="E11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="6">
         <f>SUM(C11:G11)</f>
         <v/>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="15">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^5*(1-Inputs!$C$19)^5</f>
         <v/>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="15">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^5*(1-Inputs!$C$19)^5</f>
         <v/>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="15">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^5*(1-Inputs!$C$19)^5</f>
         <v/>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="15">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^5</f>
         <v/>
       </c>
@@ -2090,19 +2302,19 @@
         <f>M11-H11</f>
         <v/>
       </c>
-      <c r="O11" s="18">
+      <c r="O11" s="19">
         <f>1/(1+Inputs!$C$12)^B11</f>
         <v/>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="15">
         <f>H11*O11</f>
         <v/>
       </c>
-      <c r="Q11" s="14">
+      <c r="Q11" s="15">
         <f>M11*O11</f>
         <v/>
       </c>
-      <c r="R11" s="14">
+      <c r="R11" s="15">
         <f>R10+N11</f>
         <v/>
       </c>
@@ -2111,39 +2323,39 @@
       <c r="B12" t="n">
         <v>7</v>
       </c>
-      <c r="C12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="14">
+      <c r="C12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="15">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="14" t="n">
+      <c r="E12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="15" t="n">
         <v>0</v>
       </c>
       <c r="H12" s="6">
         <f>SUM(C12:G12)</f>
         <v/>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="15">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^6*(1-Inputs!$C$19)^6</f>
         <v/>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="15">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^6*(1-Inputs!$C$19)^6</f>
         <v/>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="15">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^6*(1-Inputs!$C$19)^6</f>
         <v/>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="15">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^6</f>
         <v/>
       </c>
@@ -2155,19 +2367,19 @@
         <f>M12-H12</f>
         <v/>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="19">
         <f>1/(1+Inputs!$C$12)^B12</f>
         <v/>
       </c>
-      <c r="P12" s="14">
+      <c r="P12" s="15">
         <f>H12*O12</f>
         <v/>
       </c>
-      <c r="Q12" s="14">
+      <c r="Q12" s="15">
         <f>M12*O12</f>
         <v/>
       </c>
-      <c r="R12" s="14">
+      <c r="R12" s="15">
         <f>R11+N12</f>
         <v/>
       </c>
@@ -2176,39 +2388,39 @@
       <c r="B13" t="n">
         <v>8</v>
       </c>
-      <c r="C13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="14">
+      <c r="C13" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="15">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14" t="n">
+      <c r="E13" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="15" t="n">
         <v>0</v>
       </c>
       <c r="H13" s="6">
         <f>SUM(C13:G13)</f>
         <v/>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="15">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^7*(1-Inputs!$C$19)^7</f>
         <v/>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="15">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^7*(1-Inputs!$C$19)^7</f>
         <v/>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="15">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^7*(1-Inputs!$C$19)^7</f>
         <v/>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="15">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^7</f>
         <v/>
       </c>
@@ -2220,19 +2432,19 @@
         <f>M13-H13</f>
         <v/>
       </c>
-      <c r="O13" s="18">
+      <c r="O13" s="19">
         <f>1/(1+Inputs!$C$12)^B13</f>
         <v/>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="15">
         <f>H13*O13</f>
         <v/>
       </c>
-      <c r="Q13" s="14">
+      <c r="Q13" s="15">
         <f>M13*O13</f>
         <v/>
       </c>
-      <c r="R13" s="14">
+      <c r="R13" s="15">
         <f>R12+N13</f>
         <v/>
       </c>
@@ -2241,39 +2453,39 @@
       <c r="B14" t="n">
         <v>9</v>
       </c>
-      <c r="C14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="14">
+      <c r="C14" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="15">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="14" t="n">
+      <c r="E14" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="15" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6">
         <f>SUM(C14:G14)</f>
         <v/>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="15">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^8*(1-Inputs!$C$19)^8</f>
         <v/>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="15">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^8*(1-Inputs!$C$19)^8</f>
         <v/>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="15">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^8*(1-Inputs!$C$19)^8</f>
         <v/>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="15">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^8</f>
         <v/>
       </c>
@@ -2285,19 +2497,19 @@
         <f>M14-H14</f>
         <v/>
       </c>
-      <c r="O14" s="18">
+      <c r="O14" s="19">
         <f>1/(1+Inputs!$C$12)^B14</f>
         <v/>
       </c>
-      <c r="P14" s="14">
+      <c r="P14" s="15">
         <f>H14*O14</f>
         <v/>
       </c>
-      <c r="Q14" s="14">
+      <c r="Q14" s="15">
         <f>M14*O14</f>
         <v/>
       </c>
-      <c r="R14" s="14">
+      <c r="R14" s="15">
         <f>R13+N14</f>
         <v/>
       </c>
@@ -2306,39 +2518,39 @@
       <c r="B15" t="n">
         <v>10</v>
       </c>
-      <c r="C15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="14">
+      <c r="C15" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="15">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14" t="n">
+      <c r="E15" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="15" t="n">
         <v>0</v>
       </c>
       <c r="H15" s="6">
         <f>SUM(C15:G15)</f>
         <v/>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="15">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^9*(1-Inputs!$C$19)^9</f>
         <v/>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="15">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^9*(1-Inputs!$C$19)^9</f>
         <v/>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="15">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^9*(1-Inputs!$C$19)^9</f>
         <v/>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="15">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^9</f>
         <v/>
       </c>
@@ -2350,19 +2562,19 @@
         <f>M15-H15</f>
         <v/>
       </c>
-      <c r="O15" s="18">
+      <c r="O15" s="19">
         <f>1/(1+Inputs!$C$12)^B15</f>
         <v/>
       </c>
-      <c r="P15" s="14">
+      <c r="P15" s="15">
         <f>H15*O15</f>
         <v/>
       </c>
-      <c r="Q15" s="14">
+      <c r="Q15" s="15">
         <f>M15*O15</f>
         <v/>
       </c>
-      <c r="R15" s="14">
+      <c r="R15" s="15">
         <f>R14+N15</f>
         <v/>
       </c>
@@ -2371,39 +2583,39 @@
       <c r="B16" t="n">
         <v>11</v>
       </c>
-      <c r="C16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="14">
+      <c r="C16" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="15">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="14" t="n">
+      <c r="E16" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15" t="n">
         <v>0</v>
       </c>
       <c r="H16" s="6">
         <f>SUM(C16:G16)</f>
         <v/>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="15">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^10*(1-Inputs!$C$19)^10</f>
         <v/>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="15">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^10*(1-Inputs!$C$19)^10</f>
         <v/>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="15">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^10*(1-Inputs!$C$19)^10</f>
         <v/>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="15">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^10</f>
         <v/>
       </c>
@@ -2415,19 +2627,19 @@
         <f>M16-H16</f>
         <v/>
       </c>
-      <c r="O16" s="18">
+      <c r="O16" s="19">
         <f>1/(1+Inputs!$C$12)^B16</f>
         <v/>
       </c>
-      <c r="P16" s="14">
+      <c r="P16" s="15">
         <f>H16*O16</f>
         <v/>
       </c>
-      <c r="Q16" s="14">
+      <c r="Q16" s="15">
         <f>M16*O16</f>
         <v/>
       </c>
-      <c r="R16" s="14">
+      <c r="R16" s="15">
         <f>R15+N16</f>
         <v/>
       </c>
@@ -2436,40 +2648,40 @@
       <c r="B17" t="n">
         <v>12</v>
       </c>
-      <c r="C17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="14">
+      <c r="C17" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="15">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="14">
+      <c r="E17" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="15">
         <f>Calculations!C9*(1-Inputs!$C$39)^12</f>
         <v/>
       </c>
-      <c r="G17" s="14" t="n">
+      <c r="G17" s="15" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="6">
         <f>SUM(C17:G17)</f>
         <v/>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="15">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^11*(1-Inputs!$C$19)^11</f>
         <v/>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="15">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^11*(1-Inputs!$C$19)^11</f>
         <v/>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="15">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^11*(1-Inputs!$C$19)^11</f>
         <v/>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="15">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^11</f>
         <v/>
       </c>
@@ -2481,19 +2693,19 @@
         <f>M17-H17</f>
         <v/>
       </c>
-      <c r="O17" s="18">
+      <c r="O17" s="19">
         <f>1/(1+Inputs!$C$12)^B17</f>
         <v/>
       </c>
-      <c r="P17" s="14">
+      <c r="P17" s="15">
         <f>H17*O17</f>
         <v/>
       </c>
-      <c r="Q17" s="14">
+      <c r="Q17" s="15">
         <f>M17*O17</f>
         <v/>
       </c>
-      <c r="R17" s="14">
+      <c r="R17" s="15">
         <f>R16+N17</f>
         <v/>
       </c>
@@ -2502,39 +2714,39 @@
       <c r="B18" t="n">
         <v>13</v>
       </c>
-      <c r="C18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="14">
+      <c r="C18" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="15">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="14" t="n">
+      <c r="E18" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6">
         <f>SUM(C18:G18)</f>
         <v/>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="15">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^12*(1-Inputs!$C$19)^12</f>
         <v/>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="15">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^12*(1-Inputs!$C$19)^12</f>
         <v/>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="15">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^12*(1-Inputs!$C$19)^12</f>
         <v/>
       </c>
-      <c r="L18" s="14">
+      <c r="L18" s="15">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^12</f>
         <v/>
       </c>
@@ -2546,19 +2758,19 @@
         <f>M18-H18</f>
         <v/>
       </c>
-      <c r="O18" s="18">
+      <c r="O18" s="19">
         <f>1/(1+Inputs!$C$12)^B18</f>
         <v/>
       </c>
-      <c r="P18" s="14">
+      <c r="P18" s="15">
         <f>H18*O18</f>
         <v/>
       </c>
-      <c r="Q18" s="14">
+      <c r="Q18" s="15">
         <f>M18*O18</f>
         <v/>
       </c>
-      <c r="R18" s="14">
+      <c r="R18" s="15">
         <f>R17+N18</f>
         <v/>
       </c>
@@ -2567,39 +2779,39 @@
       <c r="B19" t="n">
         <v>14</v>
       </c>
-      <c r="C19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="14">
+      <c r="C19" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="15">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="14" t="n">
+      <c r="E19" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="15" t="n">
         <v>0</v>
       </c>
       <c r="H19" s="6">
         <f>SUM(C19:G19)</f>
         <v/>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="15">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^13*(1-Inputs!$C$19)^13</f>
         <v/>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="15">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^13*(1-Inputs!$C$19)^13</f>
         <v/>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="15">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^13*(1-Inputs!$C$19)^13</f>
         <v/>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="15">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^13</f>
         <v/>
       </c>
@@ -2611,19 +2823,19 @@
         <f>M19-H19</f>
         <v/>
       </c>
-      <c r="O19" s="18">
+      <c r="O19" s="19">
         <f>1/(1+Inputs!$C$12)^B19</f>
         <v/>
       </c>
-      <c r="P19" s="14">
+      <c r="P19" s="15">
         <f>H19*O19</f>
         <v/>
       </c>
-      <c r="Q19" s="14">
+      <c r="Q19" s="15">
         <f>M19*O19</f>
         <v/>
       </c>
-      <c r="R19" s="14">
+      <c r="R19" s="15">
         <f>R18+N19</f>
         <v/>
       </c>
@@ -2632,39 +2844,39 @@
       <c r="B20" t="n">
         <v>15</v>
       </c>
-      <c r="C20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="14">
+      <c r="C20" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="15">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="14" t="n">
+      <c r="E20" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="15" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="6">
         <f>SUM(C20:G20)</f>
         <v/>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="15">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^14*(1-Inputs!$C$19)^14</f>
         <v/>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="15">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^14*(1-Inputs!$C$19)^14</f>
         <v/>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="15">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^14*(1-Inputs!$C$19)^14</f>
         <v/>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="15">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^14</f>
         <v/>
       </c>
@@ -2676,19 +2888,19 @@
         <f>M20-H20</f>
         <v/>
       </c>
-      <c r="O20" s="18">
+      <c r="O20" s="19">
         <f>1/(1+Inputs!$C$12)^B20</f>
         <v/>
       </c>
-      <c r="P20" s="14">
+      <c r="P20" s="15">
         <f>H20*O20</f>
         <v/>
       </c>
-      <c r="Q20" s="14">
+      <c r="Q20" s="15">
         <f>M20*O20</f>
         <v/>
       </c>
-      <c r="R20" s="14">
+      <c r="R20" s="15">
         <f>R19+N20</f>
         <v/>
       </c>
@@ -2697,39 +2909,39 @@
       <c r="B21" t="n">
         <v>16</v>
       </c>
-      <c r="C21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="14">
+      <c r="C21" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="15">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="14" t="n">
+      <c r="E21" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="15" t="n">
         <v>0</v>
       </c>
       <c r="H21" s="6">
         <f>SUM(C21:G21)</f>
         <v/>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="15">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^15*(1-Inputs!$C$19)^15</f>
         <v/>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="15">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^15*(1-Inputs!$C$19)^15</f>
         <v/>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="15">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^15*(1-Inputs!$C$19)^15</f>
         <v/>
       </c>
-      <c r="L21" s="14">
+      <c r="L21" s="15">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^15</f>
         <v/>
       </c>
@@ -2741,19 +2953,19 @@
         <f>M21-H21</f>
         <v/>
       </c>
-      <c r="O21" s="18">
+      <c r="O21" s="19">
         <f>1/(1+Inputs!$C$12)^B21</f>
         <v/>
       </c>
-      <c r="P21" s="14">
+      <c r="P21" s="15">
         <f>H21*O21</f>
         <v/>
       </c>
-      <c r="Q21" s="14">
+      <c r="Q21" s="15">
         <f>M21*O21</f>
         <v/>
       </c>
-      <c r="R21" s="14">
+      <c r="R21" s="15">
         <f>R20+N21</f>
         <v/>
       </c>
@@ -2762,39 +2974,39 @@
       <c r="B22" t="n">
         <v>17</v>
       </c>
-      <c r="C22" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="14">
+      <c r="C22" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="15">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E22" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="14" t="n">
+      <c r="E22" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="15" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="6">
         <f>SUM(C22:G22)</f>
         <v/>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="15">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^16*(1-Inputs!$C$19)^16</f>
         <v/>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="15">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^16*(1-Inputs!$C$19)^16</f>
         <v/>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="15">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^16*(1-Inputs!$C$19)^16</f>
         <v/>
       </c>
-      <c r="L22" s="14">
+      <c r="L22" s="15">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^16</f>
         <v/>
       </c>
@@ -2806,19 +3018,19 @@
         <f>M22-H22</f>
         <v/>
       </c>
-      <c r="O22" s="18">
+      <c r="O22" s="19">
         <f>1/(1+Inputs!$C$12)^B22</f>
         <v/>
       </c>
-      <c r="P22" s="14">
+      <c r="P22" s="15">
         <f>H22*O22</f>
         <v/>
       </c>
-      <c r="Q22" s="14">
+      <c r="Q22" s="15">
         <f>M22*O22</f>
         <v/>
       </c>
-      <c r="R22" s="14">
+      <c r="R22" s="15">
         <f>R21+N22</f>
         <v/>
       </c>
@@ -2827,39 +3039,39 @@
       <c r="B23" t="n">
         <v>18</v>
       </c>
-      <c r="C23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="14">
+      <c r="C23" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="15">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="14" t="n">
+      <c r="E23" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="15" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="6">
         <f>SUM(C23:G23)</f>
         <v/>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="15">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^17*(1-Inputs!$C$19)^17</f>
         <v/>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="15">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^17*(1-Inputs!$C$19)^17</f>
         <v/>
       </c>
-      <c r="K23" s="14">
+      <c r="K23" s="15">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^17*(1-Inputs!$C$19)^17</f>
         <v/>
       </c>
-      <c r="L23" s="14">
+      <c r="L23" s="15">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^17</f>
         <v/>
       </c>
@@ -2871,19 +3083,19 @@
         <f>M23-H23</f>
         <v/>
       </c>
-      <c r="O23" s="18">
+      <c r="O23" s="19">
         <f>1/(1+Inputs!$C$12)^B23</f>
         <v/>
       </c>
-      <c r="P23" s="14">
+      <c r="P23" s="15">
         <f>H23*O23</f>
         <v/>
       </c>
-      <c r="Q23" s="14">
+      <c r="Q23" s="15">
         <f>M23*O23</f>
         <v/>
       </c>
-      <c r="R23" s="14">
+      <c r="R23" s="15">
         <f>R22+N23</f>
         <v/>
       </c>
@@ -2892,39 +3104,39 @@
       <c r="B24" t="n">
         <v>19</v>
       </c>
-      <c r="C24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="14">
+      <c r="C24" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="15">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="14" t="n">
+      <c r="E24" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="15" t="n">
         <v>0</v>
       </c>
       <c r="H24" s="6">
         <f>SUM(C24:G24)</f>
         <v/>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="15">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^18*(1-Inputs!$C$19)^18</f>
         <v/>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="15">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^18*(1-Inputs!$C$19)^18</f>
         <v/>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="15">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^18*(1-Inputs!$C$19)^18</f>
         <v/>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="15">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^18</f>
         <v/>
       </c>
@@ -2936,19 +3148,19 @@
         <f>M24-H24</f>
         <v/>
       </c>
-      <c r="O24" s="18">
+      <c r="O24" s="19">
         <f>1/(1+Inputs!$C$12)^B24</f>
         <v/>
       </c>
-      <c r="P24" s="14">
+      <c r="P24" s="15">
         <f>H24*O24</f>
         <v/>
       </c>
-      <c r="Q24" s="14">
+      <c r="Q24" s="15">
         <f>M24*O24</f>
         <v/>
       </c>
-      <c r="R24" s="14">
+      <c r="R24" s="15">
         <f>R23+N24</f>
         <v/>
       </c>
@@ -2957,20 +3169,20 @@
       <c r="B25" t="n">
         <v>20</v>
       </c>
-      <c r="C25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="14">
+      <c r="C25" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="15">
         <f>Calculations!C8</f>
         <v/>
       </c>
-      <c r="E25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="14">
+      <c r="E25" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="15">
         <f>Calculations!C10</f>
         <v/>
       </c>
@@ -2978,19 +3190,19 @@
         <f>SUM(C25:G25)</f>
         <v/>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="15">
         <f>Inputs!$C$32*Inputs!$C$8*1000*(1+Inputs!$D$32)^19*(1-Inputs!$C$19)^19</f>
         <v/>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="15">
         <f>Inputs!$C$33*Inputs!$C$8*1000*(1+Inputs!$D$33)^19*(1-Inputs!$C$19)^19</f>
         <v/>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="15">
         <f>Inputs!$C$34*Inputs!$C$8*1000*(1+Inputs!$D$34)^19*(1-Inputs!$C$19)^19</f>
         <v/>
       </c>
-      <c r="L25" s="14">
+      <c r="L25" s="15">
         <f>Inputs!$C$35*Inputs!$C$8*1000*(1+Inputs!$D$35)^19</f>
         <v/>
       </c>
@@ -3002,19 +3214,19 @@
         <f>M25-H25</f>
         <v/>
       </c>
-      <c r="O25" s="18">
+      <c r="O25" s="19">
         <f>1/(1+Inputs!$C$12)^B25</f>
         <v/>
       </c>
-      <c r="P25" s="14">
+      <c r="P25" s="15">
         <f>H25*O25</f>
         <v/>
       </c>
-      <c r="Q25" s="14">
+      <c r="Q25" s="15">
         <f>M25*O25</f>
         <v/>
       </c>
-      <c r="R25" s="14">
+      <c r="R25" s="15">
         <f>R24+N25</f>
         <v/>
       </c>
@@ -3025,19 +3237,19 @@
           <t>TOTALS</t>
         </is>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="20">
         <f>SUM(H5:H25)</f>
         <v/>
       </c>
-      <c r="M27" s="19">
+      <c r="M27" s="20">
         <f>SUM(M5:M25)</f>
         <v/>
       </c>
-      <c r="P27" s="19">
+      <c r="P27" s="20">
         <f>SUM(P5:P25)</f>
         <v/>
       </c>
-      <c r="Q27" s="19">
+      <c r="Q27" s="20">
         <f>SUM(Q5:Q25)</f>
         <v/>
       </c>
@@ -3068,7 +3280,7 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="17" t="inlineStr">
+      <c r="B2" s="18" t="inlineStr">
         <is>
           <t>Calculation Engine</t>
         </is>
@@ -3087,7 +3299,7 @@
           <t>Capacity (kW)</t>
         </is>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="21">
         <f>Inputs!C8*1000</f>
         <v/>
       </c>
@@ -3103,7 +3315,7 @@
           <t>Capacity (kWh)</t>
         </is>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="21">
         <f>Inputs!C10*1000</f>
         <v/>
       </c>
@@ -3119,7 +3331,7 @@
           <t>Total CapEx ($)</t>
         </is>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="21">
         <f>Inputs!C24*C6</f>
         <v/>
       </c>
@@ -3135,7 +3347,7 @@
           <t>Annual Fixed O&amp;M ($)</t>
         </is>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="21">
         <f>Inputs!C25*C5</f>
         <v/>
       </c>
@@ -3151,7 +3363,7 @@
           <t>Augmentation Cost ($)</t>
         </is>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="21">
         <f>Inputs!C27*C6</f>
         <v/>
       </c>
@@ -3167,7 +3379,7 @@
           <t>Decommissioning Cost ($)</t>
         </is>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="21">
         <f>Inputs!C28*C5</f>
         <v/>
       </c>
@@ -3205,7 +3417,7 @@
           <t>Annual discharge (MWh)</t>
         </is>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="22">
         <f>Inputs!C10*C13*Inputs!C18</f>
         <v/>
       </c>
@@ -3233,7 +3445,7 @@
           <t>Σ(CFₜ / (1+r)ᵗ) for t=0 to N</t>
         </is>
       </c>
-      <c r="D17" s="22" t="inlineStr">
+      <c r="D17" s="23" t="inlineStr">
         <is>
           <t>Brealey &amp; Myers (2020)</t>
         </is>
@@ -3250,7 +3462,7 @@
           <t>PV(Benefits) / PV(Costs)</t>
         </is>
       </c>
-      <c r="D18" s="22" t="inlineStr">
+      <c r="D18" s="23" t="inlineStr">
         <is>
           <t>CPUC Standard Practice Manual</t>
         </is>
@@ -3267,7 +3479,7 @@
           <t>Rate where NPV = 0</t>
         </is>
       </c>
-      <c r="D19" s="22" t="inlineStr">
+      <c r="D19" s="23" t="inlineStr">
         <is>
           <t>Brealey &amp; Myers (2020)</t>
         </is>
@@ -3284,7 +3496,7 @@
           <t>PV(Costs) / PV(Energy)</t>
         </is>
       </c>
-      <c r="D20" s="22" t="inlineStr">
+      <c r="D20" s="23" t="inlineStr">
         <is>
           <t>Lazard Methodology</t>
         </is>
@@ -3301,7 +3513,7 @@
           <t>Year where cumulative CF &gt; 0</t>
         </is>
       </c>
-      <c r="D21" s="22" t="inlineStr">
+      <c r="D21" s="23" t="inlineStr">
         <is>
           <t>Standard finance</t>
         </is>
@@ -3350,7 +3562,7 @@
       </c>
     </row>
     <row r="5" ht="45" customHeight="1">
-      <c r="B5" s="23" t="inlineStr">
+      <c r="B5" s="24" t="inlineStr">
         <is>
           <t>This workbook performs economic analysis of battery energy storage system (BESS) projects using standard discounted cash flow (DCF) methodology. All calculations follow industry-standard approaches from NREL, Lazard, and the California Public Utilities Commission (CPUC).</t>
         </is>
@@ -3371,7 +3583,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="22" t="inlineStr">
+      <c r="B9" s="23" t="inlineStr">
         <is>
           <t>Formula: NPV = Σ(CFₜ / (1+r)ᵗ) for t=0 to N</t>
         </is>
@@ -3392,7 +3604,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="22" t="inlineStr">
+      <c r="B13" s="23" t="inlineStr">
         <is>
           <t>Formula: BCR = PV(Benefits) / PV(Costs)</t>
         </is>
@@ -3413,7 +3625,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="22" t="inlineStr">
+      <c r="B17" s="23" t="inlineStr">
         <is>
           <t>Formula: IRR: Find r where NPV = 0</t>
         </is>
@@ -3434,7 +3646,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="22" t="inlineStr">
+      <c r="B21" s="23" t="inlineStr">
         <is>
           <t>Formula: LCOS = PV(Lifetime Costs) / PV(Lifetime Energy Discharged)</t>
         </is>
@@ -3455,7 +3667,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="22" t="inlineStr">
+      <c r="B25" s="23" t="inlineStr">
         <is>
           <t>Formula: Year t where Σ(CF₀ to CFₜ) ≥ 0</t>
         </is>
@@ -3476,7 +3688,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="22" t="inlineStr">
+      <c r="B29" s="23" t="inlineStr">
         <is>
           <t>Formula: Capacity(t) = Capacity(0) × (1 - degradation_rate)^t</t>
         </is>
@@ -3497,7 +3709,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="22" t="inlineStr">
+      <c r="B33" s="23" t="inlineStr">
         <is>
           <t>Formula: Value(t) = Value(1) × (1 + escalation_rate)^(t-1)</t>
         </is>
@@ -3518,7 +3730,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" s="22" t="inlineStr">
+      <c r="B37" s="23" t="inlineStr">
         <is>
           <t>Formula: Cost(year) = Cost(base) × (1 - learning_rate)^(year - base_year)</t>
         </is>
@@ -3539,7 +3751,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" s="22" t="inlineStr">
+      <c r="B41" s="23" t="inlineStr">
         <is>
           <t>Formula: Annual Value = Avoided_Cost_per_kW × Capacity_kW × BESS_Contribution_Factor</t>
         </is>
@@ -3574,7 +3786,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" s="24" t="inlineStr">
+      <c r="B47" s="25" t="inlineStr">
         <is>
           <t>URL: https://atb.nrel.gov/electricity/2024/utility-scale_battery_storage</t>
         </is>
@@ -3602,7 +3814,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" s="24" t="inlineStr">
+      <c r="B52" s="25" t="inlineStr">
         <is>
           <t>URL: https://www.lazard.com/research-insights/levelized-cost-of-storage/</t>
         </is>
@@ -3630,7 +3842,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" s="24" t="inlineStr">
+      <c r="B57" s="25" t="inlineStr">
         <is>
           <t>URL: https://www.cpuc.ca.gov/industries-and-topics/electrical-energy/demand-side-management</t>
         </is>
@@ -3651,70 +3863,70 @@
       </c>
     </row>
     <row r="61" ht="30" customHeight="1">
-      <c r="B61" s="23" t="inlineStr">
+      <c r="B61" s="24" t="inlineStr">
         <is>
           <t>[1] NREL. Annual Technology Baseline 2024. National Renewable Energy Laboratory. April 2024. https://atb.nrel.gov/</t>
         </is>
       </c>
     </row>
     <row r="62" ht="30" customHeight="1">
-      <c r="B62" s="23" t="inlineStr">
+      <c r="B62" s="24" t="inlineStr">
         <is>
           <t>[2] Lazard. Lazard's Levelized Cost of Storage Analysis, Version 10.0. March 2025.</t>
         </is>
       </c>
     </row>
     <row r="63" ht="30" customHeight="1">
-      <c r="B63" s="23" t="inlineStr">
+      <c r="B63" s="24" t="inlineStr">
         <is>
           <t>[3] California Public Utilities Commission. California Standard Practice Manual: Economic Analysis of Demand-Side Programs and Projects. October 2001.</t>
         </is>
       </c>
     </row>
     <row r="64" ht="30" customHeight="1">
-      <c r="B64" s="23" t="inlineStr">
+      <c r="B64" s="24" t="inlineStr">
         <is>
           <t>[4] California Public Utilities Commission. 2024 Resource Adequacy Report. D.24-06-050. November 2024.</t>
         </is>
       </c>
     </row>
     <row r="65" ht="30" customHeight="1">
-      <c r="B65" s="23" t="inlineStr">
+      <c r="B65" s="24" t="inlineStr">
         <is>
           <t>[5] E3 (Energy+Environmental Economics). 2024 Avoided Cost Calculator. Prepared for CPUC. October 2024.</t>
         </is>
       </c>
     </row>
     <row r="66" ht="30" customHeight="1">
-      <c r="B66" s="23" t="inlineStr">
+      <c r="B66" s="24" t="inlineStr">
         <is>
           <t>[6] California ISO. Market Performance Reports 2024. https://www.caiso.com/market/</t>
         </is>
       </c>
     </row>
     <row r="67" ht="30" customHeight="1">
-      <c r="B67" s="23" t="inlineStr">
+      <c r="B67" s="24" t="inlineStr">
         <is>
           <t>[7] Brealey, R., Myers, S., &amp; Allen, F. Principles of Corporate Finance (13th ed.). McGraw-Hill, 2020.</t>
         </is>
       </c>
     </row>
     <row r="68" ht="30" customHeight="1">
-      <c r="B68" s="23" t="inlineStr">
+      <c r="B68" s="24" t="inlineStr">
         <is>
           <t>[8] NREL. Storage Futures Study: Economic Potential of Diurnal Storage. NREL/TP-6A20-77449. 2021.</t>
         </is>
       </c>
     </row>
     <row r="69" ht="30" customHeight="1">
-      <c r="B69" s="23" t="inlineStr">
+      <c r="B69" s="24" t="inlineStr">
         <is>
           <t>[9] BloombergNEF. Lithium-Ion Battery Price Survey 2025. Battery technology learning curves.</t>
         </is>
       </c>
     </row>
     <row r="70" ht="30" customHeight="1">
-      <c r="B70" s="23" t="inlineStr">
+      <c r="B70" s="24" t="inlineStr">
         <is>
           <t>[10] E3. California Energy Storage Cost Analysis 2024. T&amp;D Deferral methodology and avoided cost calculations.</t>
         </is>
@@ -3728,7 +3940,7 @@
       </c>
     </row>
     <row r="73" ht="60" customHeight="1">
-      <c r="B73" s="23" t="inlineStr">
+      <c r="B73" s="24" t="inlineStr">
         <is>
           <t>This model is provided for analytical purposes only. Results should be validated against independent sources before use in investment decisions. Actual project economics will vary based on site-specific conditions, market dynamics, and evolving technology costs. Users are responsible for verifying all assumptions and calculations.</t>
         </is>
@@ -3745,7 +3957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3764,29 +3976,29 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="25" t="inlineStr">
+      <c r="A1" s="26" t="inlineStr">
         <is>
           <t>Assumption Library Data (for reference)</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="inlineStr">
+      <c r="A3" s="10" t="inlineStr">
         <is>
           <t>Parameter</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr">
+      <c r="B3" s="10" t="inlineStr">
         <is>
           <t>NREL ATB 2024</t>
         </is>
       </c>
-      <c r="C3" s="9" t="inlineStr">
+      <c r="C3" s="10" t="inlineStr">
         <is>
           <t>Lazard LCOS 2025</t>
         </is>
       </c>
-      <c r="D3" s="9" t="inlineStr">
+      <c r="D3" s="10" t="inlineStr">
         <is>
           <t>CPUC California 2024</t>
         </is>
@@ -3989,72 +4201,286 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>Benefit Streams ($/kW-yr)</t>
+          <t>Tax Credits (BESS-Specific)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Resource Adequacy</t>
-        </is>
-      </c>
-      <c r="B17" s="14" t="n">
-        <v>150</v>
-      </c>
-      <c r="C17" s="14" t="n">
-        <v>140</v>
-      </c>
-      <c r="D17" s="14" t="n">
-        <v>180</v>
+          <t>ITC Base Rate</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Energy Arbitrage</t>
-        </is>
-      </c>
-      <c r="B18" s="14" t="n">
+          <t>ITC Adders</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Infrastructure Costs (Common)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Interconnection ($/kW)</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>90</v>
+      </c>
+      <c r="D21" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Land ($/kW)</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" t="n">
+        <v>8</v>
+      </c>
+      <c r="D22" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Permitting ($/kW)</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>15</v>
+      </c>
+      <c r="C23" t="n">
+        <v>12</v>
+      </c>
+      <c r="D23" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Insurance (% of CapEx)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Property Tax (%)</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>Benefit Streams ($/kW-yr)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Resource Adequacy [common]</t>
+        </is>
+      </c>
+      <c r="B28" s="15" t="n">
+        <v>150</v>
+      </c>
+      <c r="C28" s="15" t="n">
+        <v>140</v>
+      </c>
+      <c r="D28" s="15" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Energy Arbitrage [common]</t>
+        </is>
+      </c>
+      <c r="B29" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="C18" s="14" t="n">
+      <c r="C29" s="15" t="n">
         <v>45</v>
       </c>
-      <c r="D18" s="14" t="n">
+      <c r="D29" s="15" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Ancillary Services</t>
-        </is>
-      </c>
-      <c r="B19" s="14" t="n">
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Ancillary Services [common]</t>
+        </is>
+      </c>
+      <c r="B30" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="C19" s="14" t="n">
+      <c r="C30" s="15" t="n">
         <v>12</v>
       </c>
-      <c r="D19" s="14" t="n">
+      <c r="D30" s="15" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>T&amp;D Deferral</t>
-        </is>
-      </c>
-      <c r="B20" s="14" t="n">
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>T&amp;D Deferral [common]</t>
+        </is>
+      </c>
+      <c r="B31" s="15" t="n">
         <v>25</v>
       </c>
-      <c r="C20" s="14" t="n">
+      <c r="C31" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="D20" s="14" t="n">
+      <c r="D31" s="15" t="n">
         <v>25</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Resilience Value [common]</t>
+        </is>
+      </c>
+      <c r="B32" s="15" t="n">
+        <v>50</v>
+      </c>
+      <c r="C32" s="15" t="n">
+        <v>45</v>
+      </c>
+      <c r="D32" s="15" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Renewable Integration [bess]</t>
+        </is>
+      </c>
+      <c r="B33" s="15" t="n">
+        <v>25</v>
+      </c>
+      <c r="C33" s="15" t="n">
+        <v>20</v>
+      </c>
+      <c r="D33" s="15" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>GHG Emissions Value [bess]</t>
+        </is>
+      </c>
+      <c r="B34" s="15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C34" s="15" t="n">
+        <v>12</v>
+      </c>
+      <c r="D34" s="15" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Voltage Support [common]</t>
+        </is>
+      </c>
+      <c r="B35" s="15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C35" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="D35" s="15" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4144,1791 +4570,1791 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="26" t="inlineStr">
+      <c r="B13" s="27" t="inlineStr">
         <is>
           <t>'=============================================================</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="26" t="inlineStr">
+      <c r="B14" s="27" t="inlineStr">
         <is>
           <t>' BESS Analyzer VBA Macros</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="26" t="inlineStr">
+      <c r="B15" s="27" t="inlineStr">
         <is>
           <t>' Copy this entire code block into a VBA Module</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="26" t="inlineStr">
+      <c r="B16" s="27" t="inlineStr">
         <is>
           <t>'=============================================================</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="26" t="inlineStr"/>
+      <c r="B17" s="27" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="B18" s="26" t="inlineStr">
+      <c r="B18" s="27" t="inlineStr">
         <is>
           <t>Sub GenerateReport()</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="26" t="inlineStr">
+      <c r="B19" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    ' Generate a formatted report on a new sheet</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="26" t="inlineStr">
+      <c r="B20" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    Dim wsReport As Worksheet</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="26" t="inlineStr">
+      <c r="B21" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    Dim wsResults As Worksheet</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="26" t="inlineStr">
+      <c r="B22" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    Dim wsInputs As Worksheet</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="26" t="inlineStr">
+      <c r="B23" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    Dim wsCF As Worksheet</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="26" t="inlineStr"/>
+      <c r="B24" s="27" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="B25" s="26" t="inlineStr">
+      <c r="B25" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    Set wsResults = ThisWorkbook.Sheets("Results")</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="26" t="inlineStr">
+      <c r="B26" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    Set wsInputs = ThisWorkbook.Sheets("Inputs")</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="26" t="inlineStr">
+      <c r="B27" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    Set wsCF = ThisWorkbook.Sheets("Cash_Flows")</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="26" t="inlineStr"/>
+      <c r="B28" s="27" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="B29" s="26" t="inlineStr">
+      <c r="B29" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    ' Delete old report if exists</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="26" t="inlineStr">
+      <c r="B30" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    On Error Resume Next</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="26" t="inlineStr">
+      <c r="B31" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    Application.DisplayAlerts = False</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="26" t="inlineStr">
+      <c r="B32" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    ThisWorkbook.Sheets("Report").Delete</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="26" t="inlineStr">
+      <c r="B33" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    Application.DisplayAlerts = True</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="26" t="inlineStr">
+      <c r="B34" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    On Error GoTo 0</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="26" t="inlineStr"/>
+      <c r="B35" s="27" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="B36" s="26" t="inlineStr">
+      <c r="B36" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    ' Create new report sheet</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="B37" s="26" t="inlineStr">
+      <c r="B37" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    Set wsReport = ThisWorkbook.Sheets.Add(After:=ThisWorkbook.Sheets(ThisWorkbook.Sheets.Count))</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="B38" s="26" t="inlineStr">
+      <c r="B38" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Name = "Report"</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="26" t="inlineStr"/>
+      <c r="B39" s="27" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="B40" s="26" t="inlineStr">
+      <c r="B40" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    ' Set up report formatting</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="B41" s="26" t="inlineStr">
+      <c r="B41" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.PageSetup.Orientation = xlPortrait</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="B42" s="26" t="inlineStr">
+      <c r="B42" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.PageSetup.FitToPagesWide = 1</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="B43" s="26" t="inlineStr">
+      <c r="B43" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.PageSetup.FitToPagesTall = False</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="B44" s="26" t="inlineStr"/>
+      <c r="B44" s="27" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="B45" s="26" t="inlineStr">
+      <c r="B45" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    Dim row As Long</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="B46" s="26" t="inlineStr">
+      <c r="B46" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = 2</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="B47" s="26" t="inlineStr"/>
+      <c r="B47" s="27" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="B48" s="26" t="inlineStr">
+      <c r="B48" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    ' Title</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="B49" s="26" t="inlineStr">
+      <c r="B49" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "BESS ECONOMIC ANALYSIS REPORT"</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="B50" s="26" t="inlineStr">
+      <c r="B50" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Font.Bold = True</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="B51" s="26" t="inlineStr">
+      <c r="B51" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Font.Size = 18</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="B52" s="26" t="inlineStr">
+      <c r="B52" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Range("B" &amp; row &amp; ":F" &amp; row).Merge</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="B53" s="26" t="inlineStr">
+      <c r="B53" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 2</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="B54" s="26" t="inlineStr"/>
+      <c r="B54" s="27" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="B55" s="26" t="inlineStr">
+      <c r="B55" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    ' Project Summary</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="B56" s="26" t="inlineStr">
+      <c r="B56" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "PROJECT SUMMARY"</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="B57" s="26" t="inlineStr">
+      <c r="B57" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Font.Bold = True</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="B58" s="26" t="inlineStr">
+      <c r="B58" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Font.Size = 14</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="B59" s="26" t="inlineStr">
+      <c r="B59" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Interior.Color = RGB(227, 242, 253)</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="B60" s="26" t="inlineStr">
+      <c r="B60" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Range("B" &amp; row &amp; ":F" &amp; row).Merge</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="B61" s="26" t="inlineStr">
+      <c r="B61" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 1</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="B62" s="26" t="inlineStr"/>
+      <c r="B62" s="27" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="B63" s="26" t="inlineStr">
+      <c r="B63" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "Project Name:"</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="B64" s="26" t="inlineStr">
+      <c r="B64" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 3).Value = wsInputs.Range("C5").Value</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="B65" s="26" t="inlineStr">
+      <c r="B65" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 1</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="B66" s="26" t="inlineStr"/>
+      <c r="B66" s="27" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="B67" s="26" t="inlineStr">
+      <c r="B67" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "Location:"</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="B68" s="26" t="inlineStr">
+      <c r="B68" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 3).Value = wsInputs.Range("C7").Value</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="B69" s="26" t="inlineStr">
+      <c r="B69" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 1</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="B70" s="26" t="inlineStr"/>
+      <c r="B70" s="27" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="B71" s="26" t="inlineStr">
+      <c r="B71" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "Capacity:"</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="B72" s="26" t="inlineStr">
+      <c r="B72" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 3).Value = wsInputs.Range("C8").Value &amp; " MW / " &amp; wsInputs.Range("C10").Value &amp; " MWh"</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="B73" s="26" t="inlineStr">
+      <c r="B73" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 1</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="B74" s="26" t="inlineStr"/>
+      <c r="B74" s="27" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="B75" s="26" t="inlineStr">
+      <c r="B75" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "Total Investment:"</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="B76" s="26" t="inlineStr">
+      <c r="B76" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 3).Value = wsResults.Range("C8").Value</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="B77" s="26" t="inlineStr">
+      <c r="B77" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 3).NumberFormat = "$#,##0"</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="B78" s="26" t="inlineStr">
+      <c r="B78" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 2</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="B79" s="26" t="inlineStr"/>
+      <c r="B79" s="27" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="B80" s="26" t="inlineStr">
+      <c r="B80" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    ' Key Metrics</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="B81" s="26" t="inlineStr">
+      <c r="B81" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "KEY FINANCIAL METRICS"</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="B82" s="26" t="inlineStr">
+      <c r="B82" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Font.Bold = True</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="B83" s="26" t="inlineStr">
+      <c r="B83" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Font.Size = 14</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="B84" s="26" t="inlineStr">
+      <c r="B84" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Interior.Color = RGB(227, 242, 253)</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="B85" s="26" t="inlineStr">
+      <c r="B85" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Range("B" &amp; row &amp; ":F" &amp; row).Merge</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="B86" s="26" t="inlineStr">
+      <c r="B86" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 1</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="B87" s="26" t="inlineStr"/>
+      <c r="B87" s="27" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="B88" s="26" t="inlineStr">
+      <c r="B88" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "Benefit-Cost Ratio (BCR):"</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="B89" s="26" t="inlineStr">
+      <c r="B89" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 3).Value = wsResults.Range("C11").Value</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="B90" s="26" t="inlineStr">
+      <c r="B90" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 3).NumberFormat = "0.00"</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="B91" s="26" t="inlineStr">
+      <c r="B91" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 1</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="B92" s="26" t="inlineStr"/>
+      <c r="B92" s="27" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="B93" s="26" t="inlineStr">
+      <c r="B93" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "Net Present Value (NPV):"</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="B94" s="26" t="inlineStr">
+      <c r="B94" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 3).Value = wsResults.Range("C12").Value</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="B95" s="26" t="inlineStr">
+      <c r="B95" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 3).NumberFormat = "$#,##0"</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="B96" s="26" t="inlineStr">
+      <c r="B96" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 1</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="B97" s="26" t="inlineStr"/>
+      <c r="B97" s="27" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="B98" s="26" t="inlineStr">
+      <c r="B98" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "Internal Rate of Return (IRR):"</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="B99" s="26" t="inlineStr">
+      <c r="B99" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 3).Value = wsResults.Range("C13").Value</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="B100" s="26" t="inlineStr">
+      <c r="B100" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 3).NumberFormat = "0.0%"</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="B101" s="26" t="inlineStr">
+      <c r="B101" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 1</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="B102" s="26" t="inlineStr"/>
+      <c r="B102" s="27" t="inlineStr"/>
     </row>
     <row r="103">
-      <c r="B103" s="26" t="inlineStr">
+      <c r="B103" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "Simple Payback Period:"</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="B104" s="26" t="inlineStr">
+      <c r="B104" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 3).Value = wsResults.Range("C14").Value &amp; " years"</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="B105" s="26" t="inlineStr">
+      <c r="B105" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 1</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="B106" s="26" t="inlineStr"/>
+      <c r="B106" s="27" t="inlineStr"/>
     </row>
     <row r="107">
-      <c r="B107" s="26" t="inlineStr">
+      <c r="B107" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "LCOS:"</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="B108" s="26" t="inlineStr">
+      <c r="B108" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 3).Value = wsResults.Range("C21").Value</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="B109" s="26" t="inlineStr">
+      <c r="B109" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 3).NumberFormat = "$#,##0.00/MWh"</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="B110" s="26" t="inlineStr">
+      <c r="B110" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 2</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="B111" s="26" t="inlineStr"/>
+      <c r="B111" s="27" t="inlineStr"/>
     </row>
     <row r="112">
-      <c r="B112" s="26" t="inlineStr">
+      <c r="B112" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    ' Recommendation</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="B113" s="26" t="inlineStr">
+      <c r="B113" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "RECOMMENDATION"</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="B114" s="26" t="inlineStr">
+      <c r="B114" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Font.Bold = True</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="B115" s="26" t="inlineStr">
+      <c r="B115" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Font.Size = 14</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="B116" s="26" t="inlineStr">
+      <c r="B116" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Interior.Color = RGB(227, 242, 253)</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="B117" s="26" t="inlineStr">
+      <c r="B117" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Range("B" &amp; row &amp; ":F" &amp; row).Merge</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="B118" s="26" t="inlineStr">
+      <c r="B118" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 1</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="B119" s="26" t="inlineStr"/>
+      <c r="B119" s="27" t="inlineStr"/>
     </row>
     <row r="120">
-      <c r="B120" s="26" t="inlineStr">
+      <c r="B120" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = wsResults.Range("B19").Value</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="B121" s="26" t="inlineStr">
+      <c r="B121" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Font.Bold = True</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="B122" s="26" t="inlineStr">
+      <c r="B122" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Font.Size = 12</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="B123" s="26" t="inlineStr">
+      <c r="B123" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Range("B" &amp; row &amp; ":F" &amp; row).Merge</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="B124" s="26" t="inlineStr">
+      <c r="B124" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 2</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="B125" s="26" t="inlineStr"/>
+      <c r="B125" s="27" t="inlineStr"/>
     </row>
     <row r="126">
-      <c r="B126" s="26" t="inlineStr">
+      <c r="B126" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    ' Methodology Note</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="B127" s="26" t="inlineStr">
+      <c r="B127" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "METHODOLOGY"</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="B128" s="26" t="inlineStr">
+      <c r="B128" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Font.Bold = True</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="B129" s="26" t="inlineStr">
+      <c r="B129" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Font.Size = 14</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="B130" s="26" t="inlineStr">
+      <c r="B130" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Interior.Color = RGB(227, 242, 253)</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="B131" s="26" t="inlineStr">
+      <c r="B131" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Range("B" &amp; row &amp; ":F" &amp; row).Merge</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="B132" s="26" t="inlineStr">
+      <c r="B132" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 1</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="B133" s="26" t="inlineStr"/>
+      <c r="B133" s="27" t="inlineStr"/>
     </row>
     <row r="134">
-      <c r="B134" s="26" t="inlineStr">
+      <c r="B134" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "Analysis uses standard DCF methodology per CPUC Standard Practice Manual."</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="B135" s="26" t="inlineStr">
+      <c r="B135" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 1</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="B136" s="26" t="inlineStr">
+      <c r="B136" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "BCR = PV(Benefits) / PV(Costs); IRR = rate where NPV = 0"</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="B137" s="26" t="inlineStr">
+      <c r="B137" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 1</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="B138" s="26" t="inlineStr">
+      <c r="B138" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "LCOS calculated per Lazard methodology: PV(Costs) / PV(Energy)"</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="B139" s="26" t="inlineStr">
+      <c r="B139" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 2</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="B140" s="26" t="inlineStr"/>
+      <c r="B140" s="27" t="inlineStr"/>
     </row>
     <row r="141">
-      <c r="B141" s="26" t="inlineStr">
+      <c r="B141" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    ' References</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="B142" s="26" t="inlineStr">
+      <c r="B142" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "REFERENCES"</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="B143" s="26" t="inlineStr">
+      <c r="B143" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Font.Bold = True</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="B144" s="26" t="inlineStr">
+      <c r="B144" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Font.Size = 14</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="B145" s="26" t="inlineStr">
+      <c r="B145" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Interior.Color = RGB(227, 242, 253)</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="B146" s="26" t="inlineStr">
+      <c r="B146" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Range("B" &amp; row &amp; ":F" &amp; row).Merge</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="B147" s="26" t="inlineStr">
+      <c r="B147" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 1</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="B148" s="26" t="inlineStr"/>
+      <c r="B148" s="27" t="inlineStr"/>
     </row>
     <row r="149">
-      <c r="B149" s="26" t="inlineStr">
+      <c r="B149" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "1. NREL Annual Technology Baseline 2024"</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="B150" s="26" t="inlineStr">
+      <c r="B150" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 1</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="B151" s="26" t="inlineStr">
+      <c r="B151" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "2. Lazard LCOS v10.0 (2025)"</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="B152" s="26" t="inlineStr">
+      <c r="B152" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 1</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="B153" s="26" t="inlineStr">
+      <c r="B153" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "3. CPUC Standard Practice Manual (2001)"</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="B154" s="26" t="inlineStr">
+      <c r="B154" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 1</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="B155" s="26" t="inlineStr">
+      <c r="B155" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "4. Brealey &amp; Myers, Principles of Corporate Finance"</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="B156" s="26" t="inlineStr">
+      <c r="B156" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    row = row + 2</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="B157" s="26" t="inlineStr"/>
+      <c r="B157" s="27" t="inlineStr"/>
     </row>
     <row r="158">
-      <c r="B158" s="26" t="inlineStr">
+      <c r="B158" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    ' Adjust column widths</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="B159" s="26" t="inlineStr">
+      <c r="B159" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Columns("B").ColumnWidth = 30</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="B160" s="26" t="inlineStr">
+      <c r="B160" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Columns("C").ColumnWidth = 25</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="B161" s="26" t="inlineStr">
+      <c r="B161" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    wsReport.Columns("D:F").ColumnWidth = 15</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="B162" s="26" t="inlineStr"/>
+      <c r="B162" s="27" t="inlineStr"/>
     </row>
     <row r="163">
-      <c r="B163" s="26" t="inlineStr">
+      <c r="B163" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    MsgBox "Report generated on 'Report' sheet. You can print or export to PDF.", vbInformation</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="B164" s="26" t="inlineStr"/>
+      <c r="B164" s="27" t="inlineStr"/>
     </row>
     <row r="165">
-      <c r="B165" s="26" t="inlineStr">
+      <c r="B165" s="27" t="inlineStr">
         <is>
           <t>End Sub</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="B166" s="26" t="inlineStr"/>
+      <c r="B166" s="27" t="inlineStr"/>
     </row>
     <row r="167">
-      <c r="B167" s="26" t="inlineStr">
+      <c r="B167" s="27" t="inlineStr">
         <is>
           <t>Sub ExportToPDF()</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="B168" s="26" t="inlineStr">
+      <c r="B168" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    ' Export the Report sheet to PDF</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="B169" s="26" t="inlineStr">
+      <c r="B169" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    Dim wsReport As Worksheet</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="B170" s="26" t="inlineStr">
+      <c r="B170" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    Dim filePath As String</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="B171" s="26" t="inlineStr"/>
+      <c r="B171" s="27" t="inlineStr"/>
     </row>
     <row r="172">
-      <c r="B172" s="26" t="inlineStr">
+      <c r="B172" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    On Error Resume Next</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="B173" s="26" t="inlineStr">
+      <c r="B173" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    Set wsReport = ThisWorkbook.Sheets("Report")</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="B174" s="26" t="inlineStr">
+      <c r="B174" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    On Error GoTo 0</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="B175" s="26" t="inlineStr"/>
+      <c r="B175" s="27" t="inlineStr"/>
     </row>
     <row r="176">
-      <c r="B176" s="26" t="inlineStr">
+      <c r="B176" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    If wsReport Is Nothing Then</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="B177" s="26" t="inlineStr">
+      <c r="B177" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        MsgBox "Please run 'Generate Report' first.", vbExclamation</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="B178" s="26" t="inlineStr">
+      <c r="B178" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        Exit Sub</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="B179" s="26" t="inlineStr">
+      <c r="B179" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    End If</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="B180" s="26" t="inlineStr"/>
+      <c r="B180" s="27" t="inlineStr"/>
     </row>
     <row r="181">
-      <c r="B181" s="26" t="inlineStr">
+      <c r="B181" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    filePath = Application.GetSaveAsFilename( _</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="B182" s="26" t="inlineStr">
+      <c r="B182" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        InitialFileName:="BESS_Analysis_Report.pdf", _</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="B183" s="26" t="inlineStr">
+      <c r="B183" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        FileFilter:="PDF Files (*.pdf), *.pdf")</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="B184" s="26" t="inlineStr"/>
+      <c r="B184" s="27" t="inlineStr"/>
     </row>
     <row r="185">
-      <c r="B185" s="26" t="inlineStr">
+      <c r="B185" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    If filePath &lt;&gt; "False" Then</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="B186" s="26" t="inlineStr">
+      <c r="B186" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        wsReport.ExportAsFixedFormat Type:=xlTypePDF, Filename:=filePath</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="B187" s="26" t="inlineStr">
+      <c r="B187" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        MsgBox "PDF exported to: " &amp; filePath, vbInformation</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="B188" s="26" t="inlineStr">
+      <c r="B188" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    End If</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="B189" s="26" t="inlineStr"/>
+      <c r="B189" s="27" t="inlineStr"/>
     </row>
     <row r="190">
-      <c r="B190" s="26" t="inlineStr">
+      <c r="B190" s="27" t="inlineStr">
         <is>
           <t>End Sub</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="B191" s="26" t="inlineStr"/>
+      <c r="B191" s="27" t="inlineStr"/>
     </row>
     <row r="192">
-      <c r="B192" s="26" t="inlineStr">
+      <c r="B192" s="27" t="inlineStr">
         <is>
           <t>Sub RefreshCalculations()</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="B193" s="26" t="inlineStr">
+      <c r="B193" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    ' Force recalculation of all formulas</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="B194" s="26" t="inlineStr">
+      <c r="B194" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    Application.CalculateFull</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="B195" s="26" t="inlineStr">
+      <c r="B195" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    MsgBox "All calculations refreshed.", vbInformation</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="B196" s="26" t="inlineStr">
+      <c r="B196" s="27" t="inlineStr">
         <is>
           <t>End Sub</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="B197" s="26" t="inlineStr"/>
+      <c r="B197" s="27" t="inlineStr"/>
     </row>
     <row r="198">
-      <c r="B198" s="26" t="inlineStr">
+      <c r="B198" s="27" t="inlineStr">
         <is>
           <t>Sub LoadNRELLibrary()</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="B199" s="26" t="inlineStr">
+      <c r="B199" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    ' Load NREL ATB 2024 assumptions</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="B200" s="26" t="inlineStr">
+      <c r="B200" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    With ThisWorkbook.Sheets("Inputs")</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="B201" s="26" t="inlineStr">
+      <c r="B201" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C14").Value = "NREL ATB 2024 - Moderate"</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="B202" s="26" t="inlineStr">
+      <c r="B202" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C17").Value = "LFP"</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="B203" s="26" t="inlineStr">
+      <c r="B203" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C18").Value = 0.85</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="B204" s="26" t="inlineStr">
+      <c r="B204" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C19").Value = 0.025</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="B205" s="26" t="inlineStr">
+      <c r="B205" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C20").Value = 6000</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="B206" s="26" t="inlineStr">
+      <c r="B206" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C21").Value = 12</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="B207" s="26" t="inlineStr">
+      <c r="B207" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C24").Value = 160</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="B208" s="26" t="inlineStr">
+      <c r="B208" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C25").Value = 25</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="B209" s="26" t="inlineStr">
+      <c r="B209" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C26").Value = 0</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="B210" s="26" t="inlineStr">
+      <c r="B210" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C27").Value = 55</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="B211" s="26" t="inlineStr">
+      <c r="B211" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C28").Value = 10</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="B212" s="26" t="inlineStr">
+      <c r="B212" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        ' Benefit streams</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="B213" s="26" t="inlineStr">
+      <c r="B213" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C32").Value = 150</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="B214" s="26" t="inlineStr">
+      <c r="B214" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("D32").Value = 0.02</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="B215" s="26" t="inlineStr">
+      <c r="B215" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C33").Value = 40</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="B216" s="26" t="inlineStr">
+      <c r="B216" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("D33").Value = 0.015</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="B217" s="26" t="inlineStr">
+      <c r="B217" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C34").Value = 15</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="B218" s="26" t="inlineStr">
+      <c r="B218" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("D34").Value = 0.01</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="B219" s="26" t="inlineStr">
+      <c r="B219" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C35").Value = 25   ' T&amp;D Deferral</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="B220" s="26" t="inlineStr">
+      <c r="B220" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("D35").Value = 0.02</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="B221" s="26" t="inlineStr">
+      <c r="B221" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        ' Cost projections (learning curve)</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="B222" s="26" t="inlineStr">
+      <c r="B222" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C38").Value = 0.12  ' 12% annual cost decline</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="B223" s="26" t="inlineStr">
+      <c r="B223" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C39").Value = 2024  ' Base year</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="B224" s="26" t="inlineStr">
+      <c r="B224" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    End With</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="B225" s="26" t="inlineStr">
+      <c r="B225" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    MsgBox "NREL ATB 2024 assumptions loaded." &amp; vbCrLf &amp; _</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="B226" s="26" t="inlineStr">
+      <c r="B226" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">           "Includes 12% annual cost decline for future augmentation.", vbInformation</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="B227" s="26" t="inlineStr">
+      <c r="B227" s="27" t="inlineStr">
         <is>
           <t>End Sub</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="B228" s="26" t="inlineStr"/>
+      <c r="B228" s="27" t="inlineStr"/>
     </row>
     <row r="229">
-      <c r="B229" s="26" t="inlineStr">
+      <c r="B229" s="27" t="inlineStr">
         <is>
           <t>Sub LoadLazardLibrary()</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="B230" s="26" t="inlineStr">
+      <c r="B230" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    ' Load Lazard LCOS 2025 assumptions</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="B231" s="26" t="inlineStr">
+      <c r="B231" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    With ThisWorkbook.Sheets("Inputs")</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="B232" s="26" t="inlineStr">
+      <c r="B232" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C14").Value = "Lazard LCOS 2025"</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="B233" s="26" t="inlineStr">
+      <c r="B233" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C17").Value = "LFP"</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="B234" s="26" t="inlineStr">
+      <c r="B234" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C18").Value = 0.86</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="B235" s="26" t="inlineStr">
+      <c r="B235" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C19").Value = 0.02</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="B236" s="26" t="inlineStr">
+      <c r="B236" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C20").Value = 6500</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="B237" s="26" t="inlineStr">
+      <c r="B237" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C21").Value = 12</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="B238" s="26" t="inlineStr">
+      <c r="B238" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C24").Value = 145</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="B239" s="26" t="inlineStr">
+      <c r="B239" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C25").Value = 22</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="B240" s="26" t="inlineStr">
+      <c r="B240" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C26").Value = 0.5</t>
         </is>
       </c>
     </row>
     <row r="241">
-      <c r="B241" s="26" t="inlineStr">
+      <c r="B241" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C27").Value = 50</t>
         </is>
       </c>
     </row>
     <row r="242">
-      <c r="B242" s="26" t="inlineStr">
+      <c r="B242" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C28").Value = 8</t>
         </is>
       </c>
     </row>
     <row r="243">
-      <c r="B243" s="26" t="inlineStr">
+      <c r="B243" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        ' Benefit streams</t>
         </is>
       </c>
     </row>
     <row r="244">
-      <c r="B244" s="26" t="inlineStr">
+      <c r="B244" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C32").Value = 140</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="B245" s="26" t="inlineStr">
+      <c r="B245" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("D32").Value = 0.02</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="B246" s="26" t="inlineStr">
+      <c r="B246" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C33").Value = 45</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="B247" s="26" t="inlineStr">
+      <c r="B247" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("D33").Value = 0.02</t>
         </is>
       </c>
     </row>
     <row r="248">
-      <c r="B248" s="26" t="inlineStr">
+      <c r="B248" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C34").Value = 12</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="B249" s="26" t="inlineStr">
+      <c r="B249" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("D34").Value = 0.01</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="B250" s="26" t="inlineStr">
+      <c r="B250" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C35").Value = 20   ' T&amp;D Deferral</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="B251" s="26" t="inlineStr">
+      <c r="B251" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("D35").Value = 0.015</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="B252" s="26" t="inlineStr">
+      <c r="B252" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        ' Cost projections (learning curve)</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="B253" s="26" t="inlineStr">
+      <c r="B253" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C38").Value = 0.10  ' 10% annual cost decline</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="B254" s="26" t="inlineStr">
+      <c r="B254" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C39").Value = 2025  ' Base year</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="B255" s="26" t="inlineStr">
+      <c r="B255" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    End With</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="B256" s="26" t="inlineStr">
+      <c r="B256" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    MsgBox "Lazard LCOS 2025 assumptions loaded." &amp; vbCrLf &amp; _</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="B257" s="26" t="inlineStr">
+      <c r="B257" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">           "Includes 10% annual cost decline for future augmentation.", vbInformation</t>
         </is>
       </c>
     </row>
     <row r="258">
-      <c r="B258" s="26" t="inlineStr">
+      <c r="B258" s="27" t="inlineStr">
         <is>
           <t>End Sub</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="B259" s="26" t="inlineStr"/>
+      <c r="B259" s="27" t="inlineStr"/>
     </row>
     <row r="260">
-      <c r="B260" s="26" t="inlineStr">
+      <c r="B260" s="27" t="inlineStr">
         <is>
           <t>Sub LoadCPUCLibrary()</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="B261" s="26" t="inlineStr">
+      <c r="B261" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    ' Load CPUC California 2024 assumptions</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="B262" s="26" t="inlineStr">
+      <c r="B262" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    With ThisWorkbook.Sheets("Inputs")</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="B263" s="26" t="inlineStr">
+      <c r="B263" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C14").Value = "CPUC California 2024"</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="B264" s="26" t="inlineStr">
+      <c r="B264" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C17").Value = "LFP"</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="B265" s="26" t="inlineStr">
+      <c r="B265" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C18").Value = 0.85</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="B266" s="26" t="inlineStr">
+      <c r="B266" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C19").Value = 0.025</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="B267" s="26" t="inlineStr">
+      <c r="B267" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C20").Value = 6000</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="B268" s="26" t="inlineStr">
+      <c r="B268" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C21").Value = 12</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="B269" s="26" t="inlineStr">
+      <c r="B269" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C24").Value = 155</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="B270" s="26" t="inlineStr">
+      <c r="B270" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C25").Value = 26</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="B271" s="26" t="inlineStr">
+      <c r="B271" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C26").Value = 0</t>
         </is>
       </c>
     </row>
     <row r="272">
-      <c r="B272" s="26" t="inlineStr">
+      <c r="B272" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C27").Value = 52</t>
         </is>
       </c>
     </row>
     <row r="273">
-      <c r="B273" s="26" t="inlineStr">
+      <c r="B273" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C28").Value = 12</t>
         </is>
       </c>
     </row>
     <row r="274">
-      <c r="B274" s="26" t="inlineStr">
+      <c r="B274" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        ' Benefit streams</t>
         </is>
       </c>
     </row>
     <row r="275">
-      <c r="B275" s="26" t="inlineStr">
+      <c r="B275" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C32").Value = 180</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="B276" s="26" t="inlineStr">
+      <c r="B276" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("D32").Value = 0.025</t>
         </is>
       </c>
     </row>
     <row r="277">
-      <c r="B277" s="26" t="inlineStr">
+      <c r="B277" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C33").Value = 35</t>
         </is>
       </c>
     </row>
     <row r="278">
-      <c r="B278" s="26" t="inlineStr">
+      <c r="B278" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("D33").Value = 0.02</t>
         </is>
       </c>
     </row>
     <row r="279">
-      <c r="B279" s="26" t="inlineStr">
+      <c r="B279" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C34").Value = 10</t>
         </is>
       </c>
     </row>
     <row r="280">
-      <c r="B280" s="26" t="inlineStr">
+      <c r="B280" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("D34").Value = 0.01</t>
         </is>
       </c>
     </row>
     <row r="281">
-      <c r="B281" s="26" t="inlineStr">
+      <c r="B281" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C35").Value = 25   ' T&amp;D Deferral</t>
         </is>
       </c>
     </row>
     <row r="282">
-      <c r="B282" s="26" t="inlineStr">
+      <c r="B282" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("D35").Value = 0.015</t>
         </is>
       </c>
     </row>
     <row r="283">
-      <c r="B283" s="26" t="inlineStr">
+      <c r="B283" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        ' Cost projections (learning curve)</t>
         </is>
       </c>
     </row>
     <row r="284">
-      <c r="B284" s="26" t="inlineStr">
+      <c r="B284" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C38").Value = 0.11  ' 11% annual cost decline</t>
         </is>
       </c>
     </row>
     <row r="285">
-      <c r="B285" s="26" t="inlineStr">
+      <c r="B285" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">        .Range("C39").Value = 2024  ' Base year</t>
         </is>
       </c>
     </row>
     <row r="286">
-      <c r="B286" s="26" t="inlineStr">
+      <c r="B286" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    End With</t>
         </is>
       </c>
     </row>
     <row r="287">
-      <c r="B287" s="26" t="inlineStr">
+      <c r="B287" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">    MsgBox "CPUC California 2024 assumptions loaded." &amp; vbCrLf &amp; _</t>
         </is>
       </c>
     </row>
     <row r="288">
-      <c r="B288" s="26" t="inlineStr">
+      <c r="B288" s="27" t="inlineStr">
         <is>
           <t xml:space="preserve">           "Includes 11% annual cost decline for future augmentation.", vbInformation</t>
         </is>
       </c>
     </row>
     <row r="289">
-      <c r="B289" s="26" t="inlineStr">
+      <c r="B289" s="27" t="inlineStr">
         <is>
           <t>End Sub</t>
         </is>

--- a/bess_analyzer/BESS_Analyzer.xlsx
+++ b/bess_analyzer/BESS_Analyzer.xlsx
@@ -14,6 +14,7 @@
     <sheet name="Sensitivity" sheetId="5" r:id="rId5"/>
     <sheet name="Methodology" sheetId="6" r:id="rId6"/>
     <sheet name="Library_Data" sheetId="7" r:id="rId7"/>
+    <sheet name="VBA_Code" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="Analysis_Years">Inputs!$C$13</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="583">
   <si>
     <t>BESS Economic Analysis - Project Inputs</t>
   </si>
@@ -961,6 +962,822 @@
   </si>
   <si>
     <t>Voltage Support [common]</t>
+  </si>
+  <si>
+    <t>VBA Macro Code &amp; Setup Instructions</t>
+  </si>
+  <si>
+    <t>STEP-BY-STEP INSTRUCTIONS TO ENABLE MACROS</t>
+  </si>
+  <si>
+    <t>Step 1:</t>
+  </si>
+  <si>
+    <t>Save this workbook as a Macro-Enabled Workbook (.xlsm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    File &gt; Save As &gt; Choose 'Excel Macro-Enabled Workbook (*.xlsm)'</t>
+  </si>
+  <si>
+    <t>Step 2:</t>
+  </si>
+  <si>
+    <t>Open the VBA Editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Press Alt + F11 (Windows) or Option + F11 (Mac)</t>
+  </si>
+  <si>
+    <t>Step 3:</t>
+  </si>
+  <si>
+    <t>Insert a new Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Right-click on 'VBAProject' in the left panel &gt; Insert &gt; Module</t>
+  </si>
+  <si>
+    <t>Step 4:</t>
+  </si>
+  <si>
+    <t>Copy the VBA code below and paste it into the Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Select all the code in the 'COMPLETE VBA CODE' section below</t>
+  </si>
+  <si>
+    <t>Step 5:</t>
+  </si>
+  <si>
+    <t>Close the VBA Editor (File &gt; Close and Return to Microsoft Excel)</t>
+  </si>
+  <si>
+    <t>Step 6:</t>
+  </si>
+  <si>
+    <t>Create buttons on the Inputs sheet (optional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Developer tab &gt; Insert &gt; Button (Form Control) &gt; Draw button &gt; Assign macro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Create buttons for: LoadNRELLibrary, LoadLazardLibrary, LoadCPUCLibrary</t>
+  </si>
+  <si>
+    <t>Step 7:</t>
+  </si>
+  <si>
+    <t>Save the workbook again to preserve the macros</t>
+  </si>
+  <si>
+    <t>COMPLETE VBA CODE - COPY ALL BELOW</t>
+  </si>
+  <si>
+    <t>Option Explicit</t>
+  </si>
+  <si>
+    <t>'=================================================================</t>
+  </si>
+  <si>
+    <t>' BESS ANALYZER VBA MACROS</t>
+  </si>
+  <si>
+    <t>' Copy this entire module into your VBA project</t>
+  </si>
+  <si>
+    <t>Sub LoadNRELLibrary()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    '-----------------------------------------------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ' Loads NREL ATB 2024 Moderate assumptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    With ThisWorkbook.Sheets("Inputs")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ' Library name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C6").Value = "NREL ATB 2024 - Moderate"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ' Technology Specifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C18").Value = "LFP"          ' Chemistry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C19").Value = 0.85           ' Round-Trip Efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C20").Value = 0.025          ' Annual Degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C21").Value = 6000           ' Cycle Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C22").Value = 12             ' Augmentation Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C23").Value = 1              ' Cycles per Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ' Cost Inputs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C28").Value = 160            ' CapEx ($/kWh)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C29").Value = 25             ' Fixed O&amp;M ($/kW-year)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C30").Value = 0              ' Variable O&amp;M ($/MWh)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C31").Value = 55             ' Augmentation Cost ($/kWh)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C32").Value = 10             ' Decommissioning ($/kW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C33").Value = 30             ' Charging Cost ($/MWh)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C34").Value = 0.1            ' Residual Value (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ' Tax Credits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C37").Value = 0.3            ' ITC Base (30%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C38").Value = 0              ' ITC Adders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ' Infrastructure Costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C43").Value = 100            ' Interconnection ($/kW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C44").Value = 10             ' Land ($/kW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C45").Value = 15             ' Permitting ($/kW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C46").Value = 0.005          ' Insurance (% of CapEx)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C47").Value = 0.01           ' Property Tax (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ' Financing Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C51").Value = 0.6            ' Debt Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C52").Value = 0.045          ' Interest Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C53").Value = 15             ' Loan Term (years)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C54").Value = 0.1            ' Cost of Equity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C55").Value = 0.21           ' Tax Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ' Benefits ($/kW-year and escalation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C59").Value = 150: .Range("D59").Value = 0.02   ' Resource Adequacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C60").Value = 40: .Range("D60").Value = 0.015   ' Energy Arbitrage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C61").Value = 15: .Range("D61").Value = 0.01    ' Ancillary Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C62").Value = 25: .Range("D62").Value = 0.02    ' T&amp;D Deferral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C63").Value = 50: .Range("D63").Value = 0.02    ' Resilience Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C64").Value = 25: .Range("D64").Value = 0.02    ' Renewable Integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C65").Value = 15: .Range("D65").Value = 0.03    ' GHG Emissions Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C66").Value = 8: .Range("D66").Value = 0.01     ' Voltage Support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    End With</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Application.Calculate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MsgBox "NREL ATB 2024 Moderate assumptions loaded successfully.", vbInformation, "Library Loaded"</t>
+  </si>
+  <si>
+    <t>End Sub</t>
+  </si>
+  <si>
+    <t>Sub LoadLazardLibrary()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ' Loads Lazard LCOS v10.0 2025 assumptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C6").Value = "Lazard LCOS 2025"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ' Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C18").Value = "LFP"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C19").Value = 0.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C20").Value = 0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C21").Value = 6500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C22").Value = 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C23").Value = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ' Costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C28").Value = 145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C29").Value = 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C30").Value = 0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C31").Value = 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C32").Value = 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C33").Value = 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C34").Value = 0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C37").Value = 0.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C38").Value = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ' Infrastructure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C43").Value = 90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C44").Value = 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C45").Value = 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C46").Value = 0.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C47").Value = 0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ' Financing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C51").Value = 0.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C52").Value = 0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C53").Value = 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C54").Value = 0.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C55").Value = 0.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ' Benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C59").Value = 140: .Range("D59").Value = 0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C60").Value = 45: .Range("D60").Value = 0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C61").Value = 12: .Range("D61").Value = 0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C62").Value = 20: .Range("D62").Value = 0.015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C63").Value = 45: .Range("D63").Value = 0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C64").Value = 20: .Range("D64").Value = 0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C65").Value = 12: .Range("D65").Value = 0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C66").Value = 6: .Range("D66").Value = 0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MsgBox "Lazard LCOS 2025 assumptions loaded successfully.", vbInformation, "Library Loaded"</t>
+  </si>
+  <si>
+    <t>Sub LoadCPUCLibrary()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ' Loads CPUC California 2024 assumptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ' Includes 10% ITC Energy Community Adder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C6").Value = "CPUC California 2024"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C19").Value = 0.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C20").Value = 0.025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C21").Value = 6000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C28").Value = 155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C29").Value = 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C30").Value = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C31").Value = 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C32").Value = 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C33").Value = 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ' Tax Credits (includes Energy Community adder)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C38").Value = 0.1            ' 10% Energy Community Adder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ' Infrastructure (California-specific higher costs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C43").Value = 120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C44").Value = 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C45").Value = 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C47").Value = 0.0105         ' CA property tax rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ' Financing (IOU-style favorable terms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C51").Value = 0.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C52").Value = 0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C53").Value = 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C54").Value = 0.095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ' Benefits (California premium values)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C59").Value = 180: .Range("D59").Value = 0.025  ' RA premium in CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C60").Value = 35: .Range("D60").Value = 0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C61").Value = 10: .Range("D61").Value = 0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C62").Value = 25: .Range("D62").Value = 0.015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C63").Value = 60: .Range("D63").Value = 0.02   ' PSPS resilience value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C64").Value = 30: .Range("D64").Value = 0.025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C65").Value = 20: .Range("D65").Value = 0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C66").Value = 10: .Range("D66").Value = 0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MsgBox "CPUC California 2024 assumptions loaded." &amp; vbCrLf &amp; _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           "Note: Includes 10% ITC Energy Community Adder.", vbInformation, "Library Loaded"</t>
+  </si>
+  <si>
+    <t>Sub GenerateReport()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ' Creates a summary report on a new "Report" sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dim wsReport As Worksheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dim wsResults As Worksheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dim wsInputs As Worksheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dim row As Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Set wsResults = ThisWorkbook.Sheets("Results")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Set wsInputs = ThisWorkbook.Sheets("Inputs")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ' Delete existing Report sheet if it exists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    On Error Resume Next</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Application.DisplayAlerts = False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ThisWorkbook.Sheets("Report").Delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Application.DisplayAlerts = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    On Error GoTo 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ' Create new Report sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Set wsReport = ThisWorkbook.Sheets.Add(After:=ThisWorkbook.Sheets(ThisWorkbook.Sheets.Count))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wsReport.Name = "Report"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    row = 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "BESS ECONOMIC ANALYSIS REPORT"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wsReport.Cells(row, 2).Font.Bold = True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wsReport.Cells(row, 2).Font.Size = 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wsReport.Range("B" &amp; row &amp; ":F" &amp; row).Merge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    row = row + 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ' Project Summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "PROJECT SUMMARY"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wsReport.Cells(row, 2).Interior.Color = RGB(227, 242, 253)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    row = row + 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "Project:"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wsReport.Cells(row, 3).Value = wsInputs.Range("C7").Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "Location:"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wsReport.Cells(row, 3).Value = wsInputs.Range("C9").Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "Capacity:"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wsReport.Cells(row, 3).Value = wsInputs.Range("C10").Value &amp; " MW / " &amp; wsInputs.Range("C12").Value &amp; " MWh"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "Assumptions:"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wsReport.Cells(row, 3).Value = wsInputs.Range("C6").Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ' Key Metrics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "KEY FINANCIAL METRICS"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "Benefit-Cost Ratio (BCR):"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wsReport.Cells(row, 3).Value = wsResults.Range("C11").Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wsReport.Cells(row, 3).NumberFormat = "0.00"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "Net Present Value (NPV):"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wsReport.Cells(row, 3).Value = wsResults.Range("C12").Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wsReport.Cells(row, 3).NumberFormat = "$#,##0"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "Internal Rate of Return (IRR):"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wsReport.Cells(row, 3).Value = wsResults.Range("C13").Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wsReport.Cells(row, 3).NumberFormat = "0.0%"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "Payback Period:"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wsReport.Cells(row, 3).Value = wsResults.Range("C14").Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wsReport.Cells(row, 3).NumberFormat = "0.0 "" years"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "LCOS:"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wsReport.Cells(row, 3).Value = wsResults.Range("C15").Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wsReport.Cells(row, 3).NumberFormat = "$#,##0 ""/MWh"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ' Recommendation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "RECOMMENDATION"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ' Color-code recommendation based on BCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dim bcr As Double</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    bcr = wsResults.Range("C11").Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    If bcr &gt;= 1.5 Then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        wsReport.Cells(row, 2).Value = "STRONG PROJECT - Proceed with development"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        wsReport.Cells(row, 2).Font.Color = RGB(0, 128, 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ElseIf bcr &gt;= 1 Then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        wsReport.Cells(row, 2).Value = "MARGINAL PROJECT - Review assumptions carefully"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        wsReport.Cells(row, 2).Font.Color = RGB(255, 165, 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        wsReport.Cells(row, 2).Value = "NOT RECOMMENDED - Costs exceed benefits"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        wsReport.Cells(row, 2).Font.Color = RGB(255, 0, 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    End If</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ' Format columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wsReport.Columns("B").ColumnWidth = 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wsReport.Columns("C").ColumnWidth = 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MsgBox "Report generated on 'Report' sheet.", vbInformation, "Report Ready"</t>
+  </si>
+  <si>
+    <t>Sub ExportToPDF()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ' Exports the Report sheet to PDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dim filePath As String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Set wsReport = ThisWorkbook.Sheets("Report")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    If wsReport Is Nothing Then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MsgBox "Please run 'Generate Report' first to create the Report sheet.", vbExclamation, "No Report Found"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Exit Sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    filePath = Application.GetSaveAsFilename( _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        InitialFileName:="BESS_Analysis_Report.pdf", _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        FileFilter:="PDF Files (*.pdf), *.pdf", _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Title:="Save Report as PDF")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    If filePath &lt;&gt; "False" Then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        wsReport.ExportAsFixedFormat Type:=xlTypePDF, Filename:=filePath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        MsgBox "PDF exported successfully to:" &amp; vbCrLf &amp; filePath, vbInformation, "Export Complete"</t>
+  </si>
+  <si>
+    <t>Sub RefreshCalculations()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ' Forces recalculation of all formulas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Application.CalculateFull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MsgBox "All calculations refreshed.", vbInformation, "Refresh Complete"</t>
+  </si>
+  <si>
+    <t>Sub ShowAbout()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ' Shows information about the BESS Analyzer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MsgBox "BESS Economic Analyzer" &amp; vbCrLf &amp; vbCrLf &amp; _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           "Version: 1.0" &amp; vbCrLf &amp; _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           "Libraries: NREL ATB 2024, Lazard LCOS 2025, CPUC CA 2024" &amp; vbCrLf &amp; vbCrLf &amp; _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           "This tool performs benefit-cost analysis for utility-scale" &amp; vbCrLf &amp; _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           "battery energy storage systems (BESS) using industry-standard" &amp; vbCrLf &amp; _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           "assumptions and methodologies.", vbInformation, "About BESS Analyzer"</t>
+  </si>
+  <si>
+    <t>AVAILABLE MACROS - QUICK REFERENCE</t>
+  </si>
+  <si>
+    <t>LoadNRELLibrary</t>
+  </si>
+  <si>
+    <t>Loads NREL Annual Technology Baseline 2024 (Moderate) assumptions</t>
+  </si>
+  <si>
+    <t>LoadLazardLibrary</t>
+  </si>
+  <si>
+    <t>Loads Lazard Levelized Cost of Storage v10.0 (2025) assumptions</t>
+  </si>
+  <si>
+    <t>LoadCPUCLibrary</t>
+  </si>
+  <si>
+    <t>Loads CPUC California 2024 assumptions with 10% ITC Energy Community Adder</t>
+  </si>
+  <si>
+    <t>GenerateReport</t>
+  </si>
+  <si>
+    <t>Creates a summary report on a new 'Report' sheet</t>
+  </si>
+  <si>
+    <t>ExportToPDF</t>
+  </si>
+  <si>
+    <t>Exports the Report sheet to a PDF file</t>
+  </si>
+  <si>
+    <t>RefreshCalculations</t>
+  </si>
+  <si>
+    <t>Forces full recalculation of all workbook formulas</t>
+  </si>
+  <si>
+    <t>ShowAbout</t>
+  </si>
+  <si>
+    <t>Displays information about the BESS Analyzer</t>
+  </si>
+  <si>
+    <t>TROUBLESHOOTING</t>
+  </si>
+  <si>
+    <t>• If buttons don't work: Make sure you saved as .xlsm and macros are enabled</t>
+  </si>
+  <si>
+    <t>• If macros are disabled: Go to File &gt; Options &gt; Trust Center &gt; Trust Center Settings &gt; Macro Settings</t>
+  </si>
+  <si>
+    <t>• If cell references are wrong: The VBA code uses specific cell addresses - check the Inputs sheet layout</t>
+  </si>
+  <si>
+    <t>• To edit macros: Press Alt+F11 to open VBA Editor, then modify the code in the Module</t>
+  </si>
+  <si>
+    <t>• To assign macros to buttons: Right-click button &gt; Assign Macro &gt; Select from list</t>
   </si>
 </sst>
 </file>
@@ -975,7 +1792,7 @@
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="$#,##0,,&quot;M&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1031,8 +1848,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1063,8 +1886,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1087,11 +1916,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1126,6 +1970,10 @@
     <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6126,4 +6974,1809 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C374"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="C8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="C10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="C12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="C13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="C16" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="21" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="21"/>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="21" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="21" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="21" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="21" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="21"/>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="21" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="21" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="21" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="21" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="21" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="21" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="21" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="21"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="21" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="21" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="21" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="21" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="21" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="21" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="21"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="21" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="21" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="21" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="21" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="21" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="21" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="21" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="21"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="21" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="21" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="21" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="21"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="21" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="21" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="21" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="21" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="21" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="21" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="21"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="21" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="21" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="21" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="21" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="21" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="21" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="21"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="21" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="21" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="21" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="21" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="21" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="21" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="21" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="21" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="21" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="21" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="21"/>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="21" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="21" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="21" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="21"/>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="21"/>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="21" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="21" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="21" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="21" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="21" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="21" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="21"/>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="21" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="21" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="21" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="21" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="21" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="21" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="21"/>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="21" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="21" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="21" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="21" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="21" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="21" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="21" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="21" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="21"/>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="21" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="21" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="21" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="21"/>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="21" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="21" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="21" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="21" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="21" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="21" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="21"/>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="21" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="21" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="21" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="21" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="21" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="21" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="21"/>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="21" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="21" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="21" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="21" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="21" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="21" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="21" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="21" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="21" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="21" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="21"/>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="21" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="21" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="21" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="21"/>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="21"/>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="21" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="21" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="21" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="21" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="21" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="21" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="21" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="21"/>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="21" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="21" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="21" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="21" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="21" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="21" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="21"/>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="21" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="21" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" s="21" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" s="21" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="21" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="21" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="21" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="21"/>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" s="21" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="21" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" s="21" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="21"/>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="21" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" s="21" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" s="21" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" s="21" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" s="21" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" s="21" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" s="21"/>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" s="21" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" s="21" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" s="21" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" s="21" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" s="21" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" s="21" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" s="21"/>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" s="21" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" s="21" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" s="21" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191" s="21" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" s="21" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" s="21" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" s="21" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195" s="21" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" s="21" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" s="21" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" s="21"/>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" s="21" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" s="21" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" s="21" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" s="21" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203" s="21"/>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" s="21"/>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" s="21" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" s="21" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207" s="21" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208" s="21" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" s="21" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" s="21" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" s="21" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" s="21" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" s="21"/>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" s="21" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215" s="21" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" s="21"/>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217" s="21" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218" s="21" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" s="21" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2">
+      <c r="B220" s="21" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221" s="21" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222" s="21" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2">
+      <c r="B223" s="21"/>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224" s="21" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225" s="21" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226" s="21" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2">
+      <c r="B227" s="21"/>
+    </row>
+    <row r="228" spans="2:2">
+      <c r="B228" s="21" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" s="21" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2">
+      <c r="B230" s="21" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231" s="21" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2">
+      <c r="B232" s="21" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2">
+      <c r="B233" s="21" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2">
+      <c r="B234" s="21"/>
+    </row>
+    <row r="235" spans="2:2">
+      <c r="B235" s="21" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2">
+      <c r="B236" s="21" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2">
+      <c r="B237" s="21" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2">
+      <c r="B238" s="21" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239" s="21" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2">
+      <c r="B240" s="21"/>
+    </row>
+    <row r="241" spans="2:2">
+      <c r="B241" s="21" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2">
+      <c r="B242" s="21" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2">
+      <c r="B243" s="21" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2">
+      <c r="B244" s="21" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2">
+      <c r="B245" s="21" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2">
+      <c r="B246" s="21" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2">
+      <c r="B247" s="21" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2">
+      <c r="B248" s="21" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2">
+      <c r="B249" s="21" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2">
+      <c r="B250" s="21" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2">
+      <c r="B251" s="21" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2">
+      <c r="B252" s="21" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2">
+      <c r="B253" s="21"/>
+    </row>
+    <row r="254" spans="2:2">
+      <c r="B254" s="21" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2">
+      <c r="B255" s="21" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2">
+      <c r="B256" s="21" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2">
+      <c r="B257" s="21" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2">
+      <c r="B258" s="21" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2">
+      <c r="B259" s="21"/>
+    </row>
+    <row r="260" spans="2:2">
+      <c r="B260" s="21" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2">
+      <c r="B261" s="21" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2">
+      <c r="B262" s="21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2">
+      <c r="B263" s="21" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2">
+      <c r="B264" s="21" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2">
+      <c r="B265" s="21" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2">
+      <c r="B266" s="21" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2">
+      <c r="B267" s="21" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2">
+      <c r="B268" s="21" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2">
+      <c r="B269" s="21" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2">
+      <c r="B270" s="21" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2">
+      <c r="B271" s="21" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2">
+      <c r="B272" s="21" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2">
+      <c r="B273" s="21" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2">
+      <c r="B274" s="21" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2">
+      <c r="B275" s="21" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2">
+      <c r="B276" s="21" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2">
+      <c r="B277" s="21" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2">
+      <c r="B278" s="21" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2">
+      <c r="B279" s="21" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2">
+      <c r="B280" s="21"/>
+    </row>
+    <row r="281" spans="2:2">
+      <c r="B281" s="21" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2">
+      <c r="B282" s="21" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2">
+      <c r="B283" s="21" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2">
+      <c r="B284" s="21" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2">
+      <c r="B285" s="21" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2">
+      <c r="B286" s="21"/>
+    </row>
+    <row r="287" spans="2:2">
+      <c r="B287" s="21" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2">
+      <c r="B288" s="21" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2">
+      <c r="B289" s="21" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2">
+      <c r="B290" s="21" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2">
+      <c r="B291" s="21" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2">
+      <c r="B292" s="21" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2">
+      <c r="B293" s="21" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2">
+      <c r="B294" s="21" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2">
+      <c r="B295" s="21" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2">
+      <c r="B296" s="21" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2">
+      <c r="B297" s="21" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2">
+      <c r="B298" s="21" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2">
+      <c r="B299" s="21" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2">
+      <c r="B300" s="21" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2">
+      <c r="B301" s="21"/>
+    </row>
+    <row r="302" spans="2:2">
+      <c r="B302" s="21" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2">
+      <c r="B303" s="21" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2">
+      <c r="B304" s="21" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2">
+      <c r="B305" s="21"/>
+    </row>
+    <row r="306" spans="2:2">
+      <c r="B306" s="21" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2">
+      <c r="B307" s="21" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2">
+      <c r="B308" s="21"/>
+    </row>
+    <row r="309" spans="2:2">
+      <c r="B309" s="21"/>
+    </row>
+    <row r="310" spans="2:2">
+      <c r="B310" s="21" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2">
+      <c r="B311" s="21" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2">
+      <c r="B312" s="21" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2">
+      <c r="B313" s="21" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2">
+      <c r="B314" s="21" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2">
+      <c r="B315" s="21" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2">
+      <c r="B316" s="21"/>
+    </row>
+    <row r="317" spans="2:2">
+      <c r="B317" s="21" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2">
+      <c r="B318" s="21" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2">
+      <c r="B319" s="21" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2">
+      <c r="B320" s="21"/>
+    </row>
+    <row r="321" spans="2:2">
+      <c r="B321" s="21" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2">
+      <c r="B322" s="21" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2">
+      <c r="B323" s="21" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2">
+      <c r="B324" s="21" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2">
+      <c r="B325" s="21"/>
+    </row>
+    <row r="326" spans="2:2">
+      <c r="B326" s="21" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2">
+      <c r="B327" s="21" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2">
+      <c r="B328" s="21" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2">
+      <c r="B329" s="21" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2">
+      <c r="B330" s="21"/>
+    </row>
+    <row r="331" spans="2:2">
+      <c r="B331" s="21" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2">
+      <c r="B332" s="21" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2">
+      <c r="B333" s="21" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2">
+      <c r="B334" s="21" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2">
+      <c r="B335" s="21" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2">
+      <c r="B336" s="21"/>
+    </row>
+    <row r="337" spans="2:2">
+      <c r="B337" s="21"/>
+    </row>
+    <row r="338" spans="2:2">
+      <c r="B338" s="21" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2">
+      <c r="B339" s="21" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2">
+      <c r="B340" s="21" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2">
+      <c r="B341" s="21" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2">
+      <c r="B342" s="21" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2">
+      <c r="B343" s="21" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2">
+      <c r="B344" s="21" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2">
+      <c r="B345" s="21"/>
+    </row>
+    <row r="346" spans="2:2">
+      <c r="B346" s="21"/>
+    </row>
+    <row r="347" spans="2:2">
+      <c r="B347" s="21" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2">
+      <c r="B348" s="21" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2">
+      <c r="B349" s="21" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2">
+      <c r="B350" s="21" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2">
+      <c r="B351" s="21" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2">
+      <c r="B352" s="21" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="353" spans="2:3">
+      <c r="B353" s="21" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="354" spans="2:3">
+      <c r="B354" s="21" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="355" spans="2:3">
+      <c r="B355" s="21" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="356" spans="2:3">
+      <c r="B356" s="21" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="357" spans="2:3">
+      <c r="B357" s="21" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="359" spans="2:3">
+      <c r="B359" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C359" s="2"/>
+    </row>
+    <row r="360" spans="2:3">
+      <c r="B360" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C360" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="361" spans="2:3">
+      <c r="B361" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C361" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="362" spans="2:3">
+      <c r="B362" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="C362" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="363" spans="2:3">
+      <c r="B363" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C363" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="364" spans="2:3">
+      <c r="B364" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C364" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="365" spans="2:3">
+      <c r="B365" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C365" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="366" spans="2:3">
+      <c r="B366" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C366" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="369" spans="2:3">
+      <c r="B369" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C369" s="2"/>
+    </row>
+    <row r="370" spans="2:3">
+      <c r="B370" s="5" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="371" spans="2:3">
+      <c r="B371" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="372" spans="2:3">
+      <c r="B372" s="5" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="373" spans="2:3">
+      <c r="B373" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="374" spans="2:3">
+      <c r="B374" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B359:C359"/>
+    <mergeCell ref="B369:C369"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/bess_analyzer/BESS_Analyzer.xlsx
+++ b/bess_analyzer/BESS_Analyzer.xlsx
@@ -17,19 +17,19 @@
     <sheet name="VBA_Code" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="Analysis_Years">Inputs!$C$13</definedName>
-    <definedName name="Capacity_MW">Inputs!$C$10</definedName>
-    <definedName name="Discount_Rate">Inputs!$C$14</definedName>
-    <definedName name="Duration_Hours">Inputs!$C$11</definedName>
-    <definedName name="Energy_MWh">Inputs!$C$12</definedName>
-    <definedName name="Learning_Rate">Inputs!$C$67</definedName>
+    <definedName name="Analysis_Years">Inputs!$C15</definedName>
+    <definedName name="Capacity_MW">Inputs!$C12</definedName>
+    <definedName name="Discount_Rate">Inputs!$C16</definedName>
+    <definedName name="Duration_Hours">Inputs!$C13</definedName>
+    <definedName name="Energy_MWh">Inputs!$C14</definedName>
+    <definedName name="Learning_Rate">Inputs!$C61</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="688">
   <si>
     <t>BESS Economic Analysis - Project Inputs</t>
   </si>
@@ -370,6 +370,96 @@
     <t>Reference year for base costs</t>
   </si>
   <si>
+    <t>BULK DISCOUNT (Fleet Purchases)</t>
+  </si>
+  <si>
+    <t>Bulk Discount Rate (%)</t>
+  </si>
+  <si>
+    <t>Discount on ALL costs when buying fleet (e.g., 0.10 = 10%)</t>
+  </si>
+  <si>
+    <t>Threshold Capacity (MWh)</t>
+  </si>
+  <si>
+    <t>Minimum MWh capacity to qualify for bulk discount</t>
+  </si>
+  <si>
+    <t>SPECIAL BENEFITS - Reliability (Avoided Outage Cost)</t>
+  </si>
+  <si>
+    <t>Reliability Enabled</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Enter "Yes" or "No"</t>
+  </si>
+  <si>
+    <t>Outage Hours per Year</t>
+  </si>
+  <si>
+    <t>Expected annual outage hours avoided</t>
+  </si>
+  <si>
+    <t>Customer Cost ($/kWh)</t>
+  </si>
+  <si>
+    <t>Cost to customers per kWh of outage (LBNL ICE)</t>
+  </si>
+  <si>
+    <t>Backup Capacity (%)</t>
+  </si>
+  <si>
+    <t>Fraction of capacity available for backup</t>
+  </si>
+  <si>
+    <t>SPECIAL BENEFITS - Safety (Avoided Incident Cost)</t>
+  </si>
+  <si>
+    <t>Safety Enabled</t>
+  </si>
+  <si>
+    <t>Incident Probability</t>
+  </si>
+  <si>
+    <t>Annual probability of grid safety incident (e.g., 0.001 = 0.1%)</t>
+  </si>
+  <si>
+    <t>Incident Cost ($)</t>
+  </si>
+  <si>
+    <t>Cost per safety incident</t>
+  </si>
+  <si>
+    <t>Risk Reduction Factor</t>
+  </si>
+  <si>
+    <t>Fraction of risk mitigated by BESS (e.g., 0.5 = 50%)</t>
+  </si>
+  <si>
+    <t>SPECIAL BENEFITS - Speed-to-Serve (Faster Deployment)</t>
+  </si>
+  <si>
+    <t>Speed-to-Serve Enabled</t>
+  </si>
+  <si>
+    <t>Enter "Yes" or "No" - ONE-TIME Year 1 benefit</t>
+  </si>
+  <si>
+    <t>Months Saved</t>
+  </si>
+  <si>
+    <t>Months faster than alternative (e.g., gas peaker)</t>
+  </si>
+  <si>
+    <t>Value per kW-Month ($)</t>
+  </si>
+  <si>
+    <t>Value of each month of earlier deployment per kW</t>
+  </si>
+  <si>
     <t>GENERATE REPORTS</t>
   </si>
   <si>
@@ -388,6 +478,9 @@
     <t>Var O&amp;M</t>
   </si>
   <si>
+    <t>Charging</t>
+  </si>
+  <si>
     <t>Insurance</t>
   </si>
   <si>
@@ -1045,6 +1138,51 @@
     <t>' Copy this entire module into your VBA project</t>
   </si>
   <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>' CELL REFERENCE MAP (Inputs sheet):</t>
+  </si>
+  <si>
+    <t>' - Selected Library: C6</t>
+  </si>
+  <si>
+    <t>' - Capacity MW: C12, Duration: C13</t>
+  </si>
+  <si>
+    <t>' - Technology: C19 to C24</t>
+  </si>
+  <si>
+    <t>' - Costs: C26 to C32</t>
+  </si>
+  <si>
+    <t>' - ITC: C34, C35</t>
+  </si>
+  <si>
+    <t>' - Infrastructure: C37 to C41</t>
+  </si>
+  <si>
+    <t>' - Financing: C43 to C47</t>
+  </si>
+  <si>
+    <t>' - Benefits: C52:D59 (8 rows)</t>
+  </si>
+  <si>
+    <t>' - Learning Rate: C61</t>
+  </si>
+  <si>
+    <t>' - Bulk Discount: C64, C65</t>
+  </si>
+  <si>
+    <t>' - Reliability: C68 to C71</t>
+  </si>
+  <si>
+    <t>' - Safety: C74 to C77</t>
+  </si>
+  <si>
+    <t>' - Speed-to-Serve: C80 to C82</t>
+  </si>
+  <si>
     <t>Sub LoadNRELLibrary()</t>
   </si>
   <si>
@@ -1066,118 +1204,175 @@
     <t xml:space="preserve">        ' Technology Specifications</t>
   </si>
   <si>
-    <t xml:space="preserve">        .Range("C18").Value = "LFP"          ' Chemistry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C19").Value = 0.85           ' Round-Trip Efficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C20").Value = 0.025          ' Annual Degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C21").Value = 6000           ' Cycle Life</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C22").Value = 12             ' Augmentation Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C23").Value = 1              ' Cycles per Day</t>
+    <t xml:space="preserve">        .Range("C19").Value = "LFP"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C20").Value = 0.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C21").Value = 0.025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C22").Value = 6000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C23").Value = 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C24").Value = 1</t>
   </si>
   <si>
     <t xml:space="preserve">        ' Cost Inputs</t>
   </si>
   <si>
-    <t xml:space="preserve">        .Range("C28").Value = 160            ' CapEx ($/kWh)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C29").Value = 25             ' Fixed O&amp;M ($/kW-year)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C30").Value = 0              ' Variable O&amp;M ($/MWh)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C31").Value = 55             ' Augmentation Cost ($/kWh)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C32").Value = 10             ' Decommissioning ($/kW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C33").Value = 30             ' Charging Cost ($/MWh)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C34").Value = 0.1            ' Residual Value (%)</t>
+    <t xml:space="preserve">        .Range("C26").Value = 160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C27").Value = 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C28").Value = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C29").Value = 55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C30").Value = 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C31").Value = 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C32").Value = 0.1</t>
   </si>
   <si>
     <t xml:space="preserve">        ' Tax Credits</t>
   </si>
   <si>
-    <t xml:space="preserve">        .Range("C37").Value = 0.3            ' ITC Base (30%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C38").Value = 0              ' ITC Adders</t>
+    <t xml:space="preserve">        .Range("C34").Value = 0.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C35").Value = 0</t>
   </si>
   <si>
     <t xml:space="preserve">        ' Infrastructure Costs</t>
   </si>
   <si>
-    <t xml:space="preserve">        .Range("C43").Value = 100            ' Interconnection ($/kW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C44").Value = 10             ' Land ($/kW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C45").Value = 15             ' Permitting ($/kW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C46").Value = 0.005          ' Insurance (% of CapEx)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C47").Value = 0.01           ' Property Tax (%)</t>
+    <t xml:space="preserve">        .Range("C37").Value = 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C38").Value = 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C39").Value = 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C40").Value = 0.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C41").Value = 0.01</t>
   </si>
   <si>
     <t xml:space="preserve">        ' Financing Structure</t>
   </si>
   <si>
-    <t xml:space="preserve">        .Range("C51").Value = 0.6            ' Debt Percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C52").Value = 0.045          ' Interest Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C53").Value = 15             ' Loan Term (years)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C54").Value = 0.1            ' Cost of Equity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C55").Value = 0.21           ' Tax Rate</t>
+    <t xml:space="preserve">        .Range("C43").Value = 0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C44").Value = 0.045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C45").Value = 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C46").Value = 0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C47").Value = 0.21</t>
   </si>
   <si>
     <t xml:space="preserve">        ' Benefits ($/kW-year and escalation)</t>
   </si>
   <si>
-    <t xml:space="preserve">        .Range("C59").Value = 150: .Range("D59").Value = 0.02   ' Resource Adequacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C60").Value = 40: .Range("D60").Value = 0.015   ' Energy Arbitrage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C61").Value = 15: .Range("D61").Value = 0.01    ' Ancillary Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C62").Value = 25: .Range("D62").Value = 0.02    ' T&amp;D Deferral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C63").Value = 50: .Range("D63").Value = 0.02    ' Resilience Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C64").Value = 25: .Range("D64").Value = 0.02    ' Renewable Integration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C65").Value = 15: .Range("D65").Value = 0.03    ' GHG Emissions Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C66").Value = 8: .Range("D66").Value = 0.01     ' Voltage Support</t>
+    <t xml:space="preserve">        .Range("C52").Value = 150: .Range("D52").Value = 0.02   ' Resource Adequacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C53").Value = 40: .Range("D53").Value = 0.015   ' Energy Arbitrage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C54").Value = 15: .Range("D54").Value = 0.01    ' Ancillary Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C55").Value = 25: .Range("D55").Value = 0.02    ' T&amp;D Deferral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C56").Value = 50: .Range("D56").Value = 0.02    ' Resilience Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C57").Value = 25: .Range("D57").Value = 0.02    ' Renewable Integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C58").Value = 15: .Range("D58").Value = 0.03    ' GHG Emissions Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C59").Value = 8: .Range("D59").Value = 0.01     ' Voltage Support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ' Learning Curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C61").Value = 0.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ' Bulk Discount (disabled by default)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C64").Value = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C65").Value = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ' Special Benefits - Reliability (disabled by default)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C68").Value = "No"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C69").Value = 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C70").Value = 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C71").Value = 0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ' Special Benefits - Safety (disabled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C74").Value = "No"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C75").Value = 0.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C76").Value = 500000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C77").Value = 0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ' Special Benefits - Speed-to-Serve (disabled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C80").Value = "No"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C81").Value = 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C82").Value = 5</t>
   </si>
   <si>
     <t xml:space="preserve">    End With</t>
@@ -1204,115 +1399,91 @@
     <t xml:space="preserve">        ' Technology</t>
   </si>
   <si>
-    <t xml:space="preserve">        .Range("C18").Value = "LFP"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C19").Value = 0.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C20").Value = 0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C21").Value = 6500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C22").Value = 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C23").Value = 1</t>
+    <t xml:space="preserve">        .Range("C20").Value = 0.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C21").Value = 0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C22").Value = 6500</t>
   </si>
   <si>
     <t xml:space="preserve">        ' Costs</t>
   </si>
   <si>
-    <t xml:space="preserve">        .Range("C28").Value = 145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C29").Value = 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C30").Value = 0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C31").Value = 50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C32").Value = 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C33").Value = 35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C34").Value = 0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C37").Value = 0.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C38").Value = 0</t>
+    <t xml:space="preserve">        .Range("C26").Value = 145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C27").Value = 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C28").Value = 0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C29").Value = 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C30").Value = 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C31").Value = 35</t>
   </si>
   <si>
     <t xml:space="preserve">        ' Infrastructure</t>
   </si>
   <si>
-    <t xml:space="preserve">        .Range("C43").Value = 90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C44").Value = 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C45").Value = 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C46").Value = 0.005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C47").Value = 0.01</t>
+    <t xml:space="preserve">        .Range("C37").Value = 90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C38").Value = 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C39").Value = 12</t>
   </si>
   <si>
     <t xml:space="preserve">        ' Financing</t>
   </si>
   <si>
-    <t xml:space="preserve">        .Range("C51").Value = 0.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C52").Value = 0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C53").Value = 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C54").Value = 0.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C55").Value = 0.21</t>
+    <t xml:space="preserve">        .Range("C43").Value = 0.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C44").Value = 0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C46").Value = 0.12</t>
   </si>
   <si>
     <t xml:space="preserve">        ' Benefits</t>
   </si>
   <si>
-    <t xml:space="preserve">        .Range("C59").Value = 140: .Range("D59").Value = 0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C60").Value = 45: .Range("D60").Value = 0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C61").Value = 12: .Range("D61").Value = 0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C62").Value = 20: .Range("D62").Value = 0.015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C63").Value = 45: .Range("D63").Value = 0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C64").Value = 20: .Range("D64").Value = 0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C65").Value = 12: .Range("D65").Value = 0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C66").Value = 6: .Range("D66").Value = 0.01</t>
+    <t xml:space="preserve">        .Range("C52").Value = 140: .Range("D52").Value = 0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C53").Value = 45: .Range("D53").Value = 0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C54").Value = 12: .Range("D54").Value = 0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C55").Value = 20: .Range("D55").Value = 0.015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C56").Value = 45: .Range("D56").Value = 0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C57").Value = 20: .Range("D57").Value = 0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C58").Value = 12: .Range("D58").Value = 0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C59").Value = 6: .Range("D59").Value = 0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C61").Value = 0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C70").Value = 8</t>
   </si>
   <si>
     <t xml:space="preserve">    MsgBox "Lazard LCOS 2025 assumptions loaded successfully.", vbInformation, "Library Loaded"</t>
@@ -1330,100 +1501,118 @@
     <t xml:space="preserve">        .Range("C6").Value = "CPUC California 2024"</t>
   </si>
   <si>
-    <t xml:space="preserve">        .Range("C19").Value = 0.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C20").Value = 0.025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C21").Value = 6000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C28").Value = 155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C29").Value = 26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C30").Value = 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C31").Value = 52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C32").Value = 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C33").Value = 25</t>
+    <t xml:space="preserve">        .Range("C26").Value = 155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C27").Value = 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C29").Value = 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C30").Value = 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C31").Value = 25</t>
   </si>
   <si>
     <t xml:space="preserve">        ' Tax Credits (includes Energy Community adder)</t>
   </si>
   <si>
-    <t xml:space="preserve">        .Range("C38").Value = 0.1            ' 10% Energy Community Adder</t>
+    <t xml:space="preserve">        .Range("C35").Value = 0.1            ' 10% Energy Community Adder</t>
   </si>
   <si>
     <t xml:space="preserve">        ' Infrastructure (California-specific higher costs)</t>
   </si>
   <si>
-    <t xml:space="preserve">        .Range("C43").Value = 120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C44").Value = 15</t>
+    <t xml:space="preserve">        .Range("C37").Value = 120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C38").Value = 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C39").Value = 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C41").Value = 0.0105   ' CA property tax rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ' Financing (IOU-style favorable terms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C43").Value = 0.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C44").Value = 0.04</t>
   </si>
   <si>
     <t xml:space="preserve">        .Range("C45").Value = 20</t>
   </si>
   <si>
-    <t xml:space="preserve">        .Range("C47").Value = 0.0105         ' CA property tax rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        ' Financing (IOU-style favorable terms)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C51").Value = 0.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C52").Value = 0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C53").Value = 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C54").Value = 0.095</t>
+    <t xml:space="preserve">        .Range("C46").Value = 0.095</t>
   </si>
   <si>
     <t xml:space="preserve">        ' Benefits (California premium values)</t>
   </si>
   <si>
-    <t xml:space="preserve">        .Range("C59").Value = 180: .Range("D59").Value = 0.025  ' RA premium in CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C60").Value = 35: .Range("D60").Value = 0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C61").Value = 10: .Range("D61").Value = 0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C62").Value = 25: .Range("D62").Value = 0.015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C63").Value = 60: .Range("D63").Value = 0.02   ' PSPS resilience value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C64").Value = 30: .Range("D64").Value = 0.025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C65").Value = 20: .Range("D65").Value = 0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        .Range("C66").Value = 10: .Range("D66").Value = 0.01</t>
+    <t xml:space="preserve">        .Range("C52").Value = 180: .Range("D52").Value = 0.025  ' RA premium in CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C53").Value = 35: .Range("D53").Value = 0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C54").Value = 10: .Range("D54").Value = 0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C55").Value = 25: .Range("D55").Value = 0.015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C56").Value = 60: .Range("D56").Value = 0.02   ' PSPS resilience value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C57").Value = 30: .Range("D57").Value = 0.025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C58").Value = 20: .Range("D58").Value = 0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C59").Value = 10: .Range("D59").Value = 0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C61").Value = 0.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ' Special Benefits - Reliability (ENABLED for California PSPS events)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C68").Value = "Yes"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C69").Value = 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C70").Value = 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C75").Value = 0.0005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C76").Value = 750000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C77").Value = 0.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        .Range("C82").Value = 6</t>
   </si>
   <si>
     <t xml:space="preserve">    MsgBox "CPUC California 2024 assumptions loaded." &amp; vbCrLf &amp; _</t>
   </si>
   <si>
-    <t xml:space="preserve">           "Note: Includes 10% ITC Energy Community Adder.", vbInformation, "Library Loaded"</t>
+    <t xml:space="preserve">           "Note: Includes 10% ITC Energy Community Adder." &amp; vbCrLf &amp; _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           "Reliability benefits enabled for PSPS events.", vbInformation, "Library Loaded"</t>
   </si>
   <si>
     <t>Sub GenerateReport()</t>
@@ -1510,19 +1699,19 @@
     <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "Project:"</t>
   </si>
   <si>
-    <t xml:space="preserve">    wsReport.Cells(row, 3).Value = wsInputs.Range("C7").Value</t>
+    <t xml:space="preserve">    wsReport.Cells(row, 3).Value = wsInputs.Range("C9").Value</t>
   </si>
   <si>
     <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "Location:"</t>
   </si>
   <si>
-    <t xml:space="preserve">    wsReport.Cells(row, 3).Value = wsInputs.Range("C9").Value</t>
+    <t xml:space="preserve">    wsReport.Cells(row, 3).Value = wsInputs.Range("C11").Value</t>
   </si>
   <si>
     <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "Capacity:"</t>
   </si>
   <si>
-    <t xml:space="preserve">    wsReport.Cells(row, 3).Value = wsInputs.Range("C10").Value &amp; " MW / " &amp; wsInputs.Range("C12").Value &amp; " MWh"</t>
+    <t xml:space="preserve">    wsReport.Cells(row, 3).Value = wsInputs.Range("C12").Value &amp; " MW / " &amp; wsInputs.Range("C14").Value &amp; " MWh"</t>
   </si>
   <si>
     <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "Assumptions:"</t>
@@ -1573,15 +1762,6 @@
     <t xml:space="preserve">    wsReport.Cells(row, 3).NumberFormat = "0.0 "" years"""</t>
   </si>
   <si>
-    <t xml:space="preserve">    wsReport.Cells(row, 2).Value = "LCOS:"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    wsReport.Cells(row, 3).Value = wsResults.Range("C15").Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    wsReport.Cells(row, 3).NumberFormat = "$#,##0 ""/MWh"""</t>
-  </si>
-  <si>
     <t xml:space="preserve">    ' Recommendation</t>
   </si>
   <si>
@@ -1762,6 +1942,141 @@
     <t>Displays information about the BESS Analyzer</t>
   </si>
   <si>
+    <t>CELL REFERENCE MAP (Inputs Sheet)</t>
+  </si>
+  <si>
+    <t>Selected Library</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>Analysis Period</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>C34</t>
+  </si>
+  <si>
+    <t>C35</t>
+  </si>
+  <si>
+    <t>Interconnection</t>
+  </si>
+  <si>
+    <t>C37</t>
+  </si>
+  <si>
+    <t>C43</t>
+  </si>
+  <si>
+    <t>Benefits Start Row</t>
+  </si>
+  <si>
+    <t>C52</t>
+  </si>
+  <si>
+    <t>Benefits End Row</t>
+  </si>
+  <si>
+    <t>C59</t>
+  </si>
+  <si>
+    <t>C61</t>
+  </si>
+  <si>
+    <t>Bulk Discount Rate</t>
+  </si>
+  <si>
+    <t>C64</t>
+  </si>
+  <si>
+    <t>Bulk Discount Threshold</t>
+  </si>
+  <si>
+    <t>C65</t>
+  </si>
+  <si>
+    <t>C68</t>
+  </si>
+  <si>
+    <t>Outage Hours</t>
+  </si>
+  <si>
+    <t>C69</t>
+  </si>
+  <si>
+    <t>C70</t>
+  </si>
+  <si>
+    <t>Backup Capacity %</t>
+  </si>
+  <si>
+    <t>C71</t>
+  </si>
+  <si>
+    <t>C74</t>
+  </si>
+  <si>
+    <t>C75</t>
+  </si>
+  <si>
+    <t>Incident Cost</t>
+  </si>
+  <si>
+    <t>C76</t>
+  </si>
+  <si>
+    <t>Risk Reduction</t>
+  </si>
+  <si>
+    <t>C77</t>
+  </si>
+  <si>
+    <t>Speed Enabled</t>
+  </si>
+  <si>
+    <t>C80</t>
+  </si>
+  <si>
+    <t>C81</t>
+  </si>
+  <si>
+    <t>Value per kW-Month</t>
+  </si>
+  <si>
+    <t>C82</t>
+  </si>
+  <si>
     <t>TROUBLESHOOTING</t>
   </si>
   <si>
@@ -1771,7 +2086,7 @@
     <t>• If macros are disabled: Go to File &gt; Options &gt; Trust Center &gt; Trust Center Settings &gt; Macro Settings</t>
   </si>
   <si>
-    <t>• If cell references are wrong: The VBA code uses specific cell addresses - check the Inputs sheet layout</t>
+    <t>• If cell references are wrong: Check the Cell Reference Map above</t>
   </si>
   <si>
     <t>• To edit macros: Press Alt+F11 to open VBA Editor, then modify the code in the Module</t>
@@ -2349,7 +2664,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:E70"/>
+  <dimension ref="B2:E84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2448,7 +2763,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="6">
-        <f>C10*C11</f>
+        <f>C12*C13</f>
         <v>0</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -2488,189 +2803,219 @@
         <v>23</v>
       </c>
     </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="B19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.85</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>0.85</v>
+        <v>0.025</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0.025</v>
+        <v>32</v>
+      </c>
+      <c r="C22" s="4">
+        <v>6000</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C23" s="4">
-        <v>6000</v>
+        <v>12</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C24" s="4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="4">
-        <v>1</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>37</v>
+      <c r="B25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="8">
+        <v>160</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="B27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="8">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C28" s="8">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C29" s="8">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C30" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C31" s="8">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="8">
-        <v>10</v>
+        <v>55</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.1</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="8">
-        <v>30</v>
-      </c>
-      <c r="D33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>54</v>
-      </c>
+      <c r="B33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.3</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2678,364 +3023,513 @@
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="7">
-        <v>0.3</v>
+        <v>64</v>
+      </c>
+      <c r="C37" s="8">
+        <v>100</v>
+      </c>
+      <c r="D37" t="s">
+        <v>51</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="7">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="C38" s="8">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>51</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="8">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="B40" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.005</v>
+      </c>
+      <c r="D40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" s="8">
-        <v>100</v>
+        <v>72</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.01</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="8">
-        <v>10</v>
-      </c>
-      <c r="D42" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="B42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" s="8">
-        <v>15</v>
-      </c>
-      <c r="D43" t="s">
-        <v>51</v>
+        <v>75</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0.6</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C44" s="7">
-        <v>0.005</v>
-      </c>
-      <c r="D44" t="s">
-        <v>56</v>
+        <v>0.05</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="D45" t="s">
-        <v>56</v>
+        <v>79</v>
+      </c>
+      <c r="C45" s="4">
+        <v>15</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>73</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="2:5">
-      <c r="B47" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="B47" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="48" spans="2:5">
       <c r="B48" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="7">
-        <v>0.6</v>
+        <v>85</v>
+      </c>
+      <c r="C48" s="6">
+        <f>(1-C43)*C46+C43*C44*(1-C47)</f>
+        <v>0</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5">
-      <c r="B49" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50" s="4">
+      <c r="B50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="8">
+        <v>150</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="8">
+        <v>40</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0.015</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="8">
         <v>15</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5">
-      <c r="B51" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5">
-      <c r="B52" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" s="7">
-        <v>0.21</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5">
-      <c r="B53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="6">
-        <f>(1-C48)*C51+C48*C49*(1-C52)</f>
-        <v>0</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>86</v>
+      <c r="D54" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="2:5">
-      <c r="B55" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="B55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="8">
+        <v>25</v>
+      </c>
+      <c r="D55" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="56" spans="2:5">
-      <c r="B56" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>91</v>
+      <c r="B56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="8">
+        <v>50</v>
+      </c>
+      <c r="D56" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="2:5">
       <c r="B57" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C57" s="8">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="D57" s="7">
         <v>0.02</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="2:5">
       <c r="B58" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C58" s="8">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D58" s="7">
-        <v>0.015</v>
+        <v>0.03</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C59" s="8">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D59" s="7">
         <v>0.01</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="2:5">
-      <c r="B60" t="s">
-        <v>98</v>
-      </c>
-      <c r="C60" s="8">
-        <v>25</v>
-      </c>
-      <c r="D60" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>99</v>
-      </c>
+      <c r="B60" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
     </row>
     <row r="61" spans="2:5">
-      <c r="B61" t="s">
-        <v>100</v>
-      </c>
-      <c r="C61" s="8">
-        <v>50</v>
-      </c>
-      <c r="D61" s="7">
-        <v>0.02</v>
+      <c r="B61" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="7">
+        <v>0.1</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="2:5">
-      <c r="B62" t="s">
-        <v>102</v>
-      </c>
-      <c r="C62" s="8">
-        <v>25</v>
-      </c>
-      <c r="D62" s="7">
-        <v>0.02</v>
+      <c r="B62" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="4">
+        <v>2024</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="2:5">
-      <c r="B63" t="s">
-        <v>104</v>
-      </c>
-      <c r="C63" s="8">
-        <v>15</v>
-      </c>
-      <c r="D63" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>105</v>
-      </c>
+      <c r="B63" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
     </row>
     <row r="64" spans="2:5">
-      <c r="B64" t="s">
-        <v>106</v>
-      </c>
-      <c r="C64" s="8">
-        <v>8</v>
-      </c>
-      <c r="D64" s="7">
-        <v>0.01</v>
+      <c r="B64" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" s="7">
+        <v>0</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5">
-      <c r="B66" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" s="4">
+        <v>0</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="67" spans="2:5">
-      <c r="B67" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C67" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>110</v>
-      </c>
+      <c r="B67" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
     </row>
     <row r="68" spans="2:5">
       <c r="B68" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C68" s="4">
-        <v>2024</v>
+        <v>119</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>112</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" s="4">
+        <v>4</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="2:5">
-      <c r="B70" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
+      <c r="B70" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" s="8">
+        <v>10</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" s="4">
+        <v>0.001</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C76" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="B77" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C77" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C81" s="4">
+        <v>24</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C82" s="8">
+        <v>5</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B33:E33"/>
     <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B84:E84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3059,7 +3553,7 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3067,7 +3561,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="2" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3075,10 +3569,10 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="3" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="C5" s="10">
-        <f>Inputs!C7</f>
+        <f>Inputs!C9</f>
         <v>0</v>
       </c>
     </row>
@@ -3087,22 +3581,22 @@
         <v>9</v>
       </c>
       <c r="C6" s="10">
-        <f>Inputs!C9</f>
+        <f>Inputs!C11</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="3" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="C7" s="10">
-        <f>Inputs!C10&amp;" MW / "&amp;Inputs!C12&amp;" MWh"</f>
+        <f>Inputs!C12&amp;" MW / "&amp;Inputs!C14&amp;" MWh"</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="3" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="C8" s="11">
         <f>Calculations!C9</f>
@@ -3111,7 +3605,7 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="2" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -3119,79 +3613,79 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="3" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="C11" s="12">
-        <f>Cash_Flows!W27/Cash_Flows!V27</f>
+        <f>Cash_Flows!X27/Cash_Flows!W27</f>
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="C12" s="11">
-        <f>Cash_Flows!W27-Cash_Flows!V27</f>
+        <f>Cash_Flows!X27-Cash_Flows!W27</f>
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="3" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="C13" s="13">
-        <f>IRR(Cash_Flows!T5:T25)</f>
+        <f>IRR(Cash_Flows!U5:U25)</f>
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="3" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="C14" s="14">
-        <f>MATCH(TRUE,INDEX(Cash_Flows!X5:X25&gt;0,0),0)-1</f>
+        <f>MATCH(TRUE,INDEX(Cash_Flows!Y5:Y25&gt;0,0),0)-1</f>
         <v>0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="3" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="C15" s="15">
-        <f>Cash_Flows!V27</f>
+        <f>Cash_Flows!W27</f>
         <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="3" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="C16" s="15">
-        <f>Cash_Flows!W27</f>
+        <f>Cash_Flows!X27</f>
         <v>0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="2" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -3208,7 +3702,7 @@
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="2" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -3216,19 +3710,19 @@
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="3" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="C22" s="11">
-        <f>Cash_Flows!V27/(Calculations!C13*NPV(Inputs!C14,Cash_Flows!U5:U25))</f>
+        <f>Cash_Flows!W27/(Calculations!C13*NPV(Inputs!C16,Cash_Flows!V5:V25))</f>
         <v>0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="2" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3236,14 +3730,14 @@
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="C25" s="11">
-        <f>(Cash_Flows!W27-(Cash_Flows!V27-Calculations!C11))/(Inputs!C12*1000)</f>
+        <f>(Cash_Flows!X27-(Cash_Flows!W27-Calculations!C11))/(Inputs!C14*1000)</f>
         <v>0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3274,7 +3768,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:X27"/>
+  <dimension ref="B2:Y27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3282,86 +3776,89 @@
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="19" width="14.7109375" customWidth="1"/>
+    <col min="3" max="25" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24">
+    <row r="2" spans="2:25">
       <c r="B2" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="2:24">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25">
       <c r="B4" s="9" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="2:24">
+        <v>167</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25">
       <c r="B5">
         <v>0</v>
       </c>
@@ -3370,81 +3867,100 @@
         <v>0</v>
       </c>
       <c r="D5" s="16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="E5" s="16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="F5" s="16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="G5" s="16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="H5" s="16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="I5" s="16">
-        <v>0</v>
-      </c>
-      <c r="J5" s="17">
-        <f>SUM(C5:I5)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="17">
+        <f>SUM(C5:J5)</f>
         <v>0</v>
       </c>
       <c r="L5" s="16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="M5" s="16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="N5" s="16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="O5" s="16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="P5" s="16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="Q5" s="16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="R5" s="16">
-        <v>0</v>
-      </c>
-      <c r="S5" s="17">
-        <f>SUM(K5:R5)</f>
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="T5" s="17">
-        <f>S5-J5</f>
-        <v>0</v>
-      </c>
-      <c r="U5" s="18">
-        <f>1/(1+Inputs!$C$14)^B5</f>
-        <v>0</v>
-      </c>
-      <c r="V5" s="16">
-        <f>J5*U5</f>
+        <f>SUM(L5:S5)</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="17">
+        <f>T5-K5</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="18">
+        <f>1/(1+Inputs!$C16)^B5</f>
         <v>0</v>
       </c>
       <c r="W5" s="16">
-        <f>S5*U5</f>
+        <f>K5*V5</f>
         <v>0</v>
       </c>
       <c r="X5" s="16">
-        <f>T5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:24">
+        <f>T5*V5</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="16">
+        <f>U5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25">
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D6" s="16">
@@ -3452,88 +3968,96 @@
         <v>0</v>
       </c>
       <c r="E6" s="16">
+        <f>Inputs!$C28*Calculations!$C$13</f>
         <v>0</v>
       </c>
       <c r="F6" s="16">
-        <f>Calculations!C9*Inputs!$C$40</f>
+        <f>Calculations!C14</f>
         <v>0</v>
       </c>
       <c r="G6" s="16">
-        <f>Calculations!$C$9*(1-1/Inputs!$C$13)*Inputs!$C$41</f>
+        <f>Calculations!C9*Inputs!$C40</f>
         <v>0</v>
       </c>
       <c r="H6" s="16">
+        <f>Calculations!$C$9*(1-1/Inputs!$C15)*Inputs!$C41</f>
         <v>0</v>
       </c>
       <c r="I6" s="16">
-        <v>0</v>
-      </c>
-      <c r="J6" s="17">
-        <f>SUM(C6:I6)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="16">
-        <f>Inputs!$C$45*Inputs!$C$10*1000*(1+Inputs!$D$45)^0*(1-Inputs!$C$20)^0</f>
+        <f>IF(B6=Inputs!$C23,Inputs!$C29*Calculations!C6*(1-Inputs!$C61)^B6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
+        <f>IF(B6=Inputs!$C15,Inputs!$C30*Calculations!C5-Calculations!C15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="17">
+        <f>SUM(C6:J6)</f>
         <v>0</v>
       </c>
       <c r="L6" s="16">
-        <f>Inputs!$C$46*Inputs!$C$10*1000*(1+Inputs!$D$46)^0*(1-Inputs!$C$20)^0</f>
+        <f>Inputs!$C$52*Inputs!$C12*1000*(1+Inputs!$D$52)^0*(1-Inputs!$C21)^0</f>
         <v>0</v>
       </c>
       <c r="M6" s="16">
-        <f>Inputs!$C$47*Inputs!$C$10*1000*(1+Inputs!$D$47)^0*(1-Inputs!$C$20)^0</f>
+        <f>Inputs!$C$53*Inputs!$C12*1000*(1+Inputs!$D$53)^0*(1-Inputs!$C21)^0</f>
         <v>0</v>
       </c>
       <c r="N6" s="16">
-        <f>Inputs!$C$48*Inputs!$C$10*1000*(1+Inputs!$D$48)^0*(1-Inputs!$C$20)^0</f>
+        <f>Inputs!$C$54*Inputs!$C12*1000*(1+Inputs!$D$54)^0*(1-Inputs!$C21)^0</f>
         <v>0</v>
       </c>
       <c r="O6" s="16">
-        <f>Inputs!$C$49*Inputs!$C$10*1000*(1+Inputs!$D$49)^0*(1-Inputs!$C$20)^0</f>
+        <f>Inputs!$C$55*Inputs!$C12*1000*(1+Inputs!$D$55)^0*(1-Inputs!$C21)^0</f>
         <v>0</v>
       </c>
       <c r="P6" s="16">
-        <f>Inputs!$C$50*Inputs!$C$10*1000*(1+Inputs!$D$50)^0</f>
+        <f>Inputs!$C$56*Inputs!$C12*1000*(1+Inputs!$D$56)^0*(1-Inputs!$C21)^0</f>
         <v>0</v>
       </c>
       <c r="Q6" s="16">
-        <f>Inputs!$C$51*Inputs!$C$10*1000*(1+Inputs!$D$51)^0</f>
+        <f>Inputs!$C$57*Inputs!$C12*1000*(1+Inputs!$D$57)^0*(1-Inputs!$C21)^0</f>
         <v>0</v>
       </c>
       <c r="R6" s="16">
-        <f>Inputs!$C$52*Inputs!$C$10*1000*(1+Inputs!$D$52)^0</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="17">
-        <f>SUM(K6:R6)</f>
+        <f>Inputs!$C$58*Inputs!$C12*1000*(1+Inputs!$D$58)^0*(1-Inputs!$C21)^0</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="16">
+        <f>Inputs!$C$59*Inputs!$C12*1000*(1+Inputs!$D$59)^0*(1-Inputs!$C21)^0</f>
         <v>0</v>
       </c>
       <c r="T6" s="17">
-        <f>S6-J6</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="18">
-        <f>1/(1+Inputs!$C$14)^B6</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="16">
-        <f>J6*U6</f>
+        <f>SUM(L6:S6)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="17">
+        <f>T6-K6</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="18">
+        <f>1/(1+Inputs!$C16)^B6</f>
         <v>0</v>
       </c>
       <c r="W6" s="16">
-        <f>S6*U6</f>
+        <f>K6*V6</f>
         <v>0</v>
       </c>
       <c r="X6" s="16">
-        <f>X5+T6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24">
+        <f>T6*V6</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="16">
+        <f>Y5+U6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25">
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" s="16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D7" s="16">
@@ -3541,88 +4065,96 @@
         <v>0</v>
       </c>
       <c r="E7" s="16">
+        <f>Inputs!$C28*Calculations!$C$13</f>
         <v>0</v>
       </c>
       <c r="F7" s="16">
-        <f>Calculations!C9*Inputs!$C$40</f>
+        <f>Calculations!C14</f>
         <v>0</v>
       </c>
       <c r="G7" s="16">
-        <f>Calculations!$C$9*(1-2/Inputs!$C$13)*Inputs!$C$41</f>
+        <f>Calculations!C9*Inputs!$C40</f>
         <v>0</v>
       </c>
       <c r="H7" s="16">
+        <f>Calculations!$C$9*(1-2/Inputs!$C15)*Inputs!$C41</f>
         <v>0</v>
       </c>
       <c r="I7" s="16">
-        <v>0</v>
-      </c>
-      <c r="J7" s="17">
-        <f>SUM(C7:I7)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="16">
-        <f>Inputs!$C$45*Inputs!$C$10*1000*(1+Inputs!$D$45)^1*(1-Inputs!$C$20)^1</f>
+        <f>IF(B7=Inputs!$C23,Inputs!$C29*Calculations!C6*(1-Inputs!$C61)^B7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
+        <f>IF(B7=Inputs!$C15,Inputs!$C30*Calculations!C5-Calculations!C15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="17">
+        <f>SUM(C7:J7)</f>
         <v>0</v>
       </c>
       <c r="L7" s="16">
-        <f>Inputs!$C$46*Inputs!$C$10*1000*(1+Inputs!$D$46)^1*(1-Inputs!$C$20)^1</f>
+        <f>Inputs!$C$52*Inputs!$C12*1000*(1+Inputs!$D$52)^1*(1-Inputs!$C21)^1</f>
         <v>0</v>
       </c>
       <c r="M7" s="16">
-        <f>Inputs!$C$47*Inputs!$C$10*1000*(1+Inputs!$D$47)^1*(1-Inputs!$C$20)^1</f>
+        <f>Inputs!$C$53*Inputs!$C12*1000*(1+Inputs!$D$53)^1*(1-Inputs!$C21)^1</f>
         <v>0</v>
       </c>
       <c r="N7" s="16">
-        <f>Inputs!$C$48*Inputs!$C$10*1000*(1+Inputs!$D$48)^1*(1-Inputs!$C$20)^1</f>
+        <f>Inputs!$C$54*Inputs!$C12*1000*(1+Inputs!$D$54)^1*(1-Inputs!$C21)^1</f>
         <v>0</v>
       </c>
       <c r="O7" s="16">
-        <f>Inputs!$C$49*Inputs!$C$10*1000*(1+Inputs!$D$49)^1*(1-Inputs!$C$20)^1</f>
+        <f>Inputs!$C$55*Inputs!$C12*1000*(1+Inputs!$D$55)^1*(1-Inputs!$C21)^1</f>
         <v>0</v>
       </c>
       <c r="P7" s="16">
-        <f>Inputs!$C$50*Inputs!$C$10*1000*(1+Inputs!$D$50)^1</f>
+        <f>Inputs!$C$56*Inputs!$C12*1000*(1+Inputs!$D$56)^1*(1-Inputs!$C21)^1</f>
         <v>0</v>
       </c>
       <c r="Q7" s="16">
-        <f>Inputs!$C$51*Inputs!$C$10*1000*(1+Inputs!$D$51)^1</f>
+        <f>Inputs!$C$57*Inputs!$C12*1000*(1+Inputs!$D$57)^1*(1-Inputs!$C21)^1</f>
         <v>0</v>
       </c>
       <c r="R7" s="16">
-        <f>Inputs!$C$52*Inputs!$C$10*1000*(1+Inputs!$D$52)^1</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="17">
-        <f>SUM(K7:R7)</f>
+        <f>Inputs!$C$58*Inputs!$C12*1000*(1+Inputs!$D$58)^1*(1-Inputs!$C21)^1</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="16">
+        <f>Inputs!$C$59*Inputs!$C12*1000*(1+Inputs!$D$59)^1*(1-Inputs!$C21)^1</f>
         <v>0</v>
       </c>
       <c r="T7" s="17">
-        <f>S7-J7</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="18">
-        <f>1/(1+Inputs!$C$14)^B7</f>
-        <v>0</v>
-      </c>
-      <c r="V7" s="16">
-        <f>J7*U7</f>
+        <f>SUM(L7:S7)</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="17">
+        <f>T7-K7</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="18">
+        <f>1/(1+Inputs!$C16)^B7</f>
         <v>0</v>
       </c>
       <c r="W7" s="16">
-        <f>S7*U7</f>
+        <f>K7*V7</f>
         <v>0</v>
       </c>
       <c r="X7" s="16">
-        <f>X6+T7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24">
+        <f>T7*V7</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="16">
+        <f>Y6+U7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25">
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" s="16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D8" s="16">
@@ -3630,88 +4162,96 @@
         <v>0</v>
       </c>
       <c r="E8" s="16">
+        <f>Inputs!$C28*Calculations!$C$13</f>
         <v>0</v>
       </c>
       <c r="F8" s="16">
-        <f>Calculations!C9*Inputs!$C$40</f>
+        <f>Calculations!C14</f>
         <v>0</v>
       </c>
       <c r="G8" s="16">
-        <f>Calculations!$C$9*(1-3/Inputs!$C$13)*Inputs!$C$41</f>
+        <f>Calculations!C9*Inputs!$C40</f>
         <v>0</v>
       </c>
       <c r="H8" s="16">
+        <f>Calculations!$C$9*(1-3/Inputs!$C15)*Inputs!$C41</f>
         <v>0</v>
       </c>
       <c r="I8" s="16">
-        <v>0</v>
-      </c>
-      <c r="J8" s="17">
-        <f>SUM(C8:I8)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="16">
-        <f>Inputs!$C$45*Inputs!$C$10*1000*(1+Inputs!$D$45)^2*(1-Inputs!$C$20)^2</f>
+        <f>IF(B8=Inputs!$C23,Inputs!$C29*Calculations!C6*(1-Inputs!$C61)^B8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
+        <f>IF(B8=Inputs!$C15,Inputs!$C30*Calculations!C5-Calculations!C15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="17">
+        <f>SUM(C8:J8)</f>
         <v>0</v>
       </c>
       <c r="L8" s="16">
-        <f>Inputs!$C$46*Inputs!$C$10*1000*(1+Inputs!$D$46)^2*(1-Inputs!$C$20)^2</f>
+        <f>Inputs!$C$52*Inputs!$C12*1000*(1+Inputs!$D$52)^2*(1-Inputs!$C21)^2</f>
         <v>0</v>
       </c>
       <c r="M8" s="16">
-        <f>Inputs!$C$47*Inputs!$C$10*1000*(1+Inputs!$D$47)^2*(1-Inputs!$C$20)^2</f>
+        <f>Inputs!$C$53*Inputs!$C12*1000*(1+Inputs!$D$53)^2*(1-Inputs!$C21)^2</f>
         <v>0</v>
       </c>
       <c r="N8" s="16">
-        <f>Inputs!$C$48*Inputs!$C$10*1000*(1+Inputs!$D$48)^2*(1-Inputs!$C$20)^2</f>
+        <f>Inputs!$C$54*Inputs!$C12*1000*(1+Inputs!$D$54)^2*(1-Inputs!$C21)^2</f>
         <v>0</v>
       </c>
       <c r="O8" s="16">
-        <f>Inputs!$C$49*Inputs!$C$10*1000*(1+Inputs!$D$49)^2*(1-Inputs!$C$20)^2</f>
+        <f>Inputs!$C$55*Inputs!$C12*1000*(1+Inputs!$D$55)^2*(1-Inputs!$C21)^2</f>
         <v>0</v>
       </c>
       <c r="P8" s="16">
-        <f>Inputs!$C$50*Inputs!$C$10*1000*(1+Inputs!$D$50)^2</f>
+        <f>Inputs!$C$56*Inputs!$C12*1000*(1+Inputs!$D$56)^2*(1-Inputs!$C21)^2</f>
         <v>0</v>
       </c>
       <c r="Q8" s="16">
-        <f>Inputs!$C$51*Inputs!$C$10*1000*(1+Inputs!$D$51)^2</f>
+        <f>Inputs!$C$57*Inputs!$C12*1000*(1+Inputs!$D$57)^2*(1-Inputs!$C21)^2</f>
         <v>0</v>
       </c>
       <c r="R8" s="16">
-        <f>Inputs!$C$52*Inputs!$C$10*1000*(1+Inputs!$D$52)^2</f>
-        <v>0</v>
-      </c>
-      <c r="S8" s="17">
-        <f>SUM(K8:R8)</f>
+        <f>Inputs!$C$58*Inputs!$C12*1000*(1+Inputs!$D$58)^2*(1-Inputs!$C21)^2</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="16">
+        <f>Inputs!$C$59*Inputs!$C12*1000*(1+Inputs!$D$59)^2*(1-Inputs!$C21)^2</f>
         <v>0</v>
       </c>
       <c r="T8" s="17">
-        <f>S8-J8</f>
-        <v>0</v>
-      </c>
-      <c r="U8" s="18">
-        <f>1/(1+Inputs!$C$14)^B8</f>
-        <v>0</v>
-      </c>
-      <c r="V8" s="16">
-        <f>J8*U8</f>
+        <f>SUM(L8:S8)</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="17">
+        <f>T8-K8</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="18">
+        <f>1/(1+Inputs!$C16)^B8</f>
         <v>0</v>
       </c>
       <c r="W8" s="16">
-        <f>S8*U8</f>
+        <f>K8*V8</f>
         <v>0</v>
       </c>
       <c r="X8" s="16">
-        <f>X7+T8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:24">
+        <f>T8*V8</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="16">
+        <f>Y7+U8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25">
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" s="16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D9" s="16">
@@ -3719,88 +4259,96 @@
         <v>0</v>
       </c>
       <c r="E9" s="16">
+        <f>Inputs!$C28*Calculations!$C$13</f>
         <v>0</v>
       </c>
       <c r="F9" s="16">
-        <f>Calculations!C9*Inputs!$C$40</f>
+        <f>Calculations!C14</f>
         <v>0</v>
       </c>
       <c r="G9" s="16">
-        <f>Calculations!$C$9*(1-4/Inputs!$C$13)*Inputs!$C$41</f>
+        <f>Calculations!C9*Inputs!$C40</f>
         <v>0</v>
       </c>
       <c r="H9" s="16">
+        <f>Calculations!$C$9*(1-4/Inputs!$C15)*Inputs!$C41</f>
         <v>0</v>
       </c>
       <c r="I9" s="16">
-        <v>0</v>
-      </c>
-      <c r="J9" s="17">
-        <f>SUM(C9:I9)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="16">
-        <f>Inputs!$C$45*Inputs!$C$10*1000*(1+Inputs!$D$45)^3*(1-Inputs!$C$20)^3</f>
+        <f>IF(B9=Inputs!$C23,Inputs!$C29*Calculations!C6*(1-Inputs!$C61)^B9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="16">
+        <f>IF(B9=Inputs!$C15,Inputs!$C30*Calculations!C5-Calculations!C15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="17">
+        <f>SUM(C9:J9)</f>
         <v>0</v>
       </c>
       <c r="L9" s="16">
-        <f>Inputs!$C$46*Inputs!$C$10*1000*(1+Inputs!$D$46)^3*(1-Inputs!$C$20)^3</f>
+        <f>Inputs!$C$52*Inputs!$C12*1000*(1+Inputs!$D$52)^3*(1-Inputs!$C21)^3</f>
         <v>0</v>
       </c>
       <c r="M9" s="16">
-        <f>Inputs!$C$47*Inputs!$C$10*1000*(1+Inputs!$D$47)^3*(1-Inputs!$C$20)^3</f>
+        <f>Inputs!$C$53*Inputs!$C12*1000*(1+Inputs!$D$53)^3*(1-Inputs!$C21)^3</f>
         <v>0</v>
       </c>
       <c r="N9" s="16">
-        <f>Inputs!$C$48*Inputs!$C$10*1000*(1+Inputs!$D$48)^3*(1-Inputs!$C$20)^3</f>
+        <f>Inputs!$C$54*Inputs!$C12*1000*(1+Inputs!$D$54)^3*(1-Inputs!$C21)^3</f>
         <v>0</v>
       </c>
       <c r="O9" s="16">
-        <f>Inputs!$C$49*Inputs!$C$10*1000*(1+Inputs!$D$49)^3*(1-Inputs!$C$20)^3</f>
+        <f>Inputs!$C$55*Inputs!$C12*1000*(1+Inputs!$D$55)^3*(1-Inputs!$C21)^3</f>
         <v>0</v>
       </c>
       <c r="P9" s="16">
-        <f>Inputs!$C$50*Inputs!$C$10*1000*(1+Inputs!$D$50)^3</f>
+        <f>Inputs!$C$56*Inputs!$C12*1000*(1+Inputs!$D$56)^3*(1-Inputs!$C21)^3</f>
         <v>0</v>
       </c>
       <c r="Q9" s="16">
-        <f>Inputs!$C$51*Inputs!$C$10*1000*(1+Inputs!$D$51)^3</f>
+        <f>Inputs!$C$57*Inputs!$C12*1000*(1+Inputs!$D$57)^3*(1-Inputs!$C21)^3</f>
         <v>0</v>
       </c>
       <c r="R9" s="16">
-        <f>Inputs!$C$52*Inputs!$C$10*1000*(1+Inputs!$D$52)^3</f>
-        <v>0</v>
-      </c>
-      <c r="S9" s="17">
-        <f>SUM(K9:R9)</f>
+        <f>Inputs!$C$58*Inputs!$C12*1000*(1+Inputs!$D$58)^3*(1-Inputs!$C21)^3</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="16">
+        <f>Inputs!$C$59*Inputs!$C12*1000*(1+Inputs!$D$59)^3*(1-Inputs!$C21)^3</f>
         <v>0</v>
       </c>
       <c r="T9" s="17">
-        <f>S9-J9</f>
-        <v>0</v>
-      </c>
-      <c r="U9" s="18">
-        <f>1/(1+Inputs!$C$14)^B9</f>
-        <v>0</v>
-      </c>
-      <c r="V9" s="16">
-        <f>J9*U9</f>
+        <f>SUM(L9:S9)</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="17">
+        <f>T9-K9</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="18">
+        <f>1/(1+Inputs!$C16)^B9</f>
         <v>0</v>
       </c>
       <c r="W9" s="16">
-        <f>S9*U9</f>
+        <f>K9*V9</f>
         <v>0</v>
       </c>
       <c r="X9" s="16">
-        <f>X8+T9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24">
+        <f>T9*V9</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="16">
+        <f>Y8+U9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25">
       <c r="B10">
         <v>5</v>
       </c>
       <c r="C10" s="16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D10" s="16">
@@ -3808,88 +4356,96 @@
         <v>0</v>
       </c>
       <c r="E10" s="16">
+        <f>Inputs!$C28*Calculations!$C$13</f>
         <v>0</v>
       </c>
       <c r="F10" s="16">
-        <f>Calculations!C9*Inputs!$C$40</f>
+        <f>Calculations!C14</f>
         <v>0</v>
       </c>
       <c r="G10" s="16">
-        <f>Calculations!$C$9*(1-5/Inputs!$C$13)*Inputs!$C$41</f>
+        <f>Calculations!C9*Inputs!$C40</f>
         <v>0</v>
       </c>
       <c r="H10" s="16">
+        <f>Calculations!$C$9*(1-5/Inputs!$C15)*Inputs!$C41</f>
         <v>0</v>
       </c>
       <c r="I10" s="16">
-        <v>0</v>
-      </c>
-      <c r="J10" s="17">
-        <f>SUM(C10:I10)</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="16">
-        <f>Inputs!$C$45*Inputs!$C$10*1000*(1+Inputs!$D$45)^4*(1-Inputs!$C$20)^4</f>
+        <f>IF(B10=Inputs!$C23,Inputs!$C29*Calculations!C6*(1-Inputs!$C61)^B10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="16">
+        <f>IF(B10=Inputs!$C15,Inputs!$C30*Calculations!C5-Calculations!C15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="17">
+        <f>SUM(C10:J10)</f>
         <v>0</v>
       </c>
       <c r="L10" s="16">
-        <f>Inputs!$C$46*Inputs!$C$10*1000*(1+Inputs!$D$46)^4*(1-Inputs!$C$20)^4</f>
+        <f>Inputs!$C$52*Inputs!$C12*1000*(1+Inputs!$D$52)^4*(1-Inputs!$C21)^4</f>
         <v>0</v>
       </c>
       <c r="M10" s="16">
-        <f>Inputs!$C$47*Inputs!$C$10*1000*(1+Inputs!$D$47)^4*(1-Inputs!$C$20)^4</f>
+        <f>Inputs!$C$53*Inputs!$C12*1000*(1+Inputs!$D$53)^4*(1-Inputs!$C21)^4</f>
         <v>0</v>
       </c>
       <c r="N10" s="16">
-        <f>Inputs!$C$48*Inputs!$C$10*1000*(1+Inputs!$D$48)^4*(1-Inputs!$C$20)^4</f>
+        <f>Inputs!$C$54*Inputs!$C12*1000*(1+Inputs!$D$54)^4*(1-Inputs!$C21)^4</f>
         <v>0</v>
       </c>
       <c r="O10" s="16">
-        <f>Inputs!$C$49*Inputs!$C$10*1000*(1+Inputs!$D$49)^4*(1-Inputs!$C$20)^4</f>
+        <f>Inputs!$C$55*Inputs!$C12*1000*(1+Inputs!$D$55)^4*(1-Inputs!$C21)^4</f>
         <v>0</v>
       </c>
       <c r="P10" s="16">
-        <f>Inputs!$C$50*Inputs!$C$10*1000*(1+Inputs!$D$50)^4</f>
+        <f>Inputs!$C$56*Inputs!$C12*1000*(1+Inputs!$D$56)^4*(1-Inputs!$C21)^4</f>
         <v>0</v>
       </c>
       <c r="Q10" s="16">
-        <f>Inputs!$C$51*Inputs!$C$10*1000*(1+Inputs!$D$51)^4</f>
+        <f>Inputs!$C$57*Inputs!$C12*1000*(1+Inputs!$D$57)^4*(1-Inputs!$C21)^4</f>
         <v>0</v>
       </c>
       <c r="R10" s="16">
-        <f>Inputs!$C$52*Inputs!$C$10*1000*(1+Inputs!$D$52)^4</f>
-        <v>0</v>
-      </c>
-      <c r="S10" s="17">
-        <f>SUM(K10:R10)</f>
+        <f>Inputs!$C$58*Inputs!$C12*1000*(1+Inputs!$D$58)^4*(1-Inputs!$C21)^4</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="16">
+        <f>Inputs!$C$59*Inputs!$C12*1000*(1+Inputs!$D$59)^4*(1-Inputs!$C21)^4</f>
         <v>0</v>
       </c>
       <c r="T10" s="17">
-        <f>S10-J10</f>
-        <v>0</v>
-      </c>
-      <c r="U10" s="18">
-        <f>1/(1+Inputs!$C$14)^B10</f>
-        <v>0</v>
-      </c>
-      <c r="V10" s="16">
-        <f>J10*U10</f>
+        <f>SUM(L10:S10)</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="17">
+        <f>T10-K10</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="18">
+        <f>1/(1+Inputs!$C16)^B10</f>
         <v>0</v>
       </c>
       <c r="W10" s="16">
-        <f>S10*U10</f>
+        <f>K10*V10</f>
         <v>0</v>
       </c>
       <c r="X10" s="16">
-        <f>X9+T10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:24">
+        <f>T10*V10</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="16">
+        <f>Y9+U10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25">
       <c r="B11">
         <v>6</v>
       </c>
       <c r="C11" s="16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D11" s="16">
@@ -3897,88 +4453,96 @@
         <v>0</v>
       </c>
       <c r="E11" s="16">
+        <f>Inputs!$C28*Calculations!$C$13</f>
         <v>0</v>
       </c>
       <c r="F11" s="16">
-        <f>Calculations!C9*Inputs!$C$40</f>
+        <f>Calculations!C14</f>
         <v>0</v>
       </c>
       <c r="G11" s="16">
-        <f>Calculations!$C$9*(1-6/Inputs!$C$13)*Inputs!$C$41</f>
+        <f>Calculations!C9*Inputs!$C40</f>
         <v>0</v>
       </c>
       <c r="H11" s="16">
+        <f>Calculations!$C$9*(1-6/Inputs!$C15)*Inputs!$C41</f>
         <v>0</v>
       </c>
       <c r="I11" s="16">
-        <v>0</v>
-      </c>
-      <c r="J11" s="17">
-        <f>SUM(C11:I11)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="16">
-        <f>Inputs!$C$45*Inputs!$C$10*1000*(1+Inputs!$D$45)^5*(1-Inputs!$C$20)^5</f>
+        <f>IF(B11=Inputs!$C23,Inputs!$C29*Calculations!C6*(1-Inputs!$C61)^B11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="16">
+        <f>IF(B11=Inputs!$C15,Inputs!$C30*Calculations!C5-Calculations!C15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="17">
+        <f>SUM(C11:J11)</f>
         <v>0</v>
       </c>
       <c r="L11" s="16">
-        <f>Inputs!$C$46*Inputs!$C$10*1000*(1+Inputs!$D$46)^5*(1-Inputs!$C$20)^5</f>
+        <f>Inputs!$C$52*Inputs!$C12*1000*(1+Inputs!$D$52)^5*(1-Inputs!$C21)^5</f>
         <v>0</v>
       </c>
       <c r="M11" s="16">
-        <f>Inputs!$C$47*Inputs!$C$10*1000*(1+Inputs!$D$47)^5*(1-Inputs!$C$20)^5</f>
+        <f>Inputs!$C$53*Inputs!$C12*1000*(1+Inputs!$D$53)^5*(1-Inputs!$C21)^5</f>
         <v>0</v>
       </c>
       <c r="N11" s="16">
-        <f>Inputs!$C$48*Inputs!$C$10*1000*(1+Inputs!$D$48)^5*(1-Inputs!$C$20)^5</f>
+        <f>Inputs!$C$54*Inputs!$C12*1000*(1+Inputs!$D$54)^5*(1-Inputs!$C21)^5</f>
         <v>0</v>
       </c>
       <c r="O11" s="16">
-        <f>Inputs!$C$49*Inputs!$C$10*1000*(1+Inputs!$D$49)^5*(1-Inputs!$C$20)^5</f>
+        <f>Inputs!$C$55*Inputs!$C12*1000*(1+Inputs!$D$55)^5*(1-Inputs!$C21)^5</f>
         <v>0</v>
       </c>
       <c r="P11" s="16">
-        <f>Inputs!$C$50*Inputs!$C$10*1000*(1+Inputs!$D$50)^5</f>
+        <f>Inputs!$C$56*Inputs!$C12*1000*(1+Inputs!$D$56)^5*(1-Inputs!$C21)^5</f>
         <v>0</v>
       </c>
       <c r="Q11" s="16">
-        <f>Inputs!$C$51*Inputs!$C$10*1000*(1+Inputs!$D$51)^5</f>
+        <f>Inputs!$C$57*Inputs!$C12*1000*(1+Inputs!$D$57)^5*(1-Inputs!$C21)^5</f>
         <v>0</v>
       </c>
       <c r="R11" s="16">
-        <f>Inputs!$C$52*Inputs!$C$10*1000*(1+Inputs!$D$52)^5</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="17">
-        <f>SUM(K11:R11)</f>
+        <f>Inputs!$C$58*Inputs!$C12*1000*(1+Inputs!$D$58)^5*(1-Inputs!$C21)^5</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="16">
+        <f>Inputs!$C$59*Inputs!$C12*1000*(1+Inputs!$D$59)^5*(1-Inputs!$C21)^5</f>
         <v>0</v>
       </c>
       <c r="T11" s="17">
-        <f>S11-J11</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="18">
-        <f>1/(1+Inputs!$C$14)^B11</f>
-        <v>0</v>
-      </c>
-      <c r="V11" s="16">
-        <f>J11*U11</f>
+        <f>SUM(L11:S11)</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="17">
+        <f>T11-K11</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="18">
+        <f>1/(1+Inputs!$C16)^B11</f>
         <v>0</v>
       </c>
       <c r="W11" s="16">
-        <f>S11*U11</f>
+        <f>K11*V11</f>
         <v>0</v>
       </c>
       <c r="X11" s="16">
-        <f>X10+T11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:24">
+        <f>T11*V11</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="16">
+        <f>Y10+U11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25">
       <c r="B12">
         <v>7</v>
       </c>
       <c r="C12" s="16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D12" s="16">
@@ -3986,88 +4550,96 @@
         <v>0</v>
       </c>
       <c r="E12" s="16">
+        <f>Inputs!$C28*Calculations!$C$13</f>
         <v>0</v>
       </c>
       <c r="F12" s="16">
-        <f>Calculations!C9*Inputs!$C$40</f>
+        <f>Calculations!C14</f>
         <v>0</v>
       </c>
       <c r="G12" s="16">
-        <f>Calculations!$C$9*(1-7/Inputs!$C$13)*Inputs!$C$41</f>
+        <f>Calculations!C9*Inputs!$C40</f>
         <v>0</v>
       </c>
       <c r="H12" s="16">
+        <f>Calculations!$C$9*(1-7/Inputs!$C15)*Inputs!$C41</f>
         <v>0</v>
       </c>
       <c r="I12" s="16">
-        <v>0</v>
-      </c>
-      <c r="J12" s="17">
-        <f>SUM(C12:I12)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="16">
-        <f>Inputs!$C$45*Inputs!$C$10*1000*(1+Inputs!$D$45)^6*(1-Inputs!$C$20)^6</f>
+        <f>IF(B12=Inputs!$C23,Inputs!$C29*Calculations!C6*(1-Inputs!$C61)^B12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="16">
+        <f>IF(B12=Inputs!$C15,Inputs!$C30*Calculations!C5-Calculations!C15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="17">
+        <f>SUM(C12:J12)</f>
         <v>0</v>
       </c>
       <c r="L12" s="16">
-        <f>Inputs!$C$46*Inputs!$C$10*1000*(1+Inputs!$D$46)^6*(1-Inputs!$C$20)^6</f>
+        <f>Inputs!$C$52*Inputs!$C12*1000*(1+Inputs!$D$52)^6*(1-Inputs!$C21)^6</f>
         <v>0</v>
       </c>
       <c r="M12" s="16">
-        <f>Inputs!$C$47*Inputs!$C$10*1000*(1+Inputs!$D$47)^6*(1-Inputs!$C$20)^6</f>
+        <f>Inputs!$C$53*Inputs!$C12*1000*(1+Inputs!$D$53)^6*(1-Inputs!$C21)^6</f>
         <v>0</v>
       </c>
       <c r="N12" s="16">
-        <f>Inputs!$C$48*Inputs!$C$10*1000*(1+Inputs!$D$48)^6*(1-Inputs!$C$20)^6</f>
+        <f>Inputs!$C$54*Inputs!$C12*1000*(1+Inputs!$D$54)^6*(1-Inputs!$C21)^6</f>
         <v>0</v>
       </c>
       <c r="O12" s="16">
-        <f>Inputs!$C$49*Inputs!$C$10*1000*(1+Inputs!$D$49)^6*(1-Inputs!$C$20)^6</f>
+        <f>Inputs!$C$55*Inputs!$C12*1000*(1+Inputs!$D$55)^6*(1-Inputs!$C21)^6</f>
         <v>0</v>
       </c>
       <c r="P12" s="16">
-        <f>Inputs!$C$50*Inputs!$C$10*1000*(1+Inputs!$D$50)^6</f>
+        <f>Inputs!$C$56*Inputs!$C12*1000*(1+Inputs!$D$56)^6*(1-Inputs!$C21)^6</f>
         <v>0</v>
       </c>
       <c r="Q12" s="16">
-        <f>Inputs!$C$51*Inputs!$C$10*1000*(1+Inputs!$D$51)^6</f>
+        <f>Inputs!$C$57*Inputs!$C12*1000*(1+Inputs!$D$57)^6*(1-Inputs!$C21)^6</f>
         <v>0</v>
       </c>
       <c r="R12" s="16">
-        <f>Inputs!$C$52*Inputs!$C$10*1000*(1+Inputs!$D$52)^6</f>
-        <v>0</v>
-      </c>
-      <c r="S12" s="17">
-        <f>SUM(K12:R12)</f>
+        <f>Inputs!$C$58*Inputs!$C12*1000*(1+Inputs!$D$58)^6*(1-Inputs!$C21)^6</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="16">
+        <f>Inputs!$C$59*Inputs!$C12*1000*(1+Inputs!$D$59)^6*(1-Inputs!$C21)^6</f>
         <v>0</v>
       </c>
       <c r="T12" s="17">
-        <f>S12-J12</f>
-        <v>0</v>
-      </c>
-      <c r="U12" s="18">
-        <f>1/(1+Inputs!$C$14)^B12</f>
-        <v>0</v>
-      </c>
-      <c r="V12" s="16">
-        <f>J12*U12</f>
+        <f>SUM(L12:S12)</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="17">
+        <f>T12-K12</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="18">
+        <f>1/(1+Inputs!$C16)^B12</f>
         <v>0</v>
       </c>
       <c r="W12" s="16">
-        <f>S12*U12</f>
+        <f>K12*V12</f>
         <v>0</v>
       </c>
       <c r="X12" s="16">
-        <f>X11+T12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24">
+        <f>T12*V12</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="16">
+        <f>Y11+U12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25">
       <c r="B13">
         <v>8</v>
       </c>
       <c r="C13" s="16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D13" s="16">
@@ -4075,88 +4647,96 @@
         <v>0</v>
       </c>
       <c r="E13" s="16">
+        <f>Inputs!$C28*Calculations!$C$13</f>
         <v>0</v>
       </c>
       <c r="F13" s="16">
-        <f>Calculations!C9*Inputs!$C$40</f>
+        <f>Calculations!C14</f>
         <v>0</v>
       </c>
       <c r="G13" s="16">
-        <f>Calculations!$C$9*(1-8/Inputs!$C$13)*Inputs!$C$41</f>
+        <f>Calculations!C9*Inputs!$C40</f>
         <v>0</v>
       </c>
       <c r="H13" s="16">
+        <f>Calculations!$C$9*(1-8/Inputs!$C15)*Inputs!$C41</f>
         <v>0</v>
       </c>
       <c r="I13" s="16">
-        <v>0</v>
-      </c>
-      <c r="J13" s="17">
-        <f>SUM(C13:I13)</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="16">
-        <f>Inputs!$C$45*Inputs!$C$10*1000*(1+Inputs!$D$45)^7*(1-Inputs!$C$20)^7</f>
+        <f>IF(B13=Inputs!$C23,Inputs!$C29*Calculations!C6*(1-Inputs!$C61)^B13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="16">
+        <f>IF(B13=Inputs!$C15,Inputs!$C30*Calculations!C5-Calculations!C15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="17">
+        <f>SUM(C13:J13)</f>
         <v>0</v>
       </c>
       <c r="L13" s="16">
-        <f>Inputs!$C$46*Inputs!$C$10*1000*(1+Inputs!$D$46)^7*(1-Inputs!$C$20)^7</f>
+        <f>Inputs!$C$52*Inputs!$C12*1000*(1+Inputs!$D$52)^7*(1-Inputs!$C21)^7</f>
         <v>0</v>
       </c>
       <c r="M13" s="16">
-        <f>Inputs!$C$47*Inputs!$C$10*1000*(1+Inputs!$D$47)^7*(1-Inputs!$C$20)^7</f>
+        <f>Inputs!$C$53*Inputs!$C12*1000*(1+Inputs!$D$53)^7*(1-Inputs!$C21)^7</f>
         <v>0</v>
       </c>
       <c r="N13" s="16">
-        <f>Inputs!$C$48*Inputs!$C$10*1000*(1+Inputs!$D$48)^7*(1-Inputs!$C$20)^7</f>
+        <f>Inputs!$C$54*Inputs!$C12*1000*(1+Inputs!$D$54)^7*(1-Inputs!$C21)^7</f>
         <v>0</v>
       </c>
       <c r="O13" s="16">
-        <f>Inputs!$C$49*Inputs!$C$10*1000*(1+Inputs!$D$49)^7*(1-Inputs!$C$20)^7</f>
+        <f>Inputs!$C$55*Inputs!$C12*1000*(1+Inputs!$D$55)^7*(1-Inputs!$C21)^7</f>
         <v>0</v>
       </c>
       <c r="P13" s="16">
-        <f>Inputs!$C$50*Inputs!$C$10*1000*(1+Inputs!$D$50)^7</f>
+        <f>Inputs!$C$56*Inputs!$C12*1000*(1+Inputs!$D$56)^7*(1-Inputs!$C21)^7</f>
         <v>0</v>
       </c>
       <c r="Q13" s="16">
-        <f>Inputs!$C$51*Inputs!$C$10*1000*(1+Inputs!$D$51)^7</f>
+        <f>Inputs!$C$57*Inputs!$C12*1000*(1+Inputs!$D$57)^7*(1-Inputs!$C21)^7</f>
         <v>0</v>
       </c>
       <c r="R13" s="16">
-        <f>Inputs!$C$52*Inputs!$C$10*1000*(1+Inputs!$D$52)^7</f>
-        <v>0</v>
-      </c>
-      <c r="S13" s="17">
-        <f>SUM(K13:R13)</f>
+        <f>Inputs!$C$58*Inputs!$C12*1000*(1+Inputs!$D$58)^7*(1-Inputs!$C21)^7</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="16">
+        <f>Inputs!$C$59*Inputs!$C12*1000*(1+Inputs!$D$59)^7*(1-Inputs!$C21)^7</f>
         <v>0</v>
       </c>
       <c r="T13" s="17">
-        <f>S13-J13</f>
-        <v>0</v>
-      </c>
-      <c r="U13" s="18">
-        <f>1/(1+Inputs!$C$14)^B13</f>
-        <v>0</v>
-      </c>
-      <c r="V13" s="16">
-        <f>J13*U13</f>
+        <f>SUM(L13:S13)</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="17">
+        <f>T13-K13</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="18">
+        <f>1/(1+Inputs!$C16)^B13</f>
         <v>0</v>
       </c>
       <c r="W13" s="16">
-        <f>S13*U13</f>
+        <f>K13*V13</f>
         <v>0</v>
       </c>
       <c r="X13" s="16">
-        <f>X12+T13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24">
+        <f>T13*V13</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="16">
+        <f>Y12+U13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25">
       <c r="B14">
         <v>9</v>
       </c>
       <c r="C14" s="16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D14" s="16">
@@ -4164,88 +4744,96 @@
         <v>0</v>
       </c>
       <c r="E14" s="16">
+        <f>Inputs!$C28*Calculations!$C$13</f>
         <v>0</v>
       </c>
       <c r="F14" s="16">
-        <f>Calculations!C9*Inputs!$C$40</f>
+        <f>Calculations!C14</f>
         <v>0</v>
       </c>
       <c r="G14" s="16">
-        <f>Calculations!$C$9*(1-9/Inputs!$C$13)*Inputs!$C$41</f>
+        <f>Calculations!C9*Inputs!$C40</f>
         <v>0</v>
       </c>
       <c r="H14" s="16">
+        <f>Calculations!$C$9*(1-9/Inputs!$C15)*Inputs!$C41</f>
         <v>0</v>
       </c>
       <c r="I14" s="16">
-        <v>0</v>
-      </c>
-      <c r="J14" s="17">
-        <f>SUM(C14:I14)</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="16">
-        <f>Inputs!$C$45*Inputs!$C$10*1000*(1+Inputs!$D$45)^8*(1-Inputs!$C$20)^8</f>
+        <f>IF(B14=Inputs!$C23,Inputs!$C29*Calculations!C6*(1-Inputs!$C61)^B14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="16">
+        <f>IF(B14=Inputs!$C15,Inputs!$C30*Calculations!C5-Calculations!C15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="17">
+        <f>SUM(C14:J14)</f>
         <v>0</v>
       </c>
       <c r="L14" s="16">
-        <f>Inputs!$C$46*Inputs!$C$10*1000*(1+Inputs!$D$46)^8*(1-Inputs!$C$20)^8</f>
+        <f>Inputs!$C$52*Inputs!$C12*1000*(1+Inputs!$D$52)^8*(1-Inputs!$C21)^8</f>
         <v>0</v>
       </c>
       <c r="M14" s="16">
-        <f>Inputs!$C$47*Inputs!$C$10*1000*(1+Inputs!$D$47)^8*(1-Inputs!$C$20)^8</f>
+        <f>Inputs!$C$53*Inputs!$C12*1000*(1+Inputs!$D$53)^8*(1-Inputs!$C21)^8</f>
         <v>0</v>
       </c>
       <c r="N14" s="16">
-        <f>Inputs!$C$48*Inputs!$C$10*1000*(1+Inputs!$D$48)^8*(1-Inputs!$C$20)^8</f>
+        <f>Inputs!$C$54*Inputs!$C12*1000*(1+Inputs!$D$54)^8*(1-Inputs!$C21)^8</f>
         <v>0</v>
       </c>
       <c r="O14" s="16">
-        <f>Inputs!$C$49*Inputs!$C$10*1000*(1+Inputs!$D$49)^8*(1-Inputs!$C$20)^8</f>
+        <f>Inputs!$C$55*Inputs!$C12*1000*(1+Inputs!$D$55)^8*(1-Inputs!$C21)^8</f>
         <v>0</v>
       </c>
       <c r="P14" s="16">
-        <f>Inputs!$C$50*Inputs!$C$10*1000*(1+Inputs!$D$50)^8</f>
+        <f>Inputs!$C$56*Inputs!$C12*1000*(1+Inputs!$D$56)^8*(1-Inputs!$C21)^8</f>
         <v>0</v>
       </c>
       <c r="Q14" s="16">
-        <f>Inputs!$C$51*Inputs!$C$10*1000*(1+Inputs!$D$51)^8</f>
+        <f>Inputs!$C$57*Inputs!$C12*1000*(1+Inputs!$D$57)^8*(1-Inputs!$C21)^8</f>
         <v>0</v>
       </c>
       <c r="R14" s="16">
-        <f>Inputs!$C$52*Inputs!$C$10*1000*(1+Inputs!$D$52)^8</f>
-        <v>0</v>
-      </c>
-      <c r="S14" s="17">
-        <f>SUM(K14:R14)</f>
+        <f>Inputs!$C$58*Inputs!$C12*1000*(1+Inputs!$D$58)^8*(1-Inputs!$C21)^8</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="16">
+        <f>Inputs!$C$59*Inputs!$C12*1000*(1+Inputs!$D$59)^8*(1-Inputs!$C21)^8</f>
         <v>0</v>
       </c>
       <c r="T14" s="17">
-        <f>S14-J14</f>
-        <v>0</v>
-      </c>
-      <c r="U14" s="18">
-        <f>1/(1+Inputs!$C$14)^B14</f>
-        <v>0</v>
-      </c>
-      <c r="V14" s="16">
-        <f>J14*U14</f>
+        <f>SUM(L14:S14)</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="17">
+        <f>T14-K14</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="18">
+        <f>1/(1+Inputs!$C16)^B14</f>
         <v>0</v>
       </c>
       <c r="W14" s="16">
-        <f>S14*U14</f>
+        <f>K14*V14</f>
         <v>0</v>
       </c>
       <c r="X14" s="16">
-        <f>X13+T14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:24">
+        <f>T14*V14</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="16">
+        <f>Y13+U14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25">
       <c r="B15">
         <v>10</v>
       </c>
       <c r="C15" s="16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D15" s="16">
@@ -4253,88 +4841,96 @@
         <v>0</v>
       </c>
       <c r="E15" s="16">
+        <f>Inputs!$C28*Calculations!$C$13</f>
         <v>0</v>
       </c>
       <c r="F15" s="16">
-        <f>Calculations!C9*Inputs!$C$40</f>
+        <f>Calculations!C14</f>
         <v>0</v>
       </c>
       <c r="G15" s="16">
-        <f>Calculations!$C$9*(1-10/Inputs!$C$13)*Inputs!$C$41</f>
+        <f>Calculations!C9*Inputs!$C40</f>
         <v>0</v>
       </c>
       <c r="H15" s="16">
+        <f>Calculations!$C$9*(1-10/Inputs!$C15)*Inputs!$C41</f>
         <v>0</v>
       </c>
       <c r="I15" s="16">
-        <v>0</v>
-      </c>
-      <c r="J15" s="17">
-        <f>SUM(C15:I15)</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="16">
-        <f>Inputs!$C$45*Inputs!$C$10*1000*(1+Inputs!$D$45)^9*(1-Inputs!$C$20)^9</f>
+        <f>IF(B15=Inputs!$C23,Inputs!$C29*Calculations!C6*(1-Inputs!$C61)^B15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="16">
+        <f>IF(B15=Inputs!$C15,Inputs!$C30*Calculations!C5-Calculations!C15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="17">
+        <f>SUM(C15:J15)</f>
         <v>0</v>
       </c>
       <c r="L15" s="16">
-        <f>Inputs!$C$46*Inputs!$C$10*1000*(1+Inputs!$D$46)^9*(1-Inputs!$C$20)^9</f>
+        <f>Inputs!$C$52*Inputs!$C12*1000*(1+Inputs!$D$52)^9*(1-Inputs!$C21)^9</f>
         <v>0</v>
       </c>
       <c r="M15" s="16">
-        <f>Inputs!$C$47*Inputs!$C$10*1000*(1+Inputs!$D$47)^9*(1-Inputs!$C$20)^9</f>
+        <f>Inputs!$C$53*Inputs!$C12*1000*(1+Inputs!$D$53)^9*(1-Inputs!$C21)^9</f>
         <v>0</v>
       </c>
       <c r="N15" s="16">
-        <f>Inputs!$C$48*Inputs!$C$10*1000*(1+Inputs!$D$48)^9*(1-Inputs!$C$20)^9</f>
+        <f>Inputs!$C$54*Inputs!$C12*1000*(1+Inputs!$D$54)^9*(1-Inputs!$C21)^9</f>
         <v>0</v>
       </c>
       <c r="O15" s="16">
-        <f>Inputs!$C$49*Inputs!$C$10*1000*(1+Inputs!$D$49)^9*(1-Inputs!$C$20)^9</f>
+        <f>Inputs!$C$55*Inputs!$C12*1000*(1+Inputs!$D$55)^9*(1-Inputs!$C21)^9</f>
         <v>0</v>
       </c>
       <c r="P15" s="16">
-        <f>Inputs!$C$50*Inputs!$C$10*1000*(1+Inputs!$D$50)^9</f>
+        <f>Inputs!$C$56*Inputs!$C12*1000*(1+Inputs!$D$56)^9*(1-Inputs!$C21)^9</f>
         <v>0</v>
       </c>
       <c r="Q15" s="16">
-        <f>Inputs!$C$51*Inputs!$C$10*1000*(1+Inputs!$D$51)^9</f>
+        <f>Inputs!$C$57*Inputs!$C12*1000*(1+Inputs!$D$57)^9*(1-Inputs!$C21)^9</f>
         <v>0</v>
       </c>
       <c r="R15" s="16">
-        <f>Inputs!$C$52*Inputs!$C$10*1000*(1+Inputs!$D$52)^9</f>
-        <v>0</v>
-      </c>
-      <c r="S15" s="17">
-        <f>SUM(K15:R15)</f>
+        <f>Inputs!$C$58*Inputs!$C12*1000*(1+Inputs!$D$58)^9*(1-Inputs!$C21)^9</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="16">
+        <f>Inputs!$C$59*Inputs!$C12*1000*(1+Inputs!$D$59)^9*(1-Inputs!$C21)^9</f>
         <v>0</v>
       </c>
       <c r="T15" s="17">
-        <f>S15-J15</f>
-        <v>0</v>
-      </c>
-      <c r="U15" s="18">
-        <f>1/(1+Inputs!$C$14)^B15</f>
-        <v>0</v>
-      </c>
-      <c r="V15" s="16">
-        <f>J15*U15</f>
+        <f>SUM(L15:S15)</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="17">
+        <f>T15-K15</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="18">
+        <f>1/(1+Inputs!$C16)^B15</f>
         <v>0</v>
       </c>
       <c r="W15" s="16">
-        <f>S15*U15</f>
+        <f>K15*V15</f>
         <v>0</v>
       </c>
       <c r="X15" s="16">
-        <f>X14+T15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:24">
+        <f>T15*V15</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="16">
+        <f>Y14+U15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25">
       <c r="B16">
         <v>11</v>
       </c>
       <c r="C16" s="16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D16" s="16">
@@ -4342,88 +4938,96 @@
         <v>0</v>
       </c>
       <c r="E16" s="16">
+        <f>Inputs!$C28*Calculations!$C$13</f>
         <v>0</v>
       </c>
       <c r="F16" s="16">
-        <f>Calculations!C9*Inputs!$C$40</f>
+        <f>Calculations!C14</f>
         <v>0</v>
       </c>
       <c r="G16" s="16">
-        <f>Calculations!$C$9*(1-11/Inputs!$C$13)*Inputs!$C$41</f>
+        <f>Calculations!C9*Inputs!$C40</f>
         <v>0</v>
       </c>
       <c r="H16" s="16">
+        <f>Calculations!$C$9*(1-11/Inputs!$C15)*Inputs!$C41</f>
         <v>0</v>
       </c>
       <c r="I16" s="16">
-        <v>0</v>
-      </c>
-      <c r="J16" s="17">
-        <f>SUM(C16:I16)</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="16">
-        <f>Inputs!$C$45*Inputs!$C$10*1000*(1+Inputs!$D$45)^10*(1-Inputs!$C$20)^10</f>
+        <f>IF(B16=Inputs!$C23,Inputs!$C29*Calculations!C6*(1-Inputs!$C61)^B16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="16">
+        <f>IF(B16=Inputs!$C15,Inputs!$C30*Calculations!C5-Calculations!C15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="17">
+        <f>SUM(C16:J16)</f>
         <v>0</v>
       </c>
       <c r="L16" s="16">
-        <f>Inputs!$C$46*Inputs!$C$10*1000*(1+Inputs!$D$46)^10*(1-Inputs!$C$20)^10</f>
+        <f>Inputs!$C$52*Inputs!$C12*1000*(1+Inputs!$D$52)^10*(1-Inputs!$C21)^10</f>
         <v>0</v>
       </c>
       <c r="M16" s="16">
-        <f>Inputs!$C$47*Inputs!$C$10*1000*(1+Inputs!$D$47)^10*(1-Inputs!$C$20)^10</f>
+        <f>Inputs!$C$53*Inputs!$C12*1000*(1+Inputs!$D$53)^10*(1-Inputs!$C21)^10</f>
         <v>0</v>
       </c>
       <c r="N16" s="16">
-        <f>Inputs!$C$48*Inputs!$C$10*1000*(1+Inputs!$D$48)^10*(1-Inputs!$C$20)^10</f>
+        <f>Inputs!$C$54*Inputs!$C12*1000*(1+Inputs!$D$54)^10*(1-Inputs!$C21)^10</f>
         <v>0</v>
       </c>
       <c r="O16" s="16">
-        <f>Inputs!$C$49*Inputs!$C$10*1000*(1+Inputs!$D$49)^10*(1-Inputs!$C$20)^10</f>
+        <f>Inputs!$C$55*Inputs!$C12*1000*(1+Inputs!$D$55)^10*(1-Inputs!$C21)^10</f>
         <v>0</v>
       </c>
       <c r="P16" s="16">
-        <f>Inputs!$C$50*Inputs!$C$10*1000*(1+Inputs!$D$50)^10</f>
+        <f>Inputs!$C$56*Inputs!$C12*1000*(1+Inputs!$D$56)^10*(1-Inputs!$C21)^10</f>
         <v>0</v>
       </c>
       <c r="Q16" s="16">
-        <f>Inputs!$C$51*Inputs!$C$10*1000*(1+Inputs!$D$51)^10</f>
+        <f>Inputs!$C$57*Inputs!$C12*1000*(1+Inputs!$D$57)^10*(1-Inputs!$C21)^10</f>
         <v>0</v>
       </c>
       <c r="R16" s="16">
-        <f>Inputs!$C$52*Inputs!$C$10*1000*(1+Inputs!$D$52)^10</f>
-        <v>0</v>
-      </c>
-      <c r="S16" s="17">
-        <f>SUM(K16:R16)</f>
+        <f>Inputs!$C$58*Inputs!$C12*1000*(1+Inputs!$D$58)^10*(1-Inputs!$C21)^10</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="16">
+        <f>Inputs!$C$59*Inputs!$C12*1000*(1+Inputs!$D$59)^10*(1-Inputs!$C21)^10</f>
         <v>0</v>
       </c>
       <c r="T16" s="17">
-        <f>S16-J16</f>
-        <v>0</v>
-      </c>
-      <c r="U16" s="18">
-        <f>1/(1+Inputs!$C$14)^B16</f>
-        <v>0</v>
-      </c>
-      <c r="V16" s="16">
-        <f>J16*U16</f>
+        <f>SUM(L16:S16)</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="17">
+        <f>T16-K16</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="18">
+        <f>1/(1+Inputs!$C16)^B16</f>
         <v>0</v>
       </c>
       <c r="W16" s="16">
-        <f>S16*U16</f>
+        <f>K16*V16</f>
         <v>0</v>
       </c>
       <c r="X16" s="16">
-        <f>X15+T16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:24">
+        <f>T16*V16</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="16">
+        <f>Y15+U16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25">
       <c r="B17">
         <v>12</v>
       </c>
       <c r="C17" s="16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D17" s="16">
@@ -4431,89 +5035,96 @@
         <v>0</v>
       </c>
       <c r="E17" s="16">
+        <f>Inputs!$C28*Calculations!$C$13</f>
         <v>0</v>
       </c>
       <c r="F17" s="16">
-        <f>Calculations!C9*Inputs!$C$40</f>
+        <f>Calculations!C14</f>
         <v>0</v>
       </c>
       <c r="G17" s="16">
-        <f>Calculations!$C$9*(1-12/Inputs!$C$13)*Inputs!$C$41</f>
+        <f>Calculations!C9*Inputs!$C40</f>
         <v>0</v>
       </c>
       <c r="H17" s="16">
-        <f>Inputs!$C$29*Calculations!C6*(1-Inputs!$C$53)^12</f>
+        <f>Calculations!$C$9*(1-12/Inputs!$C15)*Inputs!$C41</f>
         <v>0</v>
       </c>
       <c r="I17" s="16">
-        <v>0</v>
-      </c>
-      <c r="J17" s="17">
-        <f>SUM(C17:I17)</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="16">
-        <f>Inputs!$C$45*Inputs!$C$10*1000*(1+Inputs!$D$45)^11*(1-Inputs!$C$20)^11</f>
+        <f>IF(B17=Inputs!$C23,Inputs!$C29*Calculations!C6*(1-Inputs!$C61)^B17,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="16">
+        <f>IF(B17=Inputs!$C15,Inputs!$C30*Calculations!C5-Calculations!C15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="17">
+        <f>SUM(C17:J17)</f>
         <v>0</v>
       </c>
       <c r="L17" s="16">
-        <f>Inputs!$C$46*Inputs!$C$10*1000*(1+Inputs!$D$46)^11*(1-Inputs!$C$20)^11</f>
+        <f>Inputs!$C$52*Inputs!$C12*1000*(1+Inputs!$D$52)^11*(1-Inputs!$C21)^11</f>
         <v>0</v>
       </c>
       <c r="M17" s="16">
-        <f>Inputs!$C$47*Inputs!$C$10*1000*(1+Inputs!$D$47)^11*(1-Inputs!$C$20)^11</f>
+        <f>Inputs!$C$53*Inputs!$C12*1000*(1+Inputs!$D$53)^11*(1-Inputs!$C21)^11</f>
         <v>0</v>
       </c>
       <c r="N17" s="16">
-        <f>Inputs!$C$48*Inputs!$C$10*1000*(1+Inputs!$D$48)^11*(1-Inputs!$C$20)^11</f>
+        <f>Inputs!$C$54*Inputs!$C12*1000*(1+Inputs!$D$54)^11*(1-Inputs!$C21)^11</f>
         <v>0</v>
       </c>
       <c r="O17" s="16">
-        <f>Inputs!$C$49*Inputs!$C$10*1000*(1+Inputs!$D$49)^11*(1-Inputs!$C$20)^11</f>
+        <f>Inputs!$C$55*Inputs!$C12*1000*(1+Inputs!$D$55)^11*(1-Inputs!$C21)^11</f>
         <v>0</v>
       </c>
       <c r="P17" s="16">
-        <f>Inputs!$C$50*Inputs!$C$10*1000*(1+Inputs!$D$50)^11</f>
+        <f>Inputs!$C$56*Inputs!$C12*1000*(1+Inputs!$D$56)^11*(1-Inputs!$C21)^11</f>
         <v>0</v>
       </c>
       <c r="Q17" s="16">
-        <f>Inputs!$C$51*Inputs!$C$10*1000*(1+Inputs!$D$51)^11</f>
+        <f>Inputs!$C$57*Inputs!$C12*1000*(1+Inputs!$D$57)^11*(1-Inputs!$C21)^11</f>
         <v>0</v>
       </c>
       <c r="R17" s="16">
-        <f>Inputs!$C$52*Inputs!$C$10*1000*(1+Inputs!$D$52)^11</f>
-        <v>0</v>
-      </c>
-      <c r="S17" s="17">
-        <f>SUM(K17:R17)</f>
+        <f>Inputs!$C$58*Inputs!$C12*1000*(1+Inputs!$D$58)^11*(1-Inputs!$C21)^11</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="16">
+        <f>Inputs!$C$59*Inputs!$C12*1000*(1+Inputs!$D$59)^11*(1-Inputs!$C21)^11</f>
         <v>0</v>
       </c>
       <c r="T17" s="17">
-        <f>S17-J17</f>
-        <v>0</v>
-      </c>
-      <c r="U17" s="18">
-        <f>1/(1+Inputs!$C$14)^B17</f>
-        <v>0</v>
-      </c>
-      <c r="V17" s="16">
-        <f>J17*U17</f>
+        <f>SUM(L17:S17)</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="17">
+        <f>T17-K17</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="18">
+        <f>1/(1+Inputs!$C16)^B17</f>
         <v>0</v>
       </c>
       <c r="W17" s="16">
-        <f>S17*U17</f>
+        <f>K17*V17</f>
         <v>0</v>
       </c>
       <c r="X17" s="16">
-        <f>X16+T17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:24">
+        <f>T17*V17</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="16">
+        <f>Y16+U17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25">
       <c r="B18">
         <v>13</v>
       </c>
       <c r="C18" s="16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D18" s="16">
@@ -4521,88 +5132,96 @@
         <v>0</v>
       </c>
       <c r="E18" s="16">
+        <f>Inputs!$C28*Calculations!$C$13</f>
         <v>0</v>
       </c>
       <c r="F18" s="16">
-        <f>Calculations!C9*Inputs!$C$40</f>
+        <f>Calculations!C14</f>
         <v>0</v>
       </c>
       <c r="G18" s="16">
-        <f>Calculations!$C$9*(1-13/Inputs!$C$13)*Inputs!$C$41</f>
+        <f>Calculations!C9*Inputs!$C40</f>
         <v>0</v>
       </c>
       <c r="H18" s="16">
+        <f>Calculations!$C$9*(1-13/Inputs!$C15)*Inputs!$C41</f>
         <v>0</v>
       </c>
       <c r="I18" s="16">
-        <v>0</v>
-      </c>
-      <c r="J18" s="17">
-        <f>SUM(C18:I18)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="16">
-        <f>Inputs!$C$45*Inputs!$C$10*1000*(1+Inputs!$D$45)^12*(1-Inputs!$C$20)^12</f>
+        <f>IF(B18=Inputs!$C23,Inputs!$C29*Calculations!C6*(1-Inputs!$C61)^B18,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="16">
+        <f>IF(B18=Inputs!$C15,Inputs!$C30*Calculations!C5-Calculations!C15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="17">
+        <f>SUM(C18:J18)</f>
         <v>0</v>
       </c>
       <c r="L18" s="16">
-        <f>Inputs!$C$46*Inputs!$C$10*1000*(1+Inputs!$D$46)^12*(1-Inputs!$C$20)^12</f>
+        <f>Inputs!$C$52*Inputs!$C12*1000*(1+Inputs!$D$52)^12*(1-Inputs!$C21)^12</f>
         <v>0</v>
       </c>
       <c r="M18" s="16">
-        <f>Inputs!$C$47*Inputs!$C$10*1000*(1+Inputs!$D$47)^12*(1-Inputs!$C$20)^12</f>
+        <f>Inputs!$C$53*Inputs!$C12*1000*(1+Inputs!$D$53)^12*(1-Inputs!$C21)^12</f>
         <v>0</v>
       </c>
       <c r="N18" s="16">
-        <f>Inputs!$C$48*Inputs!$C$10*1000*(1+Inputs!$D$48)^12*(1-Inputs!$C$20)^12</f>
+        <f>Inputs!$C$54*Inputs!$C12*1000*(1+Inputs!$D$54)^12*(1-Inputs!$C21)^12</f>
         <v>0</v>
       </c>
       <c r="O18" s="16">
-        <f>Inputs!$C$49*Inputs!$C$10*1000*(1+Inputs!$D$49)^12*(1-Inputs!$C$20)^12</f>
+        <f>Inputs!$C$55*Inputs!$C12*1000*(1+Inputs!$D$55)^12*(1-Inputs!$C21)^12</f>
         <v>0</v>
       </c>
       <c r="P18" s="16">
-        <f>Inputs!$C$50*Inputs!$C$10*1000*(1+Inputs!$D$50)^12</f>
+        <f>Inputs!$C$56*Inputs!$C12*1000*(1+Inputs!$D$56)^12*(1-Inputs!$C21)^12</f>
         <v>0</v>
       </c>
       <c r="Q18" s="16">
-        <f>Inputs!$C$51*Inputs!$C$10*1000*(1+Inputs!$D$51)^12</f>
+        <f>Inputs!$C$57*Inputs!$C12*1000*(1+Inputs!$D$57)^12*(1-Inputs!$C21)^12</f>
         <v>0</v>
       </c>
       <c r="R18" s="16">
-        <f>Inputs!$C$52*Inputs!$C$10*1000*(1+Inputs!$D$52)^12</f>
-        <v>0</v>
-      </c>
-      <c r="S18" s="17">
-        <f>SUM(K18:R18)</f>
+        <f>Inputs!$C$58*Inputs!$C12*1000*(1+Inputs!$D$58)^12*(1-Inputs!$C21)^12</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="16">
+        <f>Inputs!$C$59*Inputs!$C12*1000*(1+Inputs!$D$59)^12*(1-Inputs!$C21)^12</f>
         <v>0</v>
       </c>
       <c r="T18" s="17">
-        <f>S18-J18</f>
-        <v>0</v>
-      </c>
-      <c r="U18" s="18">
-        <f>1/(1+Inputs!$C$14)^B18</f>
-        <v>0</v>
-      </c>
-      <c r="V18" s="16">
-        <f>J18*U18</f>
+        <f>SUM(L18:S18)</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="17">
+        <f>T18-K18</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="18">
+        <f>1/(1+Inputs!$C16)^B18</f>
         <v>0</v>
       </c>
       <c r="W18" s="16">
-        <f>S18*U18</f>
+        <f>K18*V18</f>
         <v>0</v>
       </c>
       <c r="X18" s="16">
-        <f>X17+T18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:24">
+        <f>T18*V18</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="16">
+        <f>Y17+U18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25">
       <c r="B19">
         <v>14</v>
       </c>
       <c r="C19" s="16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D19" s="16">
@@ -4610,88 +5229,96 @@
         <v>0</v>
       </c>
       <c r="E19" s="16">
+        <f>Inputs!$C28*Calculations!$C$13</f>
         <v>0</v>
       </c>
       <c r="F19" s="16">
-        <f>Calculations!C9*Inputs!$C$40</f>
+        <f>Calculations!C14</f>
         <v>0</v>
       </c>
       <c r="G19" s="16">
-        <f>Calculations!$C$9*(1-14/Inputs!$C$13)*Inputs!$C$41</f>
+        <f>Calculations!C9*Inputs!$C40</f>
         <v>0</v>
       </c>
       <c r="H19" s="16">
+        <f>Calculations!$C$9*(1-14/Inputs!$C15)*Inputs!$C41</f>
         <v>0</v>
       </c>
       <c r="I19" s="16">
-        <v>0</v>
-      </c>
-      <c r="J19" s="17">
-        <f>SUM(C19:I19)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="16">
-        <f>Inputs!$C$45*Inputs!$C$10*1000*(1+Inputs!$D$45)^13*(1-Inputs!$C$20)^13</f>
+        <f>IF(B19=Inputs!$C23,Inputs!$C29*Calculations!C6*(1-Inputs!$C61)^B19,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="16">
+        <f>IF(B19=Inputs!$C15,Inputs!$C30*Calculations!C5-Calculations!C15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="17">
+        <f>SUM(C19:J19)</f>
         <v>0</v>
       </c>
       <c r="L19" s="16">
-        <f>Inputs!$C$46*Inputs!$C$10*1000*(1+Inputs!$D$46)^13*(1-Inputs!$C$20)^13</f>
+        <f>Inputs!$C$52*Inputs!$C12*1000*(1+Inputs!$D$52)^13*(1-Inputs!$C21)^13</f>
         <v>0</v>
       </c>
       <c r="M19" s="16">
-        <f>Inputs!$C$47*Inputs!$C$10*1000*(1+Inputs!$D$47)^13*(1-Inputs!$C$20)^13</f>
+        <f>Inputs!$C$53*Inputs!$C12*1000*(1+Inputs!$D$53)^13*(1-Inputs!$C21)^13</f>
         <v>0</v>
       </c>
       <c r="N19" s="16">
-        <f>Inputs!$C$48*Inputs!$C$10*1000*(1+Inputs!$D$48)^13*(1-Inputs!$C$20)^13</f>
+        <f>Inputs!$C$54*Inputs!$C12*1000*(1+Inputs!$D$54)^13*(1-Inputs!$C21)^13</f>
         <v>0</v>
       </c>
       <c r="O19" s="16">
-        <f>Inputs!$C$49*Inputs!$C$10*1000*(1+Inputs!$D$49)^13*(1-Inputs!$C$20)^13</f>
+        <f>Inputs!$C$55*Inputs!$C12*1000*(1+Inputs!$D$55)^13*(1-Inputs!$C21)^13</f>
         <v>0</v>
       </c>
       <c r="P19" s="16">
-        <f>Inputs!$C$50*Inputs!$C$10*1000*(1+Inputs!$D$50)^13</f>
+        <f>Inputs!$C$56*Inputs!$C12*1000*(1+Inputs!$D$56)^13*(1-Inputs!$C21)^13</f>
         <v>0</v>
       </c>
       <c r="Q19" s="16">
-        <f>Inputs!$C$51*Inputs!$C$10*1000*(1+Inputs!$D$51)^13</f>
+        <f>Inputs!$C$57*Inputs!$C12*1000*(1+Inputs!$D$57)^13*(1-Inputs!$C21)^13</f>
         <v>0</v>
       </c>
       <c r="R19" s="16">
-        <f>Inputs!$C$52*Inputs!$C$10*1000*(1+Inputs!$D$52)^13</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="17">
-        <f>SUM(K19:R19)</f>
+        <f>Inputs!$C$58*Inputs!$C12*1000*(1+Inputs!$D$58)^13*(1-Inputs!$C21)^13</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="16">
+        <f>Inputs!$C$59*Inputs!$C12*1000*(1+Inputs!$D$59)^13*(1-Inputs!$C21)^13</f>
         <v>0</v>
       </c>
       <c r="T19" s="17">
-        <f>S19-J19</f>
-        <v>0</v>
-      </c>
-      <c r="U19" s="18">
-        <f>1/(1+Inputs!$C$14)^B19</f>
-        <v>0</v>
-      </c>
-      <c r="V19" s="16">
-        <f>J19*U19</f>
+        <f>SUM(L19:S19)</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="17">
+        <f>T19-K19</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="18">
+        <f>1/(1+Inputs!$C16)^B19</f>
         <v>0</v>
       </c>
       <c r="W19" s="16">
-        <f>S19*U19</f>
+        <f>K19*V19</f>
         <v>0</v>
       </c>
       <c r="X19" s="16">
-        <f>X18+T19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:24">
+        <f>T19*V19</f>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="16">
+        <f>Y18+U19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25">
       <c r="B20">
         <v>15</v>
       </c>
       <c r="C20" s="16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D20" s="16">
@@ -4699,88 +5326,96 @@
         <v>0</v>
       </c>
       <c r="E20" s="16">
+        <f>Inputs!$C28*Calculations!$C$13</f>
         <v>0</v>
       </c>
       <c r="F20" s="16">
-        <f>Calculations!C9*Inputs!$C$40</f>
+        <f>Calculations!C14</f>
         <v>0</v>
       </c>
       <c r="G20" s="16">
-        <f>Calculations!$C$9*(1-15/Inputs!$C$13)*Inputs!$C$41</f>
+        <f>Calculations!C9*Inputs!$C40</f>
         <v>0</v>
       </c>
       <c r="H20" s="16">
+        <f>Calculations!$C$9*(1-15/Inputs!$C15)*Inputs!$C41</f>
         <v>0</v>
       </c>
       <c r="I20" s="16">
-        <v>0</v>
-      </c>
-      <c r="J20" s="17">
-        <f>SUM(C20:I20)</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="16">
-        <f>Inputs!$C$45*Inputs!$C$10*1000*(1+Inputs!$D$45)^14*(1-Inputs!$C$20)^14</f>
+        <f>IF(B20=Inputs!$C23,Inputs!$C29*Calculations!C6*(1-Inputs!$C61)^B20,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="16">
+        <f>IF(B20=Inputs!$C15,Inputs!$C30*Calculations!C5-Calculations!C15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="17">
+        <f>SUM(C20:J20)</f>
         <v>0</v>
       </c>
       <c r="L20" s="16">
-        <f>Inputs!$C$46*Inputs!$C$10*1000*(1+Inputs!$D$46)^14*(1-Inputs!$C$20)^14</f>
+        <f>Inputs!$C$52*Inputs!$C12*1000*(1+Inputs!$D$52)^14*(1-Inputs!$C21)^14</f>
         <v>0</v>
       </c>
       <c r="M20" s="16">
-        <f>Inputs!$C$47*Inputs!$C$10*1000*(1+Inputs!$D$47)^14*(1-Inputs!$C$20)^14</f>
+        <f>Inputs!$C$53*Inputs!$C12*1000*(1+Inputs!$D$53)^14*(1-Inputs!$C21)^14</f>
         <v>0</v>
       </c>
       <c r="N20" s="16">
-        <f>Inputs!$C$48*Inputs!$C$10*1000*(1+Inputs!$D$48)^14*(1-Inputs!$C$20)^14</f>
+        <f>Inputs!$C$54*Inputs!$C12*1000*(1+Inputs!$D$54)^14*(1-Inputs!$C21)^14</f>
         <v>0</v>
       </c>
       <c r="O20" s="16">
-        <f>Inputs!$C$49*Inputs!$C$10*1000*(1+Inputs!$D$49)^14*(1-Inputs!$C$20)^14</f>
+        <f>Inputs!$C$55*Inputs!$C12*1000*(1+Inputs!$D$55)^14*(1-Inputs!$C21)^14</f>
         <v>0</v>
       </c>
       <c r="P20" s="16">
-        <f>Inputs!$C$50*Inputs!$C$10*1000*(1+Inputs!$D$50)^14</f>
+        <f>Inputs!$C$56*Inputs!$C12*1000*(1+Inputs!$D$56)^14*(1-Inputs!$C21)^14</f>
         <v>0</v>
       </c>
       <c r="Q20" s="16">
-        <f>Inputs!$C$51*Inputs!$C$10*1000*(1+Inputs!$D$51)^14</f>
+        <f>Inputs!$C$57*Inputs!$C12*1000*(1+Inputs!$D$57)^14*(1-Inputs!$C21)^14</f>
         <v>0</v>
       </c>
       <c r="R20" s="16">
-        <f>Inputs!$C$52*Inputs!$C$10*1000*(1+Inputs!$D$52)^14</f>
-        <v>0</v>
-      </c>
-      <c r="S20" s="17">
-        <f>SUM(K20:R20)</f>
+        <f>Inputs!$C$58*Inputs!$C12*1000*(1+Inputs!$D$58)^14*(1-Inputs!$C21)^14</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="16">
+        <f>Inputs!$C$59*Inputs!$C12*1000*(1+Inputs!$D$59)^14*(1-Inputs!$C21)^14</f>
         <v>0</v>
       </c>
       <c r="T20" s="17">
-        <f>S20-J20</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="18">
-        <f>1/(1+Inputs!$C$14)^B20</f>
-        <v>0</v>
-      </c>
-      <c r="V20" s="16">
-        <f>J20*U20</f>
+        <f>SUM(L20:S20)</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="17">
+        <f>T20-K20</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="18">
+        <f>1/(1+Inputs!$C16)^B20</f>
         <v>0</v>
       </c>
       <c r="W20" s="16">
-        <f>S20*U20</f>
+        <f>K20*V20</f>
         <v>0</v>
       </c>
       <c r="X20" s="16">
-        <f>X19+T20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:24">
+        <f>T20*V20</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="16">
+        <f>Y19+U20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25">
       <c r="B21">
         <v>16</v>
       </c>
       <c r="C21" s="16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D21" s="16">
@@ -4788,88 +5423,96 @@
         <v>0</v>
       </c>
       <c r="E21" s="16">
+        <f>Inputs!$C28*Calculations!$C$13</f>
         <v>0</v>
       </c>
       <c r="F21" s="16">
-        <f>Calculations!C9*Inputs!$C$40</f>
+        <f>Calculations!C14</f>
         <v>0</v>
       </c>
       <c r="G21" s="16">
-        <f>Calculations!$C$9*(1-16/Inputs!$C$13)*Inputs!$C$41</f>
+        <f>Calculations!C9*Inputs!$C40</f>
         <v>0</v>
       </c>
       <c r="H21" s="16">
+        <f>Calculations!$C$9*(1-16/Inputs!$C15)*Inputs!$C41</f>
         <v>0</v>
       </c>
       <c r="I21" s="16">
-        <v>0</v>
-      </c>
-      <c r="J21" s="17">
-        <f>SUM(C21:I21)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="16">
-        <f>Inputs!$C$45*Inputs!$C$10*1000*(1+Inputs!$D$45)^15*(1-Inputs!$C$20)^15</f>
+        <f>IF(B21=Inputs!$C23,Inputs!$C29*Calculations!C6*(1-Inputs!$C61)^B21,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="16">
+        <f>IF(B21=Inputs!$C15,Inputs!$C30*Calculations!C5-Calculations!C15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="17">
+        <f>SUM(C21:J21)</f>
         <v>0</v>
       </c>
       <c r="L21" s="16">
-        <f>Inputs!$C$46*Inputs!$C$10*1000*(1+Inputs!$D$46)^15*(1-Inputs!$C$20)^15</f>
+        <f>Inputs!$C$52*Inputs!$C12*1000*(1+Inputs!$D$52)^15*(1-Inputs!$C21)^15</f>
         <v>0</v>
       </c>
       <c r="M21" s="16">
-        <f>Inputs!$C$47*Inputs!$C$10*1000*(1+Inputs!$D$47)^15*(1-Inputs!$C$20)^15</f>
+        <f>Inputs!$C$53*Inputs!$C12*1000*(1+Inputs!$D$53)^15*(1-Inputs!$C21)^15</f>
         <v>0</v>
       </c>
       <c r="N21" s="16">
-        <f>Inputs!$C$48*Inputs!$C$10*1000*(1+Inputs!$D$48)^15*(1-Inputs!$C$20)^15</f>
+        <f>Inputs!$C$54*Inputs!$C12*1000*(1+Inputs!$D$54)^15*(1-Inputs!$C21)^15</f>
         <v>0</v>
       </c>
       <c r="O21" s="16">
-        <f>Inputs!$C$49*Inputs!$C$10*1000*(1+Inputs!$D$49)^15*(1-Inputs!$C$20)^15</f>
+        <f>Inputs!$C$55*Inputs!$C12*1000*(1+Inputs!$D$55)^15*(1-Inputs!$C21)^15</f>
         <v>0</v>
       </c>
       <c r="P21" s="16">
-        <f>Inputs!$C$50*Inputs!$C$10*1000*(1+Inputs!$D$50)^15</f>
+        <f>Inputs!$C$56*Inputs!$C12*1000*(1+Inputs!$D$56)^15*(1-Inputs!$C21)^15</f>
         <v>0</v>
       </c>
       <c r="Q21" s="16">
-        <f>Inputs!$C$51*Inputs!$C$10*1000*(1+Inputs!$D$51)^15</f>
+        <f>Inputs!$C$57*Inputs!$C12*1000*(1+Inputs!$D$57)^15*(1-Inputs!$C21)^15</f>
         <v>0</v>
       </c>
       <c r="R21" s="16">
-        <f>Inputs!$C$52*Inputs!$C$10*1000*(1+Inputs!$D$52)^15</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="17">
-        <f>SUM(K21:R21)</f>
+        <f>Inputs!$C$58*Inputs!$C12*1000*(1+Inputs!$D$58)^15*(1-Inputs!$C21)^15</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="16">
+        <f>Inputs!$C$59*Inputs!$C12*1000*(1+Inputs!$D$59)^15*(1-Inputs!$C21)^15</f>
         <v>0</v>
       </c>
       <c r="T21" s="17">
-        <f>S21-J21</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="18">
-        <f>1/(1+Inputs!$C$14)^B21</f>
-        <v>0</v>
-      </c>
-      <c r="V21" s="16">
-        <f>J21*U21</f>
+        <f>SUM(L21:S21)</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="17">
+        <f>T21-K21</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="18">
+        <f>1/(1+Inputs!$C16)^B21</f>
         <v>0</v>
       </c>
       <c r="W21" s="16">
-        <f>S21*U21</f>
+        <f>K21*V21</f>
         <v>0</v>
       </c>
       <c r="X21" s="16">
-        <f>X20+T21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:24">
+        <f>T21*V21</f>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="16">
+        <f>Y20+U21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25">
       <c r="B22">
         <v>17</v>
       </c>
       <c r="C22" s="16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D22" s="16">
@@ -4877,88 +5520,96 @@
         <v>0</v>
       </c>
       <c r="E22" s="16">
+        <f>Inputs!$C28*Calculations!$C$13</f>
         <v>0</v>
       </c>
       <c r="F22" s="16">
-        <f>Calculations!C9*Inputs!$C$40</f>
+        <f>Calculations!C14</f>
         <v>0</v>
       </c>
       <c r="G22" s="16">
-        <f>Calculations!$C$9*(1-17/Inputs!$C$13)*Inputs!$C$41</f>
+        <f>Calculations!C9*Inputs!$C40</f>
         <v>0</v>
       </c>
       <c r="H22" s="16">
+        <f>Calculations!$C$9*(1-17/Inputs!$C15)*Inputs!$C41</f>
         <v>0</v>
       </c>
       <c r="I22" s="16">
-        <v>0</v>
-      </c>
-      <c r="J22" s="17">
-        <f>SUM(C22:I22)</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="16">
-        <f>Inputs!$C$45*Inputs!$C$10*1000*(1+Inputs!$D$45)^16*(1-Inputs!$C$20)^16</f>
+        <f>IF(B22=Inputs!$C23,Inputs!$C29*Calculations!C6*(1-Inputs!$C61)^B22,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="16">
+        <f>IF(B22=Inputs!$C15,Inputs!$C30*Calculations!C5-Calculations!C15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="17">
+        <f>SUM(C22:J22)</f>
         <v>0</v>
       </c>
       <c r="L22" s="16">
-        <f>Inputs!$C$46*Inputs!$C$10*1000*(1+Inputs!$D$46)^16*(1-Inputs!$C$20)^16</f>
+        <f>Inputs!$C$52*Inputs!$C12*1000*(1+Inputs!$D$52)^16*(1-Inputs!$C21)^16</f>
         <v>0</v>
       </c>
       <c r="M22" s="16">
-        <f>Inputs!$C$47*Inputs!$C$10*1000*(1+Inputs!$D$47)^16*(1-Inputs!$C$20)^16</f>
+        <f>Inputs!$C$53*Inputs!$C12*1000*(1+Inputs!$D$53)^16*(1-Inputs!$C21)^16</f>
         <v>0</v>
       </c>
       <c r="N22" s="16">
-        <f>Inputs!$C$48*Inputs!$C$10*1000*(1+Inputs!$D$48)^16*(1-Inputs!$C$20)^16</f>
+        <f>Inputs!$C$54*Inputs!$C12*1000*(1+Inputs!$D$54)^16*(1-Inputs!$C21)^16</f>
         <v>0</v>
       </c>
       <c r="O22" s="16">
-        <f>Inputs!$C$49*Inputs!$C$10*1000*(1+Inputs!$D$49)^16*(1-Inputs!$C$20)^16</f>
+        <f>Inputs!$C$55*Inputs!$C12*1000*(1+Inputs!$D$55)^16*(1-Inputs!$C21)^16</f>
         <v>0</v>
       </c>
       <c r="P22" s="16">
-        <f>Inputs!$C$50*Inputs!$C$10*1000*(1+Inputs!$D$50)^16</f>
+        <f>Inputs!$C$56*Inputs!$C12*1000*(1+Inputs!$D$56)^16*(1-Inputs!$C21)^16</f>
         <v>0</v>
       </c>
       <c r="Q22" s="16">
-        <f>Inputs!$C$51*Inputs!$C$10*1000*(1+Inputs!$D$51)^16</f>
+        <f>Inputs!$C$57*Inputs!$C12*1000*(1+Inputs!$D$57)^16*(1-Inputs!$C21)^16</f>
         <v>0</v>
       </c>
       <c r="R22" s="16">
-        <f>Inputs!$C$52*Inputs!$C$10*1000*(1+Inputs!$D$52)^16</f>
-        <v>0</v>
-      </c>
-      <c r="S22" s="17">
-        <f>SUM(K22:R22)</f>
+        <f>Inputs!$C$58*Inputs!$C12*1000*(1+Inputs!$D$58)^16*(1-Inputs!$C21)^16</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="16">
+        <f>Inputs!$C$59*Inputs!$C12*1000*(1+Inputs!$D$59)^16*(1-Inputs!$C21)^16</f>
         <v>0</v>
       </c>
       <c r="T22" s="17">
-        <f>S22-J22</f>
-        <v>0</v>
-      </c>
-      <c r="U22" s="18">
-        <f>1/(1+Inputs!$C$14)^B22</f>
-        <v>0</v>
-      </c>
-      <c r="V22" s="16">
-        <f>J22*U22</f>
+        <f>SUM(L22:S22)</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="17">
+        <f>T22-K22</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="18">
+        <f>1/(1+Inputs!$C16)^B22</f>
         <v>0</v>
       </c>
       <c r="W22" s="16">
-        <f>S22*U22</f>
+        <f>K22*V22</f>
         <v>0</v>
       </c>
       <c r="X22" s="16">
-        <f>X21+T22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:24">
+        <f>T22*V22</f>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="16">
+        <f>Y21+U22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25">
       <c r="B23">
         <v>18</v>
       </c>
       <c r="C23" s="16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D23" s="16">
@@ -4966,88 +5617,96 @@
         <v>0</v>
       </c>
       <c r="E23" s="16">
+        <f>Inputs!$C28*Calculations!$C$13</f>
         <v>0</v>
       </c>
       <c r="F23" s="16">
-        <f>Calculations!C9*Inputs!$C$40</f>
+        <f>Calculations!C14</f>
         <v>0</v>
       </c>
       <c r="G23" s="16">
-        <f>Calculations!$C$9*(1-18/Inputs!$C$13)*Inputs!$C$41</f>
+        <f>Calculations!C9*Inputs!$C40</f>
         <v>0</v>
       </c>
       <c r="H23" s="16">
+        <f>Calculations!$C$9*(1-18/Inputs!$C15)*Inputs!$C41</f>
         <v>0</v>
       </c>
       <c r="I23" s="16">
-        <v>0</v>
-      </c>
-      <c r="J23" s="17">
-        <f>SUM(C23:I23)</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="16">
-        <f>Inputs!$C$45*Inputs!$C$10*1000*(1+Inputs!$D$45)^17*(1-Inputs!$C$20)^17</f>
+        <f>IF(B23=Inputs!$C23,Inputs!$C29*Calculations!C6*(1-Inputs!$C61)^B23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="16">
+        <f>IF(B23=Inputs!$C15,Inputs!$C30*Calculations!C5-Calculations!C15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="17">
+        <f>SUM(C23:J23)</f>
         <v>0</v>
       </c>
       <c r="L23" s="16">
-        <f>Inputs!$C$46*Inputs!$C$10*1000*(1+Inputs!$D$46)^17*(1-Inputs!$C$20)^17</f>
+        <f>Inputs!$C$52*Inputs!$C12*1000*(1+Inputs!$D$52)^17*(1-Inputs!$C21)^17</f>
         <v>0</v>
       </c>
       <c r="M23" s="16">
-        <f>Inputs!$C$47*Inputs!$C$10*1000*(1+Inputs!$D$47)^17*(1-Inputs!$C$20)^17</f>
+        <f>Inputs!$C$53*Inputs!$C12*1000*(1+Inputs!$D$53)^17*(1-Inputs!$C21)^17</f>
         <v>0</v>
       </c>
       <c r="N23" s="16">
-        <f>Inputs!$C$48*Inputs!$C$10*1000*(1+Inputs!$D$48)^17*(1-Inputs!$C$20)^17</f>
+        <f>Inputs!$C$54*Inputs!$C12*1000*(1+Inputs!$D$54)^17*(1-Inputs!$C21)^17</f>
         <v>0</v>
       </c>
       <c r="O23" s="16">
-        <f>Inputs!$C$49*Inputs!$C$10*1000*(1+Inputs!$D$49)^17*(1-Inputs!$C$20)^17</f>
+        <f>Inputs!$C$55*Inputs!$C12*1000*(1+Inputs!$D$55)^17*(1-Inputs!$C21)^17</f>
         <v>0</v>
       </c>
       <c r="P23" s="16">
-        <f>Inputs!$C$50*Inputs!$C$10*1000*(1+Inputs!$D$50)^17</f>
+        <f>Inputs!$C$56*Inputs!$C12*1000*(1+Inputs!$D$56)^17*(1-Inputs!$C21)^17</f>
         <v>0</v>
       </c>
       <c r="Q23" s="16">
-        <f>Inputs!$C$51*Inputs!$C$10*1000*(1+Inputs!$D$51)^17</f>
+        <f>Inputs!$C$57*Inputs!$C12*1000*(1+Inputs!$D$57)^17*(1-Inputs!$C21)^17</f>
         <v>0</v>
       </c>
       <c r="R23" s="16">
-        <f>Inputs!$C$52*Inputs!$C$10*1000*(1+Inputs!$D$52)^17</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="17">
-        <f>SUM(K23:R23)</f>
+        <f>Inputs!$C$58*Inputs!$C12*1000*(1+Inputs!$D$58)^17*(1-Inputs!$C21)^17</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="16">
+        <f>Inputs!$C$59*Inputs!$C12*1000*(1+Inputs!$D$59)^17*(1-Inputs!$C21)^17</f>
         <v>0</v>
       </c>
       <c r="T23" s="17">
-        <f>S23-J23</f>
-        <v>0</v>
-      </c>
-      <c r="U23" s="18">
-        <f>1/(1+Inputs!$C$14)^B23</f>
-        <v>0</v>
-      </c>
-      <c r="V23" s="16">
-        <f>J23*U23</f>
+        <f>SUM(L23:S23)</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="17">
+        <f>T23-K23</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="18">
+        <f>1/(1+Inputs!$C16)^B23</f>
         <v>0</v>
       </c>
       <c r="W23" s="16">
-        <f>S23*U23</f>
+        <f>K23*V23</f>
         <v>0</v>
       </c>
       <c r="X23" s="16">
-        <f>X22+T23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:24">
+        <f>T23*V23</f>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="16">
+        <f>Y22+U23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25">
       <c r="B24">
         <v>19</v>
       </c>
       <c r="C24" s="16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D24" s="16">
@@ -5055,88 +5714,96 @@
         <v>0</v>
       </c>
       <c r="E24" s="16">
+        <f>Inputs!$C28*Calculations!$C$13</f>
         <v>0</v>
       </c>
       <c r="F24" s="16">
-        <f>Calculations!C9*Inputs!$C$40</f>
+        <f>Calculations!C14</f>
         <v>0</v>
       </c>
       <c r="G24" s="16">
-        <f>Calculations!$C$9*(1-19/Inputs!$C$13)*Inputs!$C$41</f>
+        <f>Calculations!C9*Inputs!$C40</f>
         <v>0</v>
       </c>
       <c r="H24" s="16">
+        <f>Calculations!$C$9*(1-19/Inputs!$C15)*Inputs!$C41</f>
         <v>0</v>
       </c>
       <c r="I24" s="16">
-        <v>0</v>
-      </c>
-      <c r="J24" s="17">
-        <f>SUM(C24:I24)</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="16">
-        <f>Inputs!$C$45*Inputs!$C$10*1000*(1+Inputs!$D$45)^18*(1-Inputs!$C$20)^18</f>
+        <f>IF(B24=Inputs!$C23,Inputs!$C29*Calculations!C6*(1-Inputs!$C61)^B24,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="16">
+        <f>IF(B24=Inputs!$C15,Inputs!$C30*Calculations!C5-Calculations!C15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="17">
+        <f>SUM(C24:J24)</f>
         <v>0</v>
       </c>
       <c r="L24" s="16">
-        <f>Inputs!$C$46*Inputs!$C$10*1000*(1+Inputs!$D$46)^18*(1-Inputs!$C$20)^18</f>
+        <f>Inputs!$C$52*Inputs!$C12*1000*(1+Inputs!$D$52)^18*(1-Inputs!$C21)^18</f>
         <v>0</v>
       </c>
       <c r="M24" s="16">
-        <f>Inputs!$C$47*Inputs!$C$10*1000*(1+Inputs!$D$47)^18*(1-Inputs!$C$20)^18</f>
+        <f>Inputs!$C$53*Inputs!$C12*1000*(1+Inputs!$D$53)^18*(1-Inputs!$C21)^18</f>
         <v>0</v>
       </c>
       <c r="N24" s="16">
-        <f>Inputs!$C$48*Inputs!$C$10*1000*(1+Inputs!$D$48)^18*(1-Inputs!$C$20)^18</f>
+        <f>Inputs!$C$54*Inputs!$C12*1000*(1+Inputs!$D$54)^18*(1-Inputs!$C21)^18</f>
         <v>0</v>
       </c>
       <c r="O24" s="16">
-        <f>Inputs!$C$49*Inputs!$C$10*1000*(1+Inputs!$D$49)^18*(1-Inputs!$C$20)^18</f>
+        <f>Inputs!$C$55*Inputs!$C12*1000*(1+Inputs!$D$55)^18*(1-Inputs!$C21)^18</f>
         <v>0</v>
       </c>
       <c r="P24" s="16">
-        <f>Inputs!$C$50*Inputs!$C$10*1000*(1+Inputs!$D$50)^18</f>
+        <f>Inputs!$C$56*Inputs!$C12*1000*(1+Inputs!$D$56)^18*(1-Inputs!$C21)^18</f>
         <v>0</v>
       </c>
       <c r="Q24" s="16">
-        <f>Inputs!$C$51*Inputs!$C$10*1000*(1+Inputs!$D$51)^18</f>
+        <f>Inputs!$C$57*Inputs!$C12*1000*(1+Inputs!$D$57)^18*(1-Inputs!$C21)^18</f>
         <v>0</v>
       </c>
       <c r="R24" s="16">
-        <f>Inputs!$C$52*Inputs!$C$10*1000*(1+Inputs!$D$52)^18</f>
-        <v>0</v>
-      </c>
-      <c r="S24" s="17">
-        <f>SUM(K24:R24)</f>
+        <f>Inputs!$C$58*Inputs!$C12*1000*(1+Inputs!$D$58)^18*(1-Inputs!$C21)^18</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="16">
+        <f>Inputs!$C$59*Inputs!$C12*1000*(1+Inputs!$D$59)^18*(1-Inputs!$C21)^18</f>
         <v>0</v>
       </c>
       <c r="T24" s="17">
-        <f>S24-J24</f>
-        <v>0</v>
-      </c>
-      <c r="U24" s="18">
-        <f>1/(1+Inputs!$C$14)^B24</f>
-        <v>0</v>
-      </c>
-      <c r="V24" s="16">
-        <f>J24*U24</f>
+        <f>SUM(L24:S24)</f>
+        <v>0</v>
+      </c>
+      <c r="U24" s="17">
+        <f>T24-K24</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="18">
+        <f>1/(1+Inputs!$C16)^B24</f>
         <v>0</v>
       </c>
       <c r="W24" s="16">
-        <f>S24*U24</f>
+        <f>K24*V24</f>
         <v>0</v>
       </c>
       <c r="X24" s="16">
-        <f>X23+T24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:24">
+        <f>T24*V24</f>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="16">
+        <f>Y23+U24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25">
       <c r="B25">
         <v>20</v>
       </c>
       <c r="C25" s="16">
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="D25" s="16">
@@ -5144,102 +5811,108 @@
         <v>0</v>
       </c>
       <c r="E25" s="16">
+        <f>Inputs!$C28*Calculations!$C$13</f>
         <v>0</v>
       </c>
       <c r="F25" s="16">
-        <f>Calculations!C9*Inputs!$C$40</f>
+        <f>Calculations!C14</f>
         <v>0</v>
       </c>
       <c r="G25" s="16">
-        <f>Calculations!$C$9*(1-20/Inputs!$C$13)*Inputs!$C$41</f>
+        <f>Calculations!C9*Inputs!$C40</f>
         <v>0</v>
       </c>
       <c r="H25" s="16">
+        <f>Calculations!$C$9*(1-20/Inputs!$C15)*Inputs!$C41</f>
         <v>0</v>
       </c>
       <c r="I25" s="16">
-        <f>Inputs!$C$30*Calculations!C5</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="17">
-        <f>SUM(C25:I25)</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="16">
-        <f>Inputs!$C$45*Inputs!$C$10*1000*(1+Inputs!$D$45)^19*(1-Inputs!$C$20)^19</f>
+        <f>IF(B25=Inputs!$C23,Inputs!$C29*Calculations!C6*(1-Inputs!$C61)^B25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="16">
+        <f>IF(B25=Inputs!$C15,Inputs!$C30*Calculations!C5-Calculations!C15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="17">
+        <f>SUM(C25:J25)</f>
         <v>0</v>
       </c>
       <c r="L25" s="16">
-        <f>Inputs!$C$46*Inputs!$C$10*1000*(1+Inputs!$D$46)^19*(1-Inputs!$C$20)^19</f>
+        <f>Inputs!$C$52*Inputs!$C12*1000*(1+Inputs!$D$52)^19*(1-Inputs!$C21)^19</f>
         <v>0</v>
       </c>
       <c r="M25" s="16">
-        <f>Inputs!$C$47*Inputs!$C$10*1000*(1+Inputs!$D$47)^19*(1-Inputs!$C$20)^19</f>
+        <f>Inputs!$C$53*Inputs!$C12*1000*(1+Inputs!$D$53)^19*(1-Inputs!$C21)^19</f>
         <v>0</v>
       </c>
       <c r="N25" s="16">
-        <f>Inputs!$C$48*Inputs!$C$10*1000*(1+Inputs!$D$48)^19*(1-Inputs!$C$20)^19</f>
+        <f>Inputs!$C$54*Inputs!$C12*1000*(1+Inputs!$D$54)^19*(1-Inputs!$C21)^19</f>
         <v>0</v>
       </c>
       <c r="O25" s="16">
-        <f>Inputs!$C$49*Inputs!$C$10*1000*(1+Inputs!$D$49)^19*(1-Inputs!$C$20)^19</f>
+        <f>Inputs!$C$55*Inputs!$C12*1000*(1+Inputs!$D$55)^19*(1-Inputs!$C21)^19</f>
         <v>0</v>
       </c>
       <c r="P25" s="16">
-        <f>Inputs!$C$50*Inputs!$C$10*1000*(1+Inputs!$D$50)^19</f>
+        <f>Inputs!$C$56*Inputs!$C12*1000*(1+Inputs!$D$56)^19*(1-Inputs!$C21)^19</f>
         <v>0</v>
       </c>
       <c r="Q25" s="16">
-        <f>Inputs!$C$51*Inputs!$C$10*1000*(1+Inputs!$D$51)^19</f>
+        <f>Inputs!$C$57*Inputs!$C12*1000*(1+Inputs!$D$57)^19*(1-Inputs!$C21)^19</f>
         <v>0</v>
       </c>
       <c r="R25" s="16">
-        <f>Inputs!$C$52*Inputs!$C$10*1000*(1+Inputs!$D$52)^19</f>
-        <v>0</v>
-      </c>
-      <c r="S25" s="17">
-        <f>SUM(K25:R25)</f>
+        <f>Inputs!$C$58*Inputs!$C12*1000*(1+Inputs!$D$58)^19*(1-Inputs!$C21)^19</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="16">
+        <f>Inputs!$C$59*Inputs!$C12*1000*(1+Inputs!$D$59)^19*(1-Inputs!$C21)^19</f>
         <v>0</v>
       </c>
       <c r="T25" s="17">
-        <f>S25-J25</f>
-        <v>0</v>
-      </c>
-      <c r="U25" s="18">
-        <f>1/(1+Inputs!$C$14)^B25</f>
-        <v>0</v>
-      </c>
-      <c r="V25" s="16">
-        <f>J25*U25</f>
+        <f>SUM(L25:S25)</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="17">
+        <f>T25-K25</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="18">
+        <f>1/(1+Inputs!$C16)^B25</f>
         <v>0</v>
       </c>
       <c r="W25" s="16">
-        <f>S25*U25</f>
+        <f>K25*V25</f>
         <v>0</v>
       </c>
       <c r="X25" s="16">
-        <f>X24+T25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:24">
+        <f>T25*V25</f>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="16">
+        <f>Y24+U25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25">
       <c r="B27" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J27" s="17">
-        <f>SUM(J5:J25)</f>
-        <v>0</v>
-      </c>
-      <c r="S27" s="17">
-        <f>SUM(S5:S25)</f>
-        <v>0</v>
-      </c>
-      <c r="V27" s="17">
-        <f>SUM(V5:V25)</f>
+        <v>169</v>
+      </c>
+      <c r="K27" s="17">
+        <f>SUM(K5:K25)</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="17">
+        <f>SUM(T5:T25)</f>
         <v>0</v>
       </c>
       <c r="W27" s="17">
         <f>SUM(W5:W25)</f>
+        <v>0</v>
+      </c>
+      <c r="X27" s="17">
+        <f>SUM(X5:X25)</f>
         <v>0</v>
       </c>
     </row>
@@ -5264,208 +5937,208 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="1" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="2" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="3" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="C5" s="17">
-        <f>Inputs!C10*1000</f>
+        <f>Inputs!C12*1000</f>
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="3" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="C6" s="17">
-        <f>Inputs!C12*1000</f>
+        <f>Inputs!C14*1000</f>
         <v>0</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="3" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="C7" s="17">
-        <f>Inputs!C28*C6</f>
+        <f>Inputs!C26*C6</f>
         <v>0</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="3" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="C8" s="17">
-        <f>(Inputs!C43+Inputs!C44+Inputs!C45)*C5</f>
+        <f>(Inputs!C37+Inputs!C38+Inputs!C39)*C5</f>
         <v>0</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="3" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="C9" s="17">
         <f>C7+C8</f>
         <v>0</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="3" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="C10" s="17">
-        <f>C7*(Inputs!C37+Inputs!C38)</f>
+        <f>C7*(Inputs!C34+Inputs!C35)</f>
         <v>0</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="3" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="C11" s="17">
         <f>C9-C10</f>
         <v>0</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="3" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="C12" s="17">
-        <f>Inputs!C29*C5</f>
+        <f>Inputs!C27*C5</f>
         <v>0</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="3" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="C13" s="17">
-        <f>Inputs!C12*Inputs!C23*365*Inputs!C19</f>
+        <f>Inputs!C14*Inputs!C24*365*Inputs!C20</f>
         <v>0</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="3" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="C14" s="17">
-        <f>C13/Inputs!C19*Inputs!C33</f>
+        <f>C13/Inputs!C20*Inputs!C31</f>
         <v>0</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="3" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="C15" s="17">
-        <f>C9*Inputs!C34</f>
+        <f>C9*Inputs!C32</f>
         <v>0</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="2" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="3" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="C18" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="3" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="C19" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="3" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="C20" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="3" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="C21" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="3" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="C22" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -5492,7 +6165,7 @@
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" s="1" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -5507,7 +6180,7 @@
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="5" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -5522,7 +6195,7 @@
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="2" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -5537,264 +6210,264 @@
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="9" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="3" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="C8" s="16">
-        <f>(Cash_Flows!W27*0.7)-(Cash_Flows!V27*(1+(100-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.7)-(Cash_Flows!W27*(1+(100-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="D8" s="16">
-        <f>(Cash_Flows!W27*0.8)-(Cash_Flows!V27*(1+(100-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.8)-(Cash_Flows!W27*(1+(100-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="E8" s="16">
-        <f>(Cash_Flows!W27*0.9)-(Cash_Flows!V27*(1+(100-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.9)-(Cash_Flows!W27*(1+(100-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="F8" s="16">
-        <f>(Cash_Flows!W27*1.0)-(Cash_Flows!V27*(1+(100-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.0)-(Cash_Flows!W27*(1+(100-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="G8" s="16">
-        <f>(Cash_Flows!W27*1.1)-(Cash_Flows!V27*(1+(100-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.1)-(Cash_Flows!W27*(1+(100-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="H8" s="16">
-        <f>(Cash_Flows!W27*1.2)-(Cash_Flows!V27*(1+(100-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.2)-(Cash_Flows!W27*(1+(100-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="I8" s="16">
-        <f>(Cash_Flows!W27*1.3)-(Cash_Flows!V27*(1+(100-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.3)-(Cash_Flows!W27*(1+(100-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="3" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="C9" s="16">
-        <f>(Cash_Flows!W27*0.7)-(Cash_Flows!V27*(1+(120-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.7)-(Cash_Flows!W27*(1+(120-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="D9" s="16">
-        <f>(Cash_Flows!W27*0.8)-(Cash_Flows!V27*(1+(120-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.8)-(Cash_Flows!W27*(1+(120-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="E9" s="16">
-        <f>(Cash_Flows!W27*0.9)-(Cash_Flows!V27*(1+(120-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.9)-(Cash_Flows!W27*(1+(120-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="F9" s="16">
-        <f>(Cash_Flows!W27*1.0)-(Cash_Flows!V27*(1+(120-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.0)-(Cash_Flows!W27*(1+(120-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="G9" s="16">
-        <f>(Cash_Flows!W27*1.1)-(Cash_Flows!V27*(1+(120-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.1)-(Cash_Flows!W27*(1+(120-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="H9" s="16">
-        <f>(Cash_Flows!W27*1.2)-(Cash_Flows!V27*(1+(120-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.2)-(Cash_Flows!W27*(1+(120-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="I9" s="16">
-        <f>(Cash_Flows!W27*1.3)-(Cash_Flows!V27*(1+(120-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.3)-(Cash_Flows!W27*(1+(120-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="3" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="C10" s="16">
-        <f>(Cash_Flows!W27*0.7)-(Cash_Flows!V27*(1+(140-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.7)-(Cash_Flows!W27*(1+(140-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="D10" s="16">
-        <f>(Cash_Flows!W27*0.8)-(Cash_Flows!V27*(1+(140-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.8)-(Cash_Flows!W27*(1+(140-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="E10" s="16">
-        <f>(Cash_Flows!W27*0.9)-(Cash_Flows!V27*(1+(140-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.9)-(Cash_Flows!W27*(1+(140-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="F10" s="16">
-        <f>(Cash_Flows!W27*1.0)-(Cash_Flows!V27*(1+(140-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.0)-(Cash_Flows!W27*(1+(140-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="G10" s="16">
-        <f>(Cash_Flows!W27*1.1)-(Cash_Flows!V27*(1+(140-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.1)-(Cash_Flows!W27*(1+(140-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="H10" s="16">
-        <f>(Cash_Flows!W27*1.2)-(Cash_Flows!V27*(1+(140-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.2)-(Cash_Flows!W27*(1+(140-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="I10" s="16">
-        <f>(Cash_Flows!W27*1.3)-(Cash_Flows!V27*(1+(140-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.3)-(Cash_Flows!W27*(1+(140-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="3" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="C11" s="16">
-        <f>(Cash_Flows!W27*0.7)-(Cash_Flows!V27*(1+(160-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.7)-(Cash_Flows!W27*(1+(160-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="D11" s="16">
-        <f>(Cash_Flows!W27*0.8)-(Cash_Flows!V27*(1+(160-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.8)-(Cash_Flows!W27*(1+(160-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="E11" s="16">
-        <f>(Cash_Flows!W27*0.9)-(Cash_Flows!V27*(1+(160-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.9)-(Cash_Flows!W27*(1+(160-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="F11" s="16">
-        <f>(Cash_Flows!W27*1.0)-(Cash_Flows!V27*(1+(160-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.0)-(Cash_Flows!W27*(1+(160-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="G11" s="16">
-        <f>(Cash_Flows!W27*1.1)-(Cash_Flows!V27*(1+(160-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.1)-(Cash_Flows!W27*(1+(160-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="H11" s="16">
-        <f>(Cash_Flows!W27*1.2)-(Cash_Flows!V27*(1+(160-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.2)-(Cash_Flows!W27*(1+(160-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="I11" s="16">
-        <f>(Cash_Flows!W27*1.3)-(Cash_Flows!V27*(1+(160-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.3)-(Cash_Flows!W27*(1+(160-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="C12" s="16">
-        <f>(Cash_Flows!W27*0.7)-(Cash_Flows!V27*(1+(180-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.7)-(Cash_Flows!W27*(1+(180-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="D12" s="16">
-        <f>(Cash_Flows!W27*0.8)-(Cash_Flows!V27*(1+(180-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.8)-(Cash_Flows!W27*(1+(180-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="E12" s="16">
-        <f>(Cash_Flows!W27*0.9)-(Cash_Flows!V27*(1+(180-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.9)-(Cash_Flows!W27*(1+(180-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="F12" s="16">
-        <f>(Cash_Flows!W27*1.0)-(Cash_Flows!V27*(1+(180-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.0)-(Cash_Flows!W27*(1+(180-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="G12" s="16">
-        <f>(Cash_Flows!W27*1.1)-(Cash_Flows!V27*(1+(180-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.1)-(Cash_Flows!W27*(1+(180-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="H12" s="16">
-        <f>(Cash_Flows!W27*1.2)-(Cash_Flows!V27*(1+(180-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.2)-(Cash_Flows!W27*(1+(180-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="I12" s="16">
-        <f>(Cash_Flows!W27*1.3)-(Cash_Flows!V27*(1+(180-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.3)-(Cash_Flows!W27*(1+(180-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C13" s="16">
-        <f>(Cash_Flows!W27*0.7)-(Cash_Flows!V27*(1+(200-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.7)-(Cash_Flows!W27*(1+(200-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="D13" s="16">
-        <f>(Cash_Flows!W27*0.8)-(Cash_Flows!V27*(1+(200-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.8)-(Cash_Flows!W27*(1+(200-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="E13" s="16">
-        <f>(Cash_Flows!W27*0.9)-(Cash_Flows!V27*(1+(200-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.9)-(Cash_Flows!W27*(1+(200-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="F13" s="16">
-        <f>(Cash_Flows!W27*1.0)-(Cash_Flows!V27*(1+(200-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.0)-(Cash_Flows!W27*(1+(200-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="G13" s="16">
-        <f>(Cash_Flows!W27*1.1)-(Cash_Flows!V27*(1+(200-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.1)-(Cash_Flows!W27*(1+(200-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="H13" s="16">
-        <f>(Cash_Flows!W27*1.2)-(Cash_Flows!V27*(1+(200-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.2)-(Cash_Flows!W27*(1+(200-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="I13" s="16">
-        <f>(Cash_Flows!W27*1.3)-(Cash_Flows!V27*(1+(200-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.3)-(Cash_Flows!W27*(1+(200-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="3" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="C14" s="16">
-        <f>(Cash_Flows!W27*0.7)-(Cash_Flows!V27*(1+(220-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.7)-(Cash_Flows!W27*(1+(220-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="D14" s="16">
-        <f>(Cash_Flows!W27*0.8)-(Cash_Flows!V27*(1+(220-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.8)-(Cash_Flows!W27*(1+(220-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="E14" s="16">
-        <f>(Cash_Flows!W27*0.9)-(Cash_Flows!V27*(1+(220-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.9)-(Cash_Flows!W27*(1+(220-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="F14" s="16">
-        <f>(Cash_Flows!W27*1.0)-(Cash_Flows!V27*(1+(220-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.0)-(Cash_Flows!W27*(1+(220-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="G14" s="16">
-        <f>(Cash_Flows!W27*1.1)-(Cash_Flows!V27*(1+(220-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.1)-(Cash_Flows!W27*(1+(220-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="H14" s="16">
-        <f>(Cash_Flows!W27*1.2)-(Cash_Flows!V27*(1+(220-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.2)-(Cash_Flows!W27*(1+(220-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="I14" s="16">
-        <f>(Cash_Flows!W27*1.3)-(Cash_Flows!V27*(1+(220-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.3)-(Cash_Flows!W27*(1+(220-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="2" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -5809,264 +6482,264 @@
     </row>
     <row r="18" spans="2:12">
       <c r="B18" s="9" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" s="3" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="C19" s="18">
-        <f>(Cash_Flows!W27*0.7)/(Cash_Flows!V27*(1+(100-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.7)/(Cash_Flows!W27*(1+(100-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="D19" s="18">
-        <f>(Cash_Flows!W27*0.8)/(Cash_Flows!V27*(1+(100-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.8)/(Cash_Flows!W27*(1+(100-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="E19" s="18">
-        <f>(Cash_Flows!W27*0.9)/(Cash_Flows!V27*(1+(100-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.9)/(Cash_Flows!W27*(1+(100-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="F19" s="18">
-        <f>(Cash_Flows!W27*1.0)/(Cash_Flows!V27*(1+(100-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.0)/(Cash_Flows!W27*(1+(100-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="G19" s="18">
-        <f>(Cash_Flows!W27*1.1)/(Cash_Flows!V27*(1+(100-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.1)/(Cash_Flows!W27*(1+(100-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="H19" s="18">
-        <f>(Cash_Flows!W27*1.2)/(Cash_Flows!V27*(1+(100-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.2)/(Cash_Flows!W27*(1+(100-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="I19" s="18">
-        <f>(Cash_Flows!W27*1.3)/(Cash_Flows!V27*(1+(100-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.3)/(Cash_Flows!W27*(1+(100-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="3" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="C20" s="18">
-        <f>(Cash_Flows!W27*0.7)/(Cash_Flows!V27*(1+(120-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.7)/(Cash_Flows!W27*(1+(120-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="D20" s="18">
-        <f>(Cash_Flows!W27*0.8)/(Cash_Flows!V27*(1+(120-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.8)/(Cash_Flows!W27*(1+(120-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="E20" s="18">
-        <f>(Cash_Flows!W27*0.9)/(Cash_Flows!V27*(1+(120-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.9)/(Cash_Flows!W27*(1+(120-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="F20" s="18">
-        <f>(Cash_Flows!W27*1.0)/(Cash_Flows!V27*(1+(120-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.0)/(Cash_Flows!W27*(1+(120-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="G20" s="18">
-        <f>(Cash_Flows!W27*1.1)/(Cash_Flows!V27*(1+(120-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.1)/(Cash_Flows!W27*(1+(120-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="H20" s="18">
-        <f>(Cash_Flows!W27*1.2)/(Cash_Flows!V27*(1+(120-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.2)/(Cash_Flows!W27*(1+(120-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="I20" s="18">
-        <f>(Cash_Flows!W27*1.3)/(Cash_Flows!V27*(1+(120-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.3)/(Cash_Flows!W27*(1+(120-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="3" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="C21" s="18">
-        <f>(Cash_Flows!W27*0.7)/(Cash_Flows!V27*(1+(140-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.7)/(Cash_Flows!W27*(1+(140-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="D21" s="18">
-        <f>(Cash_Flows!W27*0.8)/(Cash_Flows!V27*(1+(140-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.8)/(Cash_Flows!W27*(1+(140-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="E21" s="18">
-        <f>(Cash_Flows!W27*0.9)/(Cash_Flows!V27*(1+(140-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.9)/(Cash_Flows!W27*(1+(140-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="F21" s="18">
-        <f>(Cash_Flows!W27*1.0)/(Cash_Flows!V27*(1+(140-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.0)/(Cash_Flows!W27*(1+(140-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="G21" s="18">
-        <f>(Cash_Flows!W27*1.1)/(Cash_Flows!V27*(1+(140-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.1)/(Cash_Flows!W27*(1+(140-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="H21" s="18">
-        <f>(Cash_Flows!W27*1.2)/(Cash_Flows!V27*(1+(140-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.2)/(Cash_Flows!W27*(1+(140-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="I21" s="18">
-        <f>(Cash_Flows!W27*1.3)/(Cash_Flows!V27*(1+(140-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.3)/(Cash_Flows!W27*(1+(140-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="3" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="C22" s="18">
-        <f>(Cash_Flows!W27*0.7)/(Cash_Flows!V27*(1+(160-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.7)/(Cash_Flows!W27*(1+(160-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="D22" s="18">
-        <f>(Cash_Flows!W27*0.8)/(Cash_Flows!V27*(1+(160-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.8)/(Cash_Flows!W27*(1+(160-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="E22" s="18">
-        <f>(Cash_Flows!W27*0.9)/(Cash_Flows!V27*(1+(160-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.9)/(Cash_Flows!W27*(1+(160-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="F22" s="18">
-        <f>(Cash_Flows!W27*1.0)/(Cash_Flows!V27*(1+(160-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.0)/(Cash_Flows!W27*(1+(160-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="G22" s="18">
-        <f>(Cash_Flows!W27*1.1)/(Cash_Flows!V27*(1+(160-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.1)/(Cash_Flows!W27*(1+(160-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="H22" s="18">
-        <f>(Cash_Flows!W27*1.2)/(Cash_Flows!V27*(1+(160-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.2)/(Cash_Flows!W27*(1+(160-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="I22" s="18">
-        <f>(Cash_Flows!W27*1.3)/(Cash_Flows!V27*(1+(160-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.3)/(Cash_Flows!W27*(1+(160-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="C23" s="18">
-        <f>(Cash_Flows!W27*0.7)/(Cash_Flows!V27*(1+(180-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.7)/(Cash_Flows!W27*(1+(180-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="D23" s="18">
-        <f>(Cash_Flows!W27*0.8)/(Cash_Flows!V27*(1+(180-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.8)/(Cash_Flows!W27*(1+(180-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="E23" s="18">
-        <f>(Cash_Flows!W27*0.9)/(Cash_Flows!V27*(1+(180-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.9)/(Cash_Flows!W27*(1+(180-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="F23" s="18">
-        <f>(Cash_Flows!W27*1.0)/(Cash_Flows!V27*(1+(180-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.0)/(Cash_Flows!W27*(1+(180-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="G23" s="18">
-        <f>(Cash_Flows!W27*1.1)/(Cash_Flows!V27*(1+(180-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.1)/(Cash_Flows!W27*(1+(180-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="H23" s="18">
-        <f>(Cash_Flows!W27*1.2)/(Cash_Flows!V27*(1+(180-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.2)/(Cash_Flows!W27*(1+(180-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="I23" s="18">
-        <f>(Cash_Flows!W27*1.3)/(Cash_Flows!V27*(1+(180-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.3)/(Cash_Flows!W27*(1+(180-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:12">
       <c r="B24" s="3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C24" s="18">
-        <f>(Cash_Flows!W27*0.7)/(Cash_Flows!V27*(1+(200-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.7)/(Cash_Flows!W27*(1+(200-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="D24" s="18">
-        <f>(Cash_Flows!W27*0.8)/(Cash_Flows!V27*(1+(200-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.8)/(Cash_Flows!W27*(1+(200-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="E24" s="18">
-        <f>(Cash_Flows!W27*0.9)/(Cash_Flows!V27*(1+(200-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.9)/(Cash_Flows!W27*(1+(200-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="F24" s="18">
-        <f>(Cash_Flows!W27*1.0)/(Cash_Flows!V27*(1+(200-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.0)/(Cash_Flows!W27*(1+(200-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="G24" s="18">
-        <f>(Cash_Flows!W27*1.1)/(Cash_Flows!V27*(1+(200-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.1)/(Cash_Flows!W27*(1+(200-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="H24" s="18">
-        <f>(Cash_Flows!W27*1.2)/(Cash_Flows!V27*(1+(200-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.2)/(Cash_Flows!W27*(1+(200-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="I24" s="18">
-        <f>(Cash_Flows!W27*1.3)/(Cash_Flows!V27*(1+(200-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.3)/(Cash_Flows!W27*(1+(200-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:12">
       <c r="B25" s="3" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="C25" s="18">
-        <f>(Cash_Flows!W27*0.7)/(Cash_Flows!V27*(1+(220-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.7)/(Cash_Flows!W27*(1+(220-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="D25" s="18">
-        <f>(Cash_Flows!W27*0.8)/(Cash_Flows!V27*(1+(220-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.8)/(Cash_Flows!W27*(1+(220-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="E25" s="18">
-        <f>(Cash_Flows!W27*0.9)/(Cash_Flows!V27*(1+(220-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*0.9)/(Cash_Flows!W27*(1+(220-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="F25" s="18">
-        <f>(Cash_Flows!W27*1.0)/(Cash_Flows!V27*(1+(220-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.0)/(Cash_Flows!W27*(1+(220-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="G25" s="18">
-        <f>(Cash_Flows!W27*1.1)/(Cash_Flows!V27*(1+(220-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.1)/(Cash_Flows!W27*(1+(220-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="H25" s="18">
-        <f>(Cash_Flows!W27*1.2)/(Cash_Flows!V27*(1+(220-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.2)/(Cash_Flows!W27*(1+(220-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
       <c r="I25" s="18">
-        <f>(Cash_Flows!W27*1.3)/(Cash_Flows!V27*(1+(220-Inputs!$C$28)/Inputs!$C$28))</f>
+        <f>(Cash_Flows!X27*1.3)/(Cash_Flows!W27*(1+(220-Inputs!$C26)/Inputs!$C26))</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:12">
       <c r="B28" s="2" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -6074,16 +6747,16 @@
     </row>
     <row r="29" spans="2:12">
       <c r="B29" s="9" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="2:12">
@@ -6091,41 +6764,41 @@
         <v>39</v>
       </c>
       <c r="C30">
-        <f>Inputs!C28</f>
+        <f>Inputs!C26</f>
         <v>0</v>
       </c>
       <c r="D30" s="16">
-        <f>Results!C12-(Calculations!C9*0.2/(1+Inputs!C14)^0)</f>
+        <f>Results!C12-(Calculations!C9*0.2/(1+Inputs!C16)^0)</f>
         <v>0</v>
       </c>
       <c r="E30" s="16">
-        <f>Results!C12+(Calculations!C9*0.2/(1+Inputs!C14)^0)</f>
+        <f>Results!C12+(Calculations!C9*0.2/(1+Inputs!C16)^0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:12">
       <c r="B31" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="C31">
-        <f>Cash_Flows!W27</f>
+        <f>Cash_Flows!X27</f>
         <v>0</v>
       </c>
       <c r="D31" s="16">
-        <f>Results!C12-Cash_Flows!W27*0.2</f>
+        <f>Results!C12-Cash_Flows!X27*0.2</f>
         <v>0</v>
       </c>
       <c r="E31" s="16">
-        <f>Results!C12+Cash_Flows!W27*0.2</f>
+        <f>Results!C12+Cash_Flows!X27*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:12">
       <c r="B32" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="C32">
-        <f>Inputs!C14</f>
+        <f>Inputs!C16</f>
         <v>0</v>
       </c>
       <c r="D32" s="16">
@@ -6142,7 +6815,7 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <f>Inputs!C23</f>
+        <f>Inputs!C24</f>
         <v>0</v>
       </c>
       <c r="D33" s="16">
@@ -6156,7 +6829,7 @@
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="2" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -6171,27 +6844,27 @@
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="5" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="2:12">
       <c r="B38" s="5" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="2:12">
       <c r="B39" s="5" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="5" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="2:12">
       <c r="B41" s="5" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -6305,152 +6978,152 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="45" customHeight="1">
       <c r="B5" s="19" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="2" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="3" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="5" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="3" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="5" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="3" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="5" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="3" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="5" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="3" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="5" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="2" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="19" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="19" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="19" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="19" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="19" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="19" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="19" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="19" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="2" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="45" customHeight="1">
       <c r="B39" s="19" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -6472,21 +7145,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="9" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6505,7 +7178,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="B5">
         <v>25</v>
@@ -6533,7 +7206,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="B7">
         <v>55</v>
@@ -6575,44 +7248,44 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="B10" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C10" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="D10" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="B11" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="C11" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="D11" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="B12" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="C12" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="D12" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6645,54 +7318,54 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="B15" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="C15" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="D15" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="B18" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="C18" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="D18" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="B19" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="C19" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="D19" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -6739,16 +7412,16 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="B25" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="C25" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="D25" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -6756,46 +7429,46 @@
         <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="C26" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="D26" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="B29" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="C29" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="D29" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="B30" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="C30" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="D30" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -6814,30 +7487,30 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="B32" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C32" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="D32" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="B33" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="C33" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="D33" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -6845,23 +7518,23 @@
         <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="C34" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="D34" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="B37" s="16">
         <v>150</v>
@@ -6875,7 +7548,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="B38" s="16">
         <v>40</v>
@@ -6889,7 +7562,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="B39" s="16">
         <v>15</v>
@@ -6903,7 +7576,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="B40" s="16">
         <v>25</v>
@@ -6917,7 +7590,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="B41" s="16">
         <v>50</v>
@@ -6931,7 +7604,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="B42" s="16">
         <v>25</v>
@@ -6945,7 +7618,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="B43" s="16">
         <v>15</v>
@@ -6959,7 +7632,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="B44" s="16">
         <v>8</v>
@@ -6978,7 +7651,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C374"/>
+  <dimension ref="B1:C492"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6991,111 +7664,111 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="1" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="2" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="20" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="C4" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="5" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="20" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="C6" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="5" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="20" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="C8" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="5" t="s">
-        <v>321</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="20" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="C10" t="s">
-        <v>323</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="5" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="20" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="C12" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="20" t="s">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="C13" t="s">
-        <v>328</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="5" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="5" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="20" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="C16" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="2" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="21" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -7103,431 +7776,435 @@
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="21" t="s">
-        <v>335</v>
+        <v>366</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="21" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="21" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="21" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="21"/>
+      <c r="B27" s="21" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="21" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="21" t="s">
-        <v>339</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="21" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="21" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="21" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="21" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="21" t="s">
-        <v>343</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="21"/>
+      <c r="B35" s="21" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="21" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="21" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="21" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="21" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="21" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="21" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="21" t="s">
-        <v>350</v>
-      </c>
+      <c r="B42" s="21"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="21"/>
+      <c r="B43" s="21" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="21" t="s">
-        <v>351</v>
+        <v>385</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="21" t="s">
-        <v>352</v>
+        <v>386</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="21" t="s">
-        <v>353</v>
+        <v>385</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="21" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="21" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="21" t="s">
-        <v>356</v>
+        <v>389</v>
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="21" t="s">
-        <v>357</v>
-      </c>
+      <c r="B50" s="21"/>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="21" t="s">
-        <v>358</v>
+        <v>390</v>
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="21"/>
+      <c r="B52" s="21" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="21" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="21" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="21" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="21"/>
+      <c r="B56" s="21" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="21" t="s">
-        <v>362</v>
+        <v>396</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="21" t="s">
-        <v>363</v>
-      </c>
+      <c r="B58" s="21"/>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="21" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="21" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="21" t="s">
-        <v>366</v>
+        <v>399</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="21" t="s">
-        <v>367</v>
+        <v>400</v>
       </c>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="21"/>
+      <c r="B63" s="21" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="21" t="s">
-        <v>368</v>
+        <v>402</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="21" t="s">
-        <v>369</v>
+        <v>403</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="21" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="21" t="s">
-        <v>371</v>
-      </c>
+      <c r="B67" s="21"/>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="21" t="s">
-        <v>372</v>
+        <v>405</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="21" t="s">
-        <v>373</v>
+        <v>406</v>
       </c>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="21"/>
+      <c r="B70" s="21" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="21" t="s">
-        <v>374</v>
-      </c>
+      <c r="B71" s="21"/>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="21" t="s">
-        <v>375</v>
+        <v>408</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="21" t="s">
-        <v>376</v>
+        <v>409</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="21" t="s">
-        <v>377</v>
+        <v>410</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="21" t="s">
-        <v>378</v>
+        <v>411</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="21" t="s">
-        <v>379</v>
+        <v>412</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="21" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="21" t="s">
-        <v>381</v>
-      </c>
+      <c r="B78" s="21"/>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="21" t="s">
-        <v>382</v>
+        <v>414</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="21" t="s">
-        <v>383</v>
+        <v>415</v>
       </c>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="21"/>
+      <c r="B81" s="21" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" s="21" t="s">
-        <v>384</v>
+        <v>417</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="21" t="s">
-        <v>385</v>
+        <v>418</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="21" t="s">
-        <v>386</v>
+        <v>419</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="21"/>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="21"/>
+      <c r="B86" s="21" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="21" t="s">
-        <v>387</v>
+        <v>421</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" s="21" t="s">
-        <v>339</v>
+        <v>422</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="21" t="s">
-        <v>388</v>
+        <v>423</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="21" t="s">
-        <v>339</v>
+        <v>424</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="21" t="s">
-        <v>341</v>
+        <v>425</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="21" t="s">
-        <v>389</v>
+        <v>426</v>
       </c>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="21"/>
+      <c r="B93" s="21" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="21" t="s">
-        <v>390</v>
+        <v>428</v>
       </c>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="21" t="s">
-        <v>391</v>
-      </c>
+      <c r="B95" s="21"/>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="21" t="s">
-        <v>392</v>
+        <v>429</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="21" t="s">
-        <v>393</v>
+        <v>430</v>
       </c>
     </row>
     <row r="98" spans="2:2">
-      <c r="B98" s="21" t="s">
-        <v>394</v>
-      </c>
+      <c r="B98" s="21"/>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="21" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="21" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
     </row>
     <row r="101" spans="2:2">
-      <c r="B101" s="21"/>
+      <c r="B101" s="21" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="102" spans="2:2">
-      <c r="B102" s="21" t="s">
-        <v>397</v>
-      </c>
+      <c r="B102" s="21"/>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="21" t="s">
-        <v>398</v>
+        <v>434</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="21" t="s">
-        <v>399</v>
+        <v>435</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" s="21" t="s">
-        <v>400</v>
+        <v>436</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="21" t="s">
-        <v>401</v>
+        <v>437</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="21" t="s">
-        <v>402</v>
+        <v>438</v>
       </c>
     </row>
     <row r="108" spans="2:2">
-      <c r="B108" s="21" t="s">
-        <v>403</v>
-      </c>
+      <c r="B108" s="21"/>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="21" t="s">
-        <v>404</v>
+        <v>439</v>
       </c>
     </row>
     <row r="110" spans="2:2">
-      <c r="B110" s="21"/>
+      <c r="B110" s="21" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="21" t="s">
-        <v>359</v>
+        <v>441</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="21" t="s">
-        <v>405</v>
+        <v>442</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="21" t="s">
-        <v>406</v>
+        <v>443</v>
       </c>
     </row>
     <row r="114" spans="2:2">
@@ -7535,215 +8212,213 @@
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="21" t="s">
-        <v>407</v>
+        <v>444</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="21" t="s">
-        <v>408</v>
+        <v>445</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" s="21" t="s">
-        <v>409</v>
+        <v>446</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" s="21" t="s">
-        <v>410</v>
+        <v>447</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" s="21" t="s">
-        <v>411</v>
+        <v>448</v>
       </c>
     </row>
     <row r="120" spans="2:2">
-      <c r="B120" s="21" t="s">
-        <v>412</v>
-      </c>
+      <c r="B120" s="21"/>
     </row>
     <row r="121" spans="2:2">
-      <c r="B121" s="21"/>
+      <c r="B121" s="21" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="21" t="s">
-        <v>413</v>
+        <v>450</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" s="21" t="s">
-        <v>414</v>
+        <v>451</v>
       </c>
     </row>
     <row r="124" spans="2:2">
-      <c r="B124" s="21" t="s">
-        <v>415</v>
-      </c>
+      <c r="B124" s="21"/>
     </row>
     <row r="125" spans="2:2">
-      <c r="B125" s="21" t="s">
-        <v>416</v>
-      </c>
+      <c r="B125" s="21"/>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" s="21" t="s">
-        <v>417</v>
+        <v>452</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" s="21" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
     </row>
     <row r="128" spans="2:2">
-      <c r="B128" s="21"/>
+      <c r="B128" s="21" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" s="21" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="21" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" s="21" t="s">
-        <v>421</v>
+        <v>454</v>
       </c>
     </row>
     <row r="132" spans="2:2">
-      <c r="B132" s="21" t="s">
-        <v>422</v>
-      </c>
+      <c r="B132" s="21"/>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" s="21" t="s">
-        <v>423</v>
+        <v>455</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="21" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="21" t="s">
-        <v>425</v>
+        <v>456</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="21" t="s">
-        <v>426</v>
+        <v>457</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="21" t="s">
-        <v>427</v>
+        <v>458</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="21" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="139" spans="2:2">
-      <c r="B139" s="21"/>
+      <c r="B139" s="21" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="140" spans="2:2">
-      <c r="B140" s="21" t="s">
-        <v>384</v>
-      </c>
+      <c r="B140" s="21"/>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="21" t="s">
-        <v>428</v>
+        <v>459</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="21" t="s">
-        <v>386</v>
+        <v>460</v>
       </c>
     </row>
     <row r="143" spans="2:2">
-      <c r="B143" s="21"/>
+      <c r="B143" s="21" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="144" spans="2:2">
-      <c r="B144" s="21"/>
+      <c r="B144" s="21" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="21" t="s">
-        <v>429</v>
+        <v>463</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="21" t="s">
-        <v>339</v>
+        <v>464</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" s="21" t="s">
-        <v>430</v>
+        <v>465</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" s="21" t="s">
-        <v>431</v>
+        <v>404</v>
       </c>
     </row>
     <row r="149" spans="2:2">
-      <c r="B149" s="21" t="s">
-        <v>339</v>
-      </c>
+      <c r="B149" s="21"/>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="21" t="s">
-        <v>341</v>
+        <v>405</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" s="21" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
     </row>
     <row r="152" spans="2:2">
-      <c r="B152" s="21"/>
+      <c r="B152" s="21" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="153" spans="2:2">
-      <c r="B153" s="21" t="s">
-        <v>390</v>
-      </c>
+      <c r="B153" s="21"/>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" s="21" t="s">
-        <v>391</v>
+        <v>466</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="21" t="s">
-        <v>433</v>
+        <v>467</v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156" s="21" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
     </row>
     <row r="157" spans="2:2">
       <c r="B157" s="21" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158" s="21" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="21" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
     </row>
     <row r="160" spans="2:2">
@@ -7751,93 +8426,93 @@
     </row>
     <row r="161" spans="2:2">
       <c r="B161" s="21" t="s">
-        <v>397</v>
+        <v>470</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162" s="21" t="s">
-        <v>436</v>
+        <v>471</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" s="21" t="s">
-        <v>437</v>
+        <v>472</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164" s="21" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165" s="21" t="s">
-        <v>439</v>
+        <v>473</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" s="21" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="167" spans="2:2">
-      <c r="B167" s="21" t="s">
-        <v>441</v>
-      </c>
+      <c r="B167" s="21"/>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="21" t="s">
-        <v>404</v>
+        <v>474</v>
       </c>
     </row>
     <row r="169" spans="2:2">
-      <c r="B169" s="21"/>
+      <c r="B169" s="21" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" s="21" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" s="21" t="s">
-        <v>405</v>
+        <v>477</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172" s="21" t="s">
-        <v>443</v>
+        <v>478</v>
       </c>
     </row>
     <row r="173" spans="2:2">
-      <c r="B173" s="21"/>
+      <c r="B173" s="21" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" s="21" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" s="21" t="s">
-        <v>445</v>
+        <v>481</v>
       </c>
     </row>
     <row r="176" spans="2:2">
       <c r="B176" s="21" t="s">
-        <v>446</v>
+        <v>482</v>
       </c>
     </row>
     <row r="177" spans="2:2">
-      <c r="B177" s="21" t="s">
-        <v>447</v>
-      </c>
+      <c r="B177" s="21"/>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" s="21" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="21" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="180" spans="2:2">
@@ -7845,200 +8520,198 @@
     </row>
     <row r="181" spans="2:2">
       <c r="B181" s="21" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="182" spans="2:2">
       <c r="B182" s="21" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
     </row>
     <row r="183" spans="2:2">
       <c r="B183" s="21" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
     </row>
     <row r="184" spans="2:2">
-      <c r="B184" s="21" t="s">
-        <v>452</v>
-      </c>
+      <c r="B184" s="21"/>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" s="21" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" s="21" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
     </row>
     <row r="187" spans="2:2">
-      <c r="B187" s="21"/>
+      <c r="B187" s="21" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" s="21" t="s">
-        <v>454</v>
+        <v>484</v>
       </c>
     </row>
     <row r="189" spans="2:2">
       <c r="B189" s="21" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
     </row>
     <row r="190" spans="2:2">
-      <c r="B190" s="21" t="s">
-        <v>456</v>
-      </c>
+      <c r="B190" s="21"/>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" s="21" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
     </row>
     <row r="192" spans="2:2">
       <c r="B192" s="21" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193" s="21" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" s="21" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" s="21" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
     </row>
     <row r="196" spans="2:2">
-      <c r="B196" s="21" t="s">
-        <v>462</v>
-      </c>
+      <c r="B196" s="21"/>
     </row>
     <row r="197" spans="2:2">
       <c r="B197" s="21" t="s">
-        <v>383</v>
+        <v>444</v>
       </c>
     </row>
     <row r="198" spans="2:2">
-      <c r="B198" s="21"/>
+      <c r="B198" s="21" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="199" spans="2:2">
       <c r="B199" s="21" t="s">
-        <v>384</v>
+        <v>446</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" s="21" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" s="21" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
     </row>
     <row r="202" spans="2:2">
-      <c r="B202" s="21" t="s">
-        <v>386</v>
-      </c>
+      <c r="B202" s="21"/>
     </row>
     <row r="203" spans="2:2">
-      <c r="B203" s="21"/>
+      <c r="B203" s="21" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="204" spans="2:2">
-      <c r="B204" s="21"/>
+      <c r="B204" s="21" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="205" spans="2:2">
       <c r="B205" s="21" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
     </row>
     <row r="206" spans="2:2">
-      <c r="B206" s="21" t="s">
-        <v>339</v>
-      </c>
+      <c r="B206" s="21"/>
     </row>
     <row r="207" spans="2:2">
-      <c r="B207" s="21" t="s">
-        <v>466</v>
-      </c>
+      <c r="B207" s="21"/>
     </row>
     <row r="208" spans="2:2">
       <c r="B208" s="21" t="s">
-        <v>339</v>
+        <v>486</v>
       </c>
     </row>
     <row r="209" spans="2:2">
       <c r="B209" s="21" t="s">
-        <v>467</v>
+        <v>385</v>
       </c>
     </row>
     <row r="210" spans="2:2">
       <c r="B210" s="21" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
     </row>
     <row r="211" spans="2:2">
       <c r="B211" s="21" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
     </row>
     <row r="212" spans="2:2">
       <c r="B212" s="21" t="s">
-        <v>470</v>
+        <v>385</v>
       </c>
     </row>
     <row r="213" spans="2:2">
-      <c r="B213" s="21"/>
+      <c r="B213" s="21" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="214" spans="2:2">
       <c r="B214" s="21" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
     </row>
     <row r="215" spans="2:2">
-      <c r="B215" s="21" t="s">
-        <v>472</v>
-      </c>
+      <c r="B215" s="21"/>
     </row>
     <row r="216" spans="2:2">
-      <c r="B216" s="21"/>
+      <c r="B216" s="21" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="217" spans="2:2">
       <c r="B217" s="21" t="s">
-        <v>473</v>
+        <v>391</v>
       </c>
     </row>
     <row r="218" spans="2:2">
       <c r="B218" s="21" t="s">
-        <v>474</v>
+        <v>392</v>
       </c>
     </row>
     <row r="219" spans="2:2">
       <c r="B219" s="21" t="s">
-        <v>475</v>
+        <v>393</v>
       </c>
     </row>
     <row r="220" spans="2:2">
       <c r="B220" s="21" t="s">
-        <v>476</v>
+        <v>394</v>
       </c>
     </row>
     <row r="221" spans="2:2">
       <c r="B221" s="21" t="s">
-        <v>477</v>
+        <v>395</v>
       </c>
     </row>
     <row r="222" spans="2:2">
       <c r="B222" s="21" t="s">
-        <v>478</v>
+        <v>396</v>
       </c>
     </row>
     <row r="223" spans="2:2">
@@ -8046,373 +8719,363 @@
     </row>
     <row r="224" spans="2:2">
       <c r="B224" s="21" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
     </row>
     <row r="225" spans="2:2">
       <c r="B225" s="21" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="226" spans="2:2">
       <c r="B226" s="21" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="227" spans="2:2">
-      <c r="B227" s="21"/>
+      <c r="B227" s="21" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="228" spans="2:2">
       <c r="B228" s="21" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="229" spans="2:2">
       <c r="B229" s="21" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
     </row>
     <row r="230" spans="2:2">
       <c r="B230" s="21" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
     </row>
     <row r="231" spans="2:2">
       <c r="B231" s="21" t="s">
-        <v>485</v>
+        <v>404</v>
       </c>
     </row>
     <row r="232" spans="2:2">
-      <c r="B232" s="21" t="s">
-        <v>486</v>
-      </c>
+      <c r="B232" s="21"/>
     </row>
     <row r="233" spans="2:2">
       <c r="B233" s="21" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="234" spans="2:2">
-      <c r="B234" s="21"/>
+      <c r="B234" s="21" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="235" spans="2:2">
       <c r="B235" s="21" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
     </row>
     <row r="236" spans="2:2">
-      <c r="B236" s="21" t="s">
-        <v>489</v>
-      </c>
+      <c r="B236" s="21"/>
     </row>
     <row r="237" spans="2:2">
       <c r="B237" s="21" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
     </row>
     <row r="238" spans="2:2">
       <c r="B238" s="21" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
     </row>
     <row r="239" spans="2:2">
       <c r="B239" s="21" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
     </row>
     <row r="240" spans="2:2">
-      <c r="B240" s="21"/>
+      <c r="B240" s="21" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="241" spans="2:2">
       <c r="B241" s="21" t="s">
-        <v>492</v>
+        <v>412</v>
       </c>
     </row>
     <row r="242" spans="2:2">
       <c r="B242" s="21" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
     </row>
     <row r="243" spans="2:2">
-      <c r="B243" s="21" t="s">
-        <v>491</v>
-      </c>
+      <c r="B243" s="21"/>
     </row>
     <row r="244" spans="2:2">
       <c r="B244" s="21" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
     </row>
     <row r="245" spans="2:2">
       <c r="B245" s="21" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
     </row>
     <row r="246" spans="2:2">
       <c r="B246" s="21" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
     </row>
     <row r="247" spans="2:2">
       <c r="B247" s="21" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="248" spans="2:2">
       <c r="B248" s="21" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
     </row>
     <row r="249" spans="2:2">
       <c r="B249" s="21" t="s">
-        <v>491</v>
+        <v>419</v>
       </c>
     </row>
     <row r="250" spans="2:2">
-      <c r="B250" s="21" t="s">
-        <v>498</v>
-      </c>
+      <c r="B250" s="21"/>
     </row>
     <row r="251" spans="2:2">
       <c r="B251" s="21" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
     </row>
     <row r="252" spans="2:2">
       <c r="B252" s="21" t="s">
-        <v>487</v>
+        <v>508</v>
       </c>
     </row>
     <row r="253" spans="2:2">
-      <c r="B253" s="21"/>
+      <c r="B253" s="21" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="254" spans="2:2">
       <c r="B254" s="21" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
     </row>
     <row r="255" spans="2:2">
       <c r="B255" s="21" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="256" spans="2:2">
       <c r="B256" s="21" t="s">
-        <v>484</v>
+        <v>512</v>
       </c>
     </row>
     <row r="257" spans="2:2">
       <c r="B257" s="21" t="s">
-        <v>490</v>
+        <v>513</v>
       </c>
     </row>
     <row r="258" spans="2:2">
       <c r="B258" s="21" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
     </row>
     <row r="259" spans="2:2">
-      <c r="B259" s="21"/>
+      <c r="B259" s="21" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="260" spans="2:2">
-      <c r="B260" s="21" t="s">
-        <v>502</v>
-      </c>
+      <c r="B260" s="21"/>
     </row>
     <row r="261" spans="2:2">
       <c r="B261" s="21" t="s">
-        <v>503</v>
+        <v>429</v>
       </c>
     </row>
     <row r="262" spans="2:2">
       <c r="B262" s="21" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="263" spans="2:2">
-      <c r="B263" s="21" t="s">
-        <v>491</v>
-      </c>
+      <c r="B263" s="21"/>
     </row>
     <row r="264" spans="2:2">
       <c r="B264" s="21" t="s">
-        <v>505</v>
+        <v>431</v>
       </c>
     </row>
     <row r="265" spans="2:2">
       <c r="B265" s="21" t="s">
-        <v>506</v>
+        <v>432</v>
       </c>
     </row>
     <row r="266" spans="2:2">
       <c r="B266" s="21" t="s">
-        <v>507</v>
+        <v>433</v>
       </c>
     </row>
     <row r="267" spans="2:2">
-      <c r="B267" s="21" t="s">
-        <v>491</v>
-      </c>
+      <c r="B267" s="21"/>
     </row>
     <row r="268" spans="2:2">
       <c r="B268" s="21" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
     </row>
     <row r="269" spans="2:2">
       <c r="B269" s="21" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
     </row>
     <row r="270" spans="2:2">
       <c r="B270" s="21" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
     </row>
     <row r="271" spans="2:2">
       <c r="B271" s="21" t="s">
-        <v>491</v>
+        <v>520</v>
       </c>
     </row>
     <row r="272" spans="2:2">
       <c r="B272" s="21" t="s">
-        <v>511</v>
+        <v>438</v>
       </c>
     </row>
     <row r="273" spans="2:2">
-      <c r="B273" s="21" t="s">
-        <v>512</v>
-      </c>
+      <c r="B273" s="21"/>
     </row>
     <row r="274" spans="2:2">
       <c r="B274" s="21" t="s">
-        <v>513</v>
+        <v>439</v>
       </c>
     </row>
     <row r="275" spans="2:2">
       <c r="B275" s="21" t="s">
-        <v>491</v>
+        <v>440</v>
       </c>
     </row>
     <row r="276" spans="2:2">
       <c r="B276" s="21" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
     </row>
     <row r="277" spans="2:2">
       <c r="B277" s="21" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="278" spans="2:2">
       <c r="B278" s="21" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
     </row>
     <row r="279" spans="2:2">
-      <c r="B279" s="21" t="s">
-        <v>487</v>
-      </c>
+      <c r="B279" s="21"/>
     </row>
     <row r="280" spans="2:2">
-      <c r="B280" s="21"/>
+      <c r="B280" s="21" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="281" spans="2:2">
       <c r="B281" s="21" t="s">
-        <v>517</v>
+        <v>445</v>
       </c>
     </row>
     <row r="282" spans="2:2">
       <c r="B282" s="21" t="s">
-        <v>518</v>
+        <v>446</v>
       </c>
     </row>
     <row r="283" spans="2:2">
       <c r="B283" s="21" t="s">
-        <v>484</v>
+        <v>524</v>
       </c>
     </row>
     <row r="284" spans="2:2">
       <c r="B284" s="21" t="s">
-        <v>490</v>
+        <v>448</v>
       </c>
     </row>
     <row r="285" spans="2:2">
-      <c r="B285" s="21" t="s">
-        <v>491</v>
-      </c>
+      <c r="B285" s="21"/>
     </row>
     <row r="286" spans="2:2">
-      <c r="B286" s="21"/>
+      <c r="B286" s="21" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="287" spans="2:2">
       <c r="B287" s="21" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
     </row>
     <row r="288" spans="2:2">
       <c r="B288" s="21" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
     <row r="289" spans="2:2">
       <c r="B289" s="21" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
     <row r="290" spans="2:2">
       <c r="B290" s="21" t="s">
-        <v>522</v>
+        <v>451</v>
       </c>
     </row>
     <row r="291" spans="2:2">
-      <c r="B291" s="21" t="s">
-        <v>523</v>
-      </c>
+      <c r="B291" s="21"/>
     </row>
     <row r="292" spans="2:2">
-      <c r="B292" s="21" t="s">
-        <v>524</v>
-      </c>
+      <c r="B292" s="21"/>
     </row>
     <row r="293" spans="2:2">
       <c r="B293" s="21" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="294" spans="2:2">
       <c r="B294" s="21" t="s">
-        <v>526</v>
+        <v>385</v>
       </c>
     </row>
     <row r="295" spans="2:2">
       <c r="B295" s="21" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="296" spans="2:2">
       <c r="B296" s="21" t="s">
-        <v>528</v>
+        <v>385</v>
       </c>
     </row>
     <row r="297" spans="2:2">
       <c r="B297" s="21" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="298" spans="2:2">
       <c r="B298" s="21" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="299" spans="2:2">
       <c r="B299" s="21" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="300" spans="2:2">
       <c r="B300" s="21" t="s">
-        <v>484</v>
+        <v>533</v>
       </c>
     </row>
     <row r="301" spans="2:2">
@@ -8420,362 +9083,1017 @@
     </row>
     <row r="302" spans="2:2">
       <c r="B302" s="21" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="303" spans="2:2">
       <c r="B303" s="21" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="304" spans="2:2">
-      <c r="B304" s="21" t="s">
-        <v>534</v>
-      </c>
+      <c r="B304" s="21"/>
     </row>
     <row r="305" spans="2:2">
-      <c r="B305" s="21"/>
+      <c r="B305" s="21" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="306" spans="2:2">
       <c r="B306" s="21" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="307" spans="2:2">
       <c r="B307" s="21" t="s">
-        <v>386</v>
+        <v>538</v>
       </c>
     </row>
     <row r="308" spans="2:2">
-      <c r="B308" s="21"/>
+      <c r="B308" s="21" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="309" spans="2:2">
-      <c r="B309" s="21"/>
+      <c r="B309" s="21" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="310" spans="2:2">
       <c r="B310" s="21" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
     </row>
     <row r="311" spans="2:2">
-      <c r="B311" s="21" t="s">
-        <v>339</v>
-      </c>
+      <c r="B311" s="21"/>
     </row>
     <row r="312" spans="2:2">
       <c r="B312" s="21" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
     </row>
     <row r="313" spans="2:2">
       <c r="B313" s="21" t="s">
-        <v>339</v>
+        <v>543</v>
       </c>
     </row>
     <row r="314" spans="2:2">
       <c r="B314" s="21" t="s">
-        <v>467</v>
+        <v>544</v>
       </c>
     </row>
     <row r="315" spans="2:2">
-      <c r="B315" s="21" t="s">
-        <v>538</v>
-      </c>
+      <c r="B315" s="21"/>
     </row>
     <row r="316" spans="2:2">
-      <c r="B316" s="21"/>
+      <c r="B316" s="21" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="317" spans="2:2">
       <c r="B317" s="21" t="s">
-        <v>474</v>
+        <v>546</v>
       </c>
     </row>
     <row r="318" spans="2:2">
       <c r="B318" s="21" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
     </row>
     <row r="319" spans="2:2">
       <c r="B319" s="21" t="s">
-        <v>478</v>
+        <v>548</v>
       </c>
     </row>
     <row r="320" spans="2:2">
-      <c r="B320" s="21"/>
+      <c r="B320" s="21" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="321" spans="2:2">
       <c r="B321" s="21" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
     </row>
     <row r="322" spans="2:2">
-      <c r="B322" s="21" t="s">
-        <v>541</v>
-      </c>
+      <c r="B322" s="21"/>
     </row>
     <row r="323" spans="2:2">
       <c r="B323" s="21" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
     </row>
     <row r="324" spans="2:2">
       <c r="B324" s="21" t="s">
-        <v>531</v>
+        <v>552</v>
       </c>
     </row>
     <row r="325" spans="2:2">
-      <c r="B325" s="21"/>
+      <c r="B325" s="21" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="326" spans="2:2">
       <c r="B326" s="21" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
     </row>
     <row r="327" spans="2:2">
       <c r="B327" s="21" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
     </row>
     <row r="328" spans="2:2">
-      <c r="B328" s="21" t="s">
-        <v>545</v>
-      </c>
+      <c r="B328" s="21"/>
     </row>
     <row r="329" spans="2:2">
       <c r="B329" s="21" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
     </row>
     <row r="330" spans="2:2">
-      <c r="B330" s="21"/>
+      <c r="B330" s="21" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="331" spans="2:2">
       <c r="B331" s="21" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
     </row>
     <row r="332" spans="2:2">
       <c r="B332" s="21" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
     </row>
     <row r="333" spans="2:2">
       <c r="B333" s="21" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
     </row>
     <row r="334" spans="2:2">
       <c r="B334" s="21" t="s">
-        <v>531</v>
+        <v>554</v>
       </c>
     </row>
     <row r="335" spans="2:2">
       <c r="B335" s="21" t="s">
-        <v>386</v>
+        <v>559</v>
       </c>
     </row>
     <row r="336" spans="2:2">
-      <c r="B336" s="21"/>
+      <c r="B336" s="21" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="337" spans="2:2">
-      <c r="B337" s="21"/>
+      <c r="B337" s="21" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="338" spans="2:2">
       <c r="B338" s="21" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
     </row>
     <row r="339" spans="2:2">
       <c r="B339" s="21" t="s">
-        <v>339</v>
+        <v>562</v>
       </c>
     </row>
     <row r="340" spans="2:2">
       <c r="B340" s="21" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="341" spans="2:2">
-      <c r="B341" s="21" t="s">
-        <v>339</v>
-      </c>
+      <c r="B341" s="21"/>
     </row>
     <row r="342" spans="2:2">
       <c r="B342" s="21" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
     </row>
     <row r="343" spans="2:2">
       <c r="B343" s="21" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="344" spans="2:2">
       <c r="B344" s="21" t="s">
-        <v>386</v>
+        <v>547</v>
       </c>
     </row>
     <row r="345" spans="2:2">
-      <c r="B345" s="21"/>
+      <c r="B345" s="21" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="346" spans="2:2">
-      <c r="B346" s="21"/>
+      <c r="B346" s="21" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="347" spans="2:2">
-      <c r="B347" s="21" t="s">
-        <v>554</v>
-      </c>
+      <c r="B347" s="21"/>
     </row>
     <row r="348" spans="2:2">
       <c r="B348" s="21" t="s">
-        <v>339</v>
+        <v>565</v>
       </c>
     </row>
     <row r="349" spans="2:2">
       <c r="B349" s="21" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
     </row>
     <row r="350" spans="2:2">
       <c r="B350" s="21" t="s">
-        <v>339</v>
+        <v>567</v>
       </c>
     </row>
     <row r="351" spans="2:2">
       <c r="B351" s="21" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="352" spans="2:2">
       <c r="B352" s="21" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="353" spans="2:3">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2">
       <c r="B353" s="21" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="354" spans="2:3">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2">
       <c r="B354" s="21" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="355" spans="2:3">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2">
       <c r="B355" s="21" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="356" spans="2:3">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2">
       <c r="B356" s="21" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="357" spans="2:3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2">
       <c r="B357" s="21" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="359" spans="2:3">
-      <c r="B359" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="C359" s="2"/>
-    </row>
-    <row r="360" spans="2:3">
-      <c r="B360" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="C360" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="361" spans="2:3">
-      <c r="B361" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="C361" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="362" spans="2:3">
-      <c r="B362" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="C362" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="363" spans="2:3">
-      <c r="B363" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C363" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="364" spans="2:3">
-      <c r="B364" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="C364" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="365" spans="2:3">
-      <c r="B365" s="3" t="s">
+    <row r="358" spans="2:2">
+      <c r="B358" s="21" t="s">
         <v>573</v>
       </c>
-      <c r="C365" t="s">
+    </row>
+    <row r="359" spans="2:2">
+      <c r="B359" s="21" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2">
+      <c r="B360" s="21" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="366" spans="2:3">
-      <c r="B366" s="3" t="s">
+    <row r="361" spans="2:2">
+      <c r="B361" s="21" t="s">
         <v>575</v>
       </c>
-      <c r="C366" t="s">
+    </row>
+    <row r="362" spans="2:2">
+      <c r="B362" s="21" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="369" spans="2:3">
-      <c r="B369" s="2" t="s">
+    <row r="363" spans="2:2">
+      <c r="B363" s="21" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2">
+      <c r="B364" s="21"/>
+    </row>
+    <row r="365" spans="2:2">
+      <c r="B365" s="21" t="s">
         <v>577</v>
       </c>
-      <c r="C369" s="2"/>
-    </row>
-    <row r="370" spans="2:3">
-      <c r="B370" s="5" t="s">
+    </row>
+    <row r="366" spans="2:2">
+      <c r="B366" s="21" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="371" spans="2:3">
-      <c r="B371" s="5" t="s">
+    <row r="367" spans="2:2">
+      <c r="B367" s="21" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2">
+      <c r="B368" s="21" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2">
+      <c r="B369" s="21" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2">
+      <c r="B370" s="21"/>
+    </row>
+    <row r="371" spans="2:2">
+      <c r="B371" s="21" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="372" spans="2:3">
-      <c r="B372" s="5" t="s">
+    <row r="372" spans="2:2">
+      <c r="B372" s="21" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="373" spans="2:3">
-      <c r="B373" s="5" t="s">
+    <row r="373" spans="2:2">
+      <c r="B373" s="21" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="374" spans="2:3">
-      <c r="B374" s="5" t="s">
+    <row r="374" spans="2:2">
+      <c r="B374" s="21" t="s">
         <v>582</v>
       </c>
     </row>
+    <row r="375" spans="2:2">
+      <c r="B375" s="21" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2">
+      <c r="B376" s="21" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2">
+      <c r="B377" s="21" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2">
+      <c r="B378" s="21" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2">
+      <c r="B379" s="21" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2">
+      <c r="B380" s="21" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2">
+      <c r="B381" s="21" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2">
+      <c r="B382" s="21" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="383" spans="2:2">
+      <c r="B383" s="21" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="384" spans="2:2">
+      <c r="B384" s="21" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="385" spans="2:2">
+      <c r="B385" s="21"/>
+    </row>
+    <row r="386" spans="2:2">
+      <c r="B386" s="21" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2">
+      <c r="B387" s="21" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="388" spans="2:2">
+      <c r="B388" s="21" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="389" spans="2:2">
+      <c r="B389" s="21"/>
+    </row>
+    <row r="390" spans="2:2">
+      <c r="B390" s="21" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="391" spans="2:2">
+      <c r="B391" s="21" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="392" spans="2:2">
+      <c r="B392" s="21"/>
+    </row>
+    <row r="393" spans="2:2">
+      <c r="B393" s="21"/>
+    </row>
+    <row r="394" spans="2:2">
+      <c r="B394" s="21" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="395" spans="2:2">
+      <c r="B395" s="21" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="396" spans="2:2">
+      <c r="B396" s="21" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="397" spans="2:2">
+      <c r="B397" s="21" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="398" spans="2:2">
+      <c r="B398" s="21" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="399" spans="2:2">
+      <c r="B399" s="21" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="400" spans="2:2">
+      <c r="B400" s="21"/>
+    </row>
+    <row r="401" spans="2:2">
+      <c r="B401" s="21" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="402" spans="2:2">
+      <c r="B402" s="21" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="403" spans="2:2">
+      <c r="B403" s="21" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="404" spans="2:2">
+      <c r="B404" s="21"/>
+    </row>
+    <row r="405" spans="2:2">
+      <c r="B405" s="21" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="406" spans="2:2">
+      <c r="B406" s="21" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="407" spans="2:2">
+      <c r="B407" s="21" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="408" spans="2:2">
+      <c r="B408" s="21" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="409" spans="2:2">
+      <c r="B409" s="21"/>
+    </row>
+    <row r="410" spans="2:2">
+      <c r="B410" s="21" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="411" spans="2:2">
+      <c r="B411" s="21" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="412" spans="2:2">
+      <c r="B412" s="21" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="413" spans="2:2">
+      <c r="B413" s="21" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="414" spans="2:2">
+      <c r="B414" s="21"/>
+    </row>
+    <row r="415" spans="2:2">
+      <c r="B415" s="21" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="416" spans="2:2">
+      <c r="B416" s="21" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="417" spans="2:2">
+      <c r="B417" s="21" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="418" spans="2:2">
+      <c r="B418" s="21" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="419" spans="2:2">
+      <c r="B419" s="21" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="420" spans="2:2">
+      <c r="B420" s="21"/>
+    </row>
+    <row r="421" spans="2:2">
+      <c r="B421" s="21"/>
+    </row>
+    <row r="422" spans="2:2">
+      <c r="B422" s="21" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="423" spans="2:2">
+      <c r="B423" s="21" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="424" spans="2:2">
+      <c r="B424" s="21" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="425" spans="2:2">
+      <c r="B425" s="21" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="426" spans="2:2">
+      <c r="B426" s="21" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="427" spans="2:2">
+      <c r="B427" s="21" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="428" spans="2:2">
+      <c r="B428" s="21" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="429" spans="2:2">
+      <c r="B429" s="21"/>
+    </row>
+    <row r="430" spans="2:2">
+      <c r="B430" s="21"/>
+    </row>
+    <row r="431" spans="2:2">
+      <c r="B431" s="21" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="432" spans="2:2">
+      <c r="B432" s="21" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="433" spans="2:3">
+      <c r="B433" s="21" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="434" spans="2:3">
+      <c r="B434" s="21" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="435" spans="2:3">
+      <c r="B435" s="21" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="436" spans="2:3">
+      <c r="B436" s="21" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="437" spans="2:3">
+      <c r="B437" s="21" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="438" spans="2:3">
+      <c r="B438" s="21" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="439" spans="2:3">
+      <c r="B439" s="21" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="440" spans="2:3">
+      <c r="B440" s="21" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="441" spans="2:3">
+      <c r="B441" s="21" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="443" spans="2:3">
+      <c r="B443" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C443" s="2"/>
+    </row>
+    <row r="444" spans="2:3">
+      <c r="B444" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C444" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="445" spans="2:3">
+      <c r="B445" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="C445" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="446" spans="2:3">
+      <c r="B446" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C446" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="447" spans="2:3">
+      <c r="B447" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="C447" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="448" spans="2:3">
+      <c r="B448" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="C448" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="449" spans="2:3">
+      <c r="B449" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="C449" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="450" spans="2:3">
+      <c r="B450" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="C450" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="453" spans="2:3">
+      <c r="B453" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C453" s="2"/>
+    </row>
+    <row r="454" spans="2:3">
+      <c r="B454" t="s">
+        <v>638</v>
+      </c>
+      <c r="C454" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="455" spans="2:3">
+      <c r="B455" t="s">
+        <v>11</v>
+      </c>
+      <c r="C455" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="456" spans="2:3">
+      <c r="B456" t="s">
+        <v>13</v>
+      </c>
+      <c r="C456" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="457" spans="2:3">
+      <c r="B457" t="s">
+        <v>15</v>
+      </c>
+      <c r="C457" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="458" spans="2:3">
+      <c r="B458" t="s">
+        <v>643</v>
+      </c>
+      <c r="C458" s="3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="459" spans="2:3">
+      <c r="B459" t="s">
+        <v>257</v>
+      </c>
+      <c r="C459" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="460" spans="2:3">
+      <c r="B460" t="s">
+        <v>25</v>
+      </c>
+      <c r="C460" s="3" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="461" spans="2:3">
+      <c r="B461" t="s">
+        <v>298</v>
+      </c>
+      <c r="C461" s="3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="462" spans="2:3">
+      <c r="B462" t="s">
+        <v>36</v>
+      </c>
+      <c r="C462" s="3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="463" spans="2:3">
+      <c r="B463" t="s">
+        <v>39</v>
+      </c>
+      <c r="C463" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="464" spans="2:3">
+      <c r="B464" t="s">
+        <v>147</v>
+      </c>
+      <c r="C464" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="465" spans="2:3">
+      <c r="B465" t="s">
+        <v>308</v>
+      </c>
+      <c r="C465" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="466" spans="2:3">
+      <c r="B466" t="s">
+        <v>310</v>
+      </c>
+      <c r="C466" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="467" spans="2:3">
+      <c r="B467" t="s">
+        <v>653</v>
+      </c>
+      <c r="C467" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="468" spans="2:3">
+      <c r="B468" t="s">
+        <v>318</v>
+      </c>
+      <c r="C468" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="469" spans="2:3">
+      <c r="B469" t="s">
+        <v>656</v>
+      </c>
+      <c r="C469" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="470" spans="2:3">
+      <c r="B470" t="s">
+        <v>658</v>
+      </c>
+      <c r="C470" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="471" spans="2:3">
+      <c r="B471" t="s">
+        <v>304</v>
+      </c>
+      <c r="C471" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="472" spans="2:3">
+      <c r="B472" t="s">
+        <v>661</v>
+      </c>
+      <c r="C472" s="3" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="473" spans="2:3">
+      <c r="B473" t="s">
+        <v>663</v>
+      </c>
+      <c r="C473" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="474" spans="2:3">
+      <c r="B474" t="s">
+        <v>119</v>
+      </c>
+      <c r="C474" s="3" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="475" spans="2:3">
+      <c r="B475" t="s">
+        <v>666</v>
+      </c>
+      <c r="C475" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="476" spans="2:3">
+      <c r="B476" t="s">
+        <v>124</v>
+      </c>
+      <c r="C476" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="477" spans="2:3">
+      <c r="B477" t="s">
+        <v>669</v>
+      </c>
+      <c r="C477" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="478" spans="2:3">
+      <c r="B478" t="s">
+        <v>129</v>
+      </c>
+      <c r="C478" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="479" spans="2:3">
+      <c r="B479" t="s">
+        <v>130</v>
+      </c>
+      <c r="C479" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="480" spans="2:3">
+      <c r="B480" t="s">
+        <v>673</v>
+      </c>
+      <c r="C480" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="481" spans="2:3">
+      <c r="B481" t="s">
+        <v>675</v>
+      </c>
+      <c r="C481" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="482" spans="2:3">
+      <c r="B482" t="s">
+        <v>677</v>
+      </c>
+      <c r="C482" s="3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="483" spans="2:3">
+      <c r="B483" t="s">
+        <v>139</v>
+      </c>
+      <c r="C483" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="484" spans="2:3">
+      <c r="B484" t="s">
+        <v>680</v>
+      </c>
+      <c r="C484" s="3" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="487" spans="2:3">
+      <c r="B487" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C487" s="2"/>
+    </row>
+    <row r="488" spans="2:3">
+      <c r="B488" s="5" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="489" spans="2:3">
+      <c r="B489" s="5" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="490" spans="2:3">
+      <c r="B490" s="5" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="491" spans="2:3">
+      <c r="B491" s="5" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="492" spans="2:3">
+      <c r="B492" s="5" t="s">
+        <v>687</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B359:C359"/>
-    <mergeCell ref="B369:C369"/>
+    <mergeCell ref="B443:C443"/>
+    <mergeCell ref="B453:C453"/>
+    <mergeCell ref="B487:C487"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
